--- a/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1021,6 +1021,21 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['16', '62']</t>
+  </si>
+  <si>
+    <t>['75', '90']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['17', '64']</t>
+  </si>
+  <si>
+    <t>['7', '86']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1109,9 +1124,6 @@
   </si>
   <si>
     <t>['84', '85']</t>
-  </si>
-  <si>
-    <t>['55']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -1277,6 +1289,15 @@
   </si>
   <si>
     <t>['73', '90+1']</t>
+  </si>
+  <si>
+    <t>['24', '54']</t>
+  </si>
+  <si>
+    <t>['9', '54', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '47']</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK405"/>
+  <dimension ref="A1:BK419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1969,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2160,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.91</v>
@@ -2264,7 +2285,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2351,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT4">
         <v>1.09</v>
@@ -2542,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2736,7 +2757,7 @@
         <v>1.91</v>
       </c>
       <c r="AT6">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3115,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT8">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3497,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT10">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3601,7 +3622,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3691,7 +3712,7 @@
         <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -4070,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT13">
         <v>1.64</v>
@@ -4646,7 +4667,7 @@
         <v>1.64</v>
       </c>
       <c r="AT16">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4938,7 +4959,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5320,7 +5341,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5789,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
         <v>0.92</v>
@@ -5983,7 +6004,7 @@
         <v>2.08</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6084,7 +6105,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6657,7 +6678,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6744,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -7126,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -7317,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT30">
         <v>0.8</v>
@@ -7508,10 +7529,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7612,7 +7633,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7699,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT32">
         <v>0.73</v>
@@ -7803,7 +7824,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -7890,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT33">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU33">
         <v>1.58</v>
@@ -7994,7 +8015,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8272,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT35">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8463,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT36">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8657,7 +8678,7 @@
         <v>2.09</v>
       </c>
       <c r="AT37">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU37">
         <v>1.11</v>
@@ -8758,7 +8779,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8845,10 +8866,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT38">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -9039,7 +9060,7 @@
         <v>1.91</v>
       </c>
       <c r="AT39">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -9418,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
         <v>0.64</v>
@@ -9612,7 +9633,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9800,10 +9821,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU43">
         <v>1.07</v>
@@ -9991,10 +10012,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT44">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>1.55</v>
@@ -10182,7 +10203,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.91</v>
@@ -10668,7 +10689,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -11050,7 +11071,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11432,7 +11453,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11519,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT52">
         <v>0.64</v>
@@ -12477,7 +12498,7 @@
         <v>1.91</v>
       </c>
       <c r="AT57">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>0.67</v>
@@ -13151,7 +13172,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13915,7 +13936,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -14002,7 +14023,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT65">
         <v>1.4</v>
@@ -14193,10 +14214,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU66">
         <v>1.8</v>
@@ -14384,10 +14405,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU67">
         <v>1.52</v>
@@ -14575,10 +14596,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT68">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU68">
         <v>1.93</v>
@@ -14679,7 +14700,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -14766,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT69">
         <v>1.6</v>
@@ -14957,10 +14978,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU70">
         <v>0.84</v>
@@ -15148,10 +15169,10 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.29</v>
@@ -15443,7 +15464,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15530,10 +15551,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT73">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU73">
         <v>1.46</v>
@@ -15721,10 +15742,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.12</v>
@@ -15915,7 +15936,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16103,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT76">
         <v>0.64</v>
@@ -16297,7 +16318,7 @@
         <v>1.3</v>
       </c>
       <c r="AT77">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU77">
         <v>0.93</v>
@@ -16485,7 +16506,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT78">
         <v>0.73</v>
@@ -16589,7 +16610,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -16676,10 +16697,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU79">
         <v>1.97</v>
@@ -16867,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT80">
         <v>0.8</v>
@@ -17061,7 +17082,7 @@
         <v>1.91</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.31</v>
@@ -17249,10 +17270,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT82">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU82">
         <v>1.49</v>
@@ -17353,7 +17374,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17926,7 +17947,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18117,7 +18138,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18308,7 +18329,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18881,7 +18902,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -19454,7 +19475,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -20218,7 +20239,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20409,7 +20430,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20881,7 +20902,7 @@
         <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU101">
         <v>1.4</v>
@@ -21069,7 +21090,7 @@
         <v>2</v>
       </c>
       <c r="AS102">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT102">
         <v>1.4</v>
@@ -21260,10 +21281,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT103">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU103">
         <v>1.52</v>
@@ -21642,7 +21663,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT105">
         <v>0</v>
@@ -21833,10 +21854,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>1.05</v>
@@ -22024,10 +22045,10 @@
         <v>0.67</v>
       </c>
       <c r="AS107">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -22128,7 +22149,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22215,7 +22236,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT108">
         <v>0.91</v>
@@ -22406,10 +22427,10 @@
         <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT109">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>1.87</v>
@@ -22600,7 +22621,7 @@
         <v>1.91</v>
       </c>
       <c r="AT110">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.5</v>
@@ -22701,7 +22722,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -22791,7 +22812,7 @@
         <v>1.3</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU111">
         <v>1.27</v>
@@ -22979,7 +23000,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT112">
         <v>1.6</v>
@@ -23173,7 +23194,7 @@
         <v>2.08</v>
       </c>
       <c r="AT113">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU113">
         <v>1.44</v>
@@ -23361,10 +23382,10 @@
         <v>2</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.52</v>
@@ -23552,10 +23573,10 @@
         <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT115">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU115">
         <v>1.34</v>
@@ -23743,7 +23764,7 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>0.64</v>
@@ -23934,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU117">
         <v>1.73</v>
@@ -24125,10 +24146,10 @@
         <v>0.5</v>
       </c>
       <c r="AS118">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>1.26</v>
@@ -24229,7 +24250,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24319,7 +24340,7 @@
         <v>1.36</v>
       </c>
       <c r="AT119">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.33</v>
@@ -24611,7 +24632,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24802,7 +24823,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24993,7 +25014,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25080,7 +25101,7 @@
         <v>0.33</v>
       </c>
       <c r="AS123">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
         <v>1.08</v>
@@ -25757,7 +25778,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25948,7 +25969,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26330,7 +26351,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26521,7 +26542,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -27094,7 +27115,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27476,7 +27497,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27754,7 +27775,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT137">
         <v>0.64</v>
@@ -27945,10 +27966,10 @@
         <v>1.75</v>
       </c>
       <c r="AS138">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT138">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>1.42</v>
@@ -28136,10 +28157,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT139">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.34</v>
@@ -28330,7 +28351,7 @@
         <v>2.08</v>
       </c>
       <c r="AT140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU140">
         <v>1.5</v>
@@ -28518,10 +28539,10 @@
         <v>0</v>
       </c>
       <c r="AS141">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU141">
         <v>0.8100000000000001</v>
@@ -28709,10 +28730,10 @@
         <v>0.67</v>
       </c>
       <c r="AS142">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT142">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU142">
         <v>2.02</v>
@@ -28813,7 +28834,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28900,10 +28921,10 @@
         <v>0.75</v>
       </c>
       <c r="AS143">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU143">
         <v>1.15</v>
@@ -29094,7 +29115,7 @@
         <v>1.91</v>
       </c>
       <c r="AT144">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU144">
         <v>1.35</v>
@@ -29195,7 +29216,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29282,7 +29303,7 @@
         <v>2</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT145">
         <v>1.55</v>
@@ -29577,7 +29598,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29664,10 +29685,10 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT147">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU147">
         <v>1.8</v>
@@ -29768,7 +29789,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29858,7 +29879,7 @@
         <v>1.42</v>
       </c>
       <c r="AT148">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU148">
         <v>1.77</v>
@@ -29959,7 +29980,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -30046,7 +30067,7 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>0.83</v>
@@ -30237,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="AS150">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT150">
         <v>0</v>
@@ -31001,10 +31022,10 @@
         <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT154">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU154">
         <v>1.75</v>
@@ -31768,7 +31789,7 @@
         <v>2.5</v>
       </c>
       <c r="AT158">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU158">
         <v>1.84</v>
@@ -31869,7 +31890,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32338,7 +32359,7 @@
         <v>0.25</v>
       </c>
       <c r="AS161">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -32633,7 +32654,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32914,7 +32935,7 @@
         <v>1.58</v>
       </c>
       <c r="AT164">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU164">
         <v>1.38</v>
@@ -33105,7 +33126,7 @@
         <v>1.55</v>
       </c>
       <c r="AT165">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU165">
         <v>1.32</v>
@@ -33206,7 +33227,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33397,7 +33418,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33675,7 +33696,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT168">
         <v>1.36</v>
@@ -33866,10 +33887,10 @@
         <v>0.75</v>
       </c>
       <c r="AS169">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT169">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU169">
         <v>1.36</v>
@@ -34057,7 +34078,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT170">
         <v>1.08</v>
@@ -34439,10 +34460,10 @@
         <v>1.6</v>
       </c>
       <c r="AS172">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT172">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU172">
         <v>1.14</v>
@@ -34543,7 +34564,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -35015,7 +35036,7 @@
         <v>1.55</v>
       </c>
       <c r="AT175">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU175">
         <v>1.81</v>
@@ -35116,7 +35137,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35206,7 +35227,7 @@
         <v>1.42</v>
       </c>
       <c r="AT176">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU176">
         <v>1.81</v>
@@ -35394,10 +35415,10 @@
         <v>0.5</v>
       </c>
       <c r="AS177">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU177">
         <v>1.34</v>
@@ -35776,10 +35797,10 @@
         <v>1.25</v>
       </c>
       <c r="AS179">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT179">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU179">
         <v>2.02</v>
@@ -36071,7 +36092,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36349,7 +36370,7 @@
         <v>0.6</v>
       </c>
       <c r="AS182">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT182">
         <v>0.75</v>
@@ -36453,7 +36474,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36540,10 +36561,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT183">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU183">
         <v>1.1</v>
@@ -36835,7 +36856,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36922,7 +36943,7 @@
         <v>2</v>
       </c>
       <c r="AS185">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT185">
         <v>1.33</v>
@@ -37116,7 +37137,7 @@
         <v>1.82</v>
       </c>
       <c r="AT186">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU186">
         <v>1.48</v>
@@ -37307,7 +37328,7 @@
         <v>1.18</v>
       </c>
       <c r="AT187">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU187">
         <v>1.43</v>
@@ -37408,7 +37429,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37498,7 +37519,7 @@
         <v>1.36</v>
       </c>
       <c r="AT188">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU188">
         <v>1.42</v>
@@ -37686,7 +37707,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT189">
         <v>0.64</v>
@@ -37790,7 +37811,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37880,7 +37901,7 @@
         <v>2.25</v>
       </c>
       <c r="AT190">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU190">
         <v>1.31</v>
@@ -37981,7 +38002,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -38068,7 +38089,7 @@
         <v>1.5</v>
       </c>
       <c r="AS191">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT191">
         <v>1.6</v>
@@ -39023,7 +39044,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT196">
         <v>0.91</v>
@@ -39127,7 +39148,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39405,7 +39426,7 @@
         <v>2.2</v>
       </c>
       <c r="AS198">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT198">
         <v>1.55</v>
@@ -39596,7 +39617,7 @@
         <v>1.4</v>
       </c>
       <c r="AS199">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT199">
         <v>1.08</v>
@@ -39790,7 +39811,7 @@
         <v>2.5</v>
       </c>
       <c r="AT200">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU200">
         <v>1.97</v>
@@ -39891,7 +39912,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -39978,10 +39999,10 @@
         <v>1.2</v>
       </c>
       <c r="AS201">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT201">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU201">
         <v>1.4</v>
@@ -40082,7 +40103,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40273,7 +40294,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40360,7 +40381,7 @@
         <v>0.8</v>
       </c>
       <c r="AS203">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT203">
         <v>1</v>
@@ -40554,7 +40575,7 @@
         <v>1.27</v>
       </c>
       <c r="AT204">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>1.36</v>
@@ -40655,7 +40676,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40846,7 +40867,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -40933,7 +40954,7 @@
         <v>1.2</v>
       </c>
       <c r="AS206">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT206">
         <v>0.83</v>
@@ -41037,7 +41058,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41124,7 +41145,7 @@
         <v>1</v>
       </c>
       <c r="AS207">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT207">
         <v>0.64</v>
@@ -41419,7 +41440,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41509,7 +41530,7 @@
         <v>1.42</v>
       </c>
       <c r="AT209">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU209">
         <v>1.98</v>
@@ -41700,7 +41721,7 @@
         <v>2.36</v>
       </c>
       <c r="AT210">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU210">
         <v>1.78</v>
@@ -41801,7 +41822,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42565,7 +42586,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -42655,7 +42676,7 @@
         <v>2.08</v>
       </c>
       <c r="AT215">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU215">
         <v>1.57</v>
@@ -42843,10 +42864,10 @@
         <v>0.6</v>
       </c>
       <c r="AS216">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT216">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU216">
         <v>1.17</v>
@@ -43034,7 +43055,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT217">
         <v>0.91</v>
@@ -43228,7 +43249,7 @@
         <v>1.82</v>
       </c>
       <c r="AT218">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43419,7 +43440,7 @@
         <v>2.25</v>
       </c>
       <c r="AT219">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU219">
         <v>1.26</v>
@@ -43989,7 +44010,7 @@
         <v>0</v>
       </c>
       <c r="AS222">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT222">
         <v>0</v>
@@ -44180,7 +44201,7 @@
         <v>1.17</v>
       </c>
       <c r="AS223">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT223">
         <v>0.64</v>
@@ -44284,7 +44305,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44374,7 +44395,7 @@
         <v>1.64</v>
       </c>
       <c r="AT224">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44562,7 +44583,7 @@
         <v>0.83</v>
       </c>
       <c r="AS225">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT225">
         <v>0.64</v>
@@ -44666,7 +44687,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44753,7 +44774,7 @@
         <v>1.33</v>
       </c>
       <c r="AS226">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT226">
         <v>1.36</v>
@@ -45048,7 +45069,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45326,7 +45347,7 @@
         <v>0.67</v>
       </c>
       <c r="AS229">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT229">
         <v>0.75</v>
@@ -45430,7 +45451,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45517,7 +45538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS230">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT230">
         <v>0.92</v>
@@ -45711,7 +45732,7 @@
         <v>2.08</v>
       </c>
       <c r="AT231">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU231">
         <v>1.55</v>
@@ -45899,7 +45920,7 @@
         <v>1</v>
       </c>
       <c r="AS232">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT232">
         <v>1.09</v>
@@ -46093,7 +46114,7 @@
         <v>1.55</v>
       </c>
       <c r="AT233">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU233">
         <v>1.67</v>
@@ -46475,7 +46496,7 @@
         <v>1.58</v>
       </c>
       <c r="AT235">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU235">
         <v>1.29</v>
@@ -46576,7 +46597,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46663,7 +46684,7 @@
         <v>0.83</v>
       </c>
       <c r="AS236">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT236">
         <v>1.17</v>
@@ -46767,7 +46788,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46854,7 +46875,7 @@
         <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT237">
         <v>1.08</v>
@@ -47048,7 +47069,7 @@
         <v>2.5</v>
       </c>
       <c r="AT238">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU238">
         <v>1.95</v>
@@ -47149,7 +47170,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47236,7 +47257,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT239">
         <v>1.64</v>
@@ -47430,7 +47451,7 @@
         <v>1.42</v>
       </c>
       <c r="AT240">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU240">
         <v>1.89</v>
@@ -47531,7 +47552,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47809,7 +47830,7 @@
         <v>0.8</v>
       </c>
       <c r="AS242">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT242">
         <v>0.64</v>
@@ -47913,7 +47934,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48003,7 +48024,7 @@
         <v>1.27</v>
       </c>
       <c r="AT243">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU243">
         <v>1.41</v>
@@ -48194,7 +48215,7 @@
         <v>2.55</v>
       </c>
       <c r="AT244">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU244">
         <v>1.74</v>
@@ -48382,7 +48403,7 @@
         <v>1.8</v>
       </c>
       <c r="AS245">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT245">
         <v>1.33</v>
@@ -48576,7 +48597,7 @@
         <v>2.08</v>
       </c>
       <c r="AT246">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU246">
         <v>1.7</v>
@@ -49340,7 +49361,7 @@
         <v>1.73</v>
       </c>
       <c r="AT250">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU250">
         <v>1.36</v>
@@ -49528,7 +49549,7 @@
         <v>1.5</v>
       </c>
       <c r="AS251">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT251">
         <v>0.83</v>
@@ -49910,7 +49931,7 @@
         <v>1</v>
       </c>
       <c r="AS253">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT253">
         <v>0.64</v>
@@ -50101,7 +50122,7 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT254">
         <v>1.09</v>
@@ -50205,7 +50226,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50677,7 +50698,7 @@
         <v>2.09</v>
       </c>
       <c r="AT257">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU257">
         <v>1.27</v>
@@ -50865,7 +50886,7 @@
         <v>1</v>
       </c>
       <c r="AS258">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT258">
         <v>0.73</v>
@@ -50969,7 +50990,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51160,7 +51181,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51250,7 +51271,7 @@
         <v>1.55</v>
       </c>
       <c r="AT260">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU260">
         <v>1.67</v>
@@ -51438,7 +51459,7 @@
         <v>0.86</v>
       </c>
       <c r="AS261">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT261">
         <v>0.92</v>
@@ -51542,7 +51563,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -51629,7 +51650,7 @@
         <v>1.86</v>
       </c>
       <c r="AS262">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT262">
         <v>1.55</v>
@@ -52014,7 +52035,7 @@
         <v>1.64</v>
       </c>
       <c r="AT264">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU264">
         <v>1.33</v>
@@ -52205,7 +52226,7 @@
         <v>1.91</v>
       </c>
       <c r="AT265">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU265">
         <v>1.13</v>
@@ -52497,7 +52518,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52584,7 +52605,7 @@
         <v>0.71</v>
       </c>
       <c r="AS267">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT267">
         <v>0.64</v>
@@ -52775,7 +52796,7 @@
         <v>0.57</v>
       </c>
       <c r="AS268">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT268">
         <v>0.91</v>
@@ -53160,7 +53181,7 @@
         <v>2.08</v>
       </c>
       <c r="AT270">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU270">
         <v>1.51</v>
@@ -53348,7 +53369,7 @@
         <v>1.5</v>
       </c>
       <c r="AS271">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT271">
         <v>1.33</v>
@@ -53542,7 +53563,7 @@
         <v>1.58</v>
       </c>
       <c r="AT272">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU272">
         <v>1.25</v>
@@ -53643,7 +53664,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53924,7 +53945,7 @@
         <v>2.25</v>
       </c>
       <c r="AT274">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU274">
         <v>1.34</v>
@@ -54025,7 +54046,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54216,7 +54237,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54497,7 +54518,7 @@
         <v>2.5</v>
       </c>
       <c r="AT277">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU277">
         <v>1.87</v>
@@ -54688,7 +54709,7 @@
         <v>2.55</v>
       </c>
       <c r="AT278">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU278">
         <v>1.77</v>
@@ -54789,7 +54810,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -55067,7 +55088,7 @@
         <v>0.67</v>
       </c>
       <c r="AS280">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT280">
         <v>1.36</v>
@@ -55258,10 +55279,10 @@
         <v>0.67</v>
       </c>
       <c r="AS281">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT281">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU281">
         <v>1.7</v>
@@ -55452,7 +55473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT282">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU282">
         <v>1.41</v>
@@ -55643,7 +55664,7 @@
         <v>2.2</v>
       </c>
       <c r="AT283">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU283">
         <v>1.67</v>
@@ -55834,7 +55855,7 @@
         <v>2.36</v>
       </c>
       <c r="AT284">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU284">
         <v>1.79</v>
@@ -56022,7 +56043,7 @@
         <v>1.14</v>
       </c>
       <c r="AS285">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT285">
         <v>1.17</v>
@@ -56213,7 +56234,7 @@
         <v>1.57</v>
       </c>
       <c r="AS286">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT286">
         <v>1.64</v>
@@ -56317,7 +56338,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56508,7 +56529,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56595,7 +56616,7 @@
         <v>0.86</v>
       </c>
       <c r="AS288">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT288">
         <v>0.64</v>
@@ -56789,7 +56810,7 @@
         <v>2.09</v>
       </c>
       <c r="AT289">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU289">
         <v>1.4</v>
@@ -56890,7 +56911,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56977,7 +56998,7 @@
         <v>0.75</v>
       </c>
       <c r="AS290">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT290">
         <v>0.92</v>
@@ -57272,7 +57293,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57362,7 +57383,7 @@
         <v>1.27</v>
       </c>
       <c r="AT292">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU292">
         <v>1.47</v>
@@ -57550,10 +57571,10 @@
         <v>0.5</v>
       </c>
       <c r="AS293">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT293">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU293">
         <v>1.26</v>
@@ -57741,7 +57762,7 @@
         <v>0.88</v>
       </c>
       <c r="AS294">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT294">
         <v>0.91</v>
@@ -57932,7 +57953,7 @@
         <v>0.88</v>
       </c>
       <c r="AS295">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT295">
         <v>0.73</v>
@@ -58036,7 +58057,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58123,7 +58144,7 @@
         <v>1.13</v>
       </c>
       <c r="AS296">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT296">
         <v>1.36</v>
@@ -58227,7 +58248,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58418,7 +58439,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58609,7 +58630,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58887,10 +58908,10 @@
         <v>0.75</v>
       </c>
       <c r="AS300">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT300">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU300">
         <v>1.75</v>
@@ -59081,7 +59102,7 @@
         <v>1.91</v>
       </c>
       <c r="AT301">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU301">
         <v>1.12</v>
@@ -59269,7 +59290,7 @@
         <v>0.75</v>
       </c>
       <c r="AS302">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT302">
         <v>0.64</v>
@@ -59373,7 +59394,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59755,7 +59776,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -60224,7 +60245,7 @@
         <v>1.71</v>
       </c>
       <c r="AS307">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT307">
         <v>1.4</v>
@@ -60415,7 +60436,7 @@
         <v>1</v>
       </c>
       <c r="AS308">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT308">
         <v>0.64</v>
@@ -60606,10 +60627,10 @@
         <v>1</v>
       </c>
       <c r="AS309">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT309">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU309">
         <v>2.05</v>
@@ -60710,7 +60731,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -61182,7 +61203,7 @@
         <v>1.73</v>
       </c>
       <c r="AT312">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU312">
         <v>1.58</v>
@@ -61752,7 +61773,7 @@
         <v>0.5</v>
       </c>
       <c r="AS315">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT315">
         <v>0.75</v>
@@ -62047,7 +62068,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62137,7 +62158,7 @@
         <v>1.18</v>
       </c>
       <c r="AT317">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU317">
         <v>1.49</v>
@@ -62328,7 +62349,7 @@
         <v>2.25</v>
       </c>
       <c r="AT318">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU318">
         <v>1.33</v>
@@ -62519,7 +62540,7 @@
         <v>2.08</v>
       </c>
       <c r="AT319">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU319">
         <v>1.65</v>
@@ -62620,7 +62641,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62811,7 +62832,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -62898,7 +62919,7 @@
         <v>0.75</v>
       </c>
       <c r="AS321">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT321">
         <v>0.64</v>
@@ -63092,7 +63113,7 @@
         <v>2.2</v>
       </c>
       <c r="AT322">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU322">
         <v>1.59</v>
@@ -63193,7 +63214,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63283,7 +63304,7 @@
         <v>1.3</v>
       </c>
       <c r="AT323">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU323">
         <v>1.52</v>
@@ -63471,7 +63492,7 @@
         <v>0.71</v>
       </c>
       <c r="AS324">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT324">
         <v>1.36</v>
@@ -63662,7 +63683,7 @@
         <v>0.44</v>
       </c>
       <c r="AS325">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT325">
         <v>0.75</v>
@@ -63853,7 +63874,7 @@
         <v>1</v>
       </c>
       <c r="AS326">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT326">
         <v>0.92</v>
@@ -64047,7 +64068,7 @@
         <v>2.08</v>
       </c>
       <c r="AT327">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU327">
         <v>1.67</v>
@@ -64721,7 +64742,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -65002,7 +65023,7 @@
         <v>2.25</v>
       </c>
       <c r="AT332">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU332">
         <v>1.33</v>
@@ -65381,7 +65402,7 @@
         <v>1.11</v>
       </c>
       <c r="AS334">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT334">
         <v>1.33</v>
@@ -65572,7 +65593,7 @@
         <v>0.78</v>
       </c>
       <c r="AS335">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT335">
         <v>0.73</v>
@@ -65763,7 +65784,7 @@
         <v>1.5</v>
       </c>
       <c r="AS336">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT336">
         <v>1.4</v>
@@ -65954,10 +65975,10 @@
         <v>1.25</v>
       </c>
       <c r="AS337">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT337">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU337">
         <v>1.63</v>
@@ -66336,10 +66357,10 @@
         <v>1</v>
       </c>
       <c r="AS339">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT339">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU339">
         <v>1.16</v>
@@ -66530,7 +66551,7 @@
         <v>1.91</v>
       </c>
       <c r="AT340">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU340">
         <v>1.13</v>
@@ -66718,7 +66739,7 @@
         <v>0.78</v>
       </c>
       <c r="AS341">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT341">
         <v>0.64</v>
@@ -66912,7 +66933,7 @@
         <v>1.91</v>
       </c>
       <c r="AT342">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU342">
         <v>1.31</v>
@@ -67103,7 +67124,7 @@
         <v>2.09</v>
       </c>
       <c r="AT343">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU343">
         <v>1.41</v>
@@ -67291,10 +67312,10 @@
         <v>1</v>
       </c>
       <c r="AS344">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT344">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU344">
         <v>1.32</v>
@@ -67485,7 +67506,7 @@
         <v>2.2</v>
       </c>
       <c r="AT345">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU345">
         <v>1.56</v>
@@ -67864,7 +67885,7 @@
         <v>0.78</v>
       </c>
       <c r="AS347">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT347">
         <v>0.91</v>
@@ -67968,7 +67989,7 @@
         <v>312</v>
       </c>
       <c r="P348" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q348">
         <v>2</v>
@@ -68058,7 +68079,7 @@
         <v>1.3</v>
       </c>
       <c r="AT348">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU348">
         <v>1.51</v>
@@ -68159,7 +68180,7 @@
         <v>188</v>
       </c>
       <c r="P349" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68246,7 +68267,7 @@
         <v>1</v>
       </c>
       <c r="AS349">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT349">
         <v>1.36</v>
@@ -68437,10 +68458,10 @@
         <v>0.67</v>
       </c>
       <c r="AS350">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT350">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU350">
         <v>1.56</v>
@@ -68732,7 +68753,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -68819,10 +68840,10 @@
         <v>1</v>
       </c>
       <c r="AS352">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT352">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU352">
         <v>1.63</v>
@@ -70451,7 +70472,7 @@
         <v>181</v>
       </c>
       <c r="P361" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70729,7 +70750,7 @@
         <v>1.67</v>
       </c>
       <c r="AS362">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT362">
         <v>1.64</v>
@@ -70833,7 +70854,7 @@
         <v>181</v>
       </c>
       <c r="P363" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q363">
         <v>6</v>
@@ -71024,7 +71045,7 @@
         <v>102</v>
       </c>
       <c r="P364" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q364">
         <v>5</v>
@@ -71215,7 +71236,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q365">
         <v>1</v>
@@ -71493,7 +71514,7 @@
         <v>0.89</v>
       </c>
       <c r="AS366">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT366">
         <v>1.09</v>
@@ -71597,7 +71618,7 @@
         <v>317</v>
       </c>
       <c r="P367" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q367">
         <v>8</v>
@@ -72260,7 +72281,7 @@
         <v>1.64</v>
       </c>
       <c r="AT370">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU370">
         <v>1.37</v>
@@ -72448,10 +72469,10 @@
         <v>1.2</v>
       </c>
       <c r="AS371">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT371">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU371">
         <v>1.35</v>
@@ -72642,7 +72663,7 @@
         <v>1.5</v>
       </c>
       <c r="AT372">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU372">
         <v>1.47</v>
@@ -72743,7 +72764,7 @@
         <v>102</v>
       </c>
       <c r="P373" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q373">
         <v>6</v>
@@ -72830,7 +72851,7 @@
         <v>1</v>
       </c>
       <c r="AS373">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT373">
         <v>1.36</v>
@@ -73021,10 +73042,10 @@
         <v>0</v>
       </c>
       <c r="AS374">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT374">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AU374">
         <v>1.96</v>
@@ -73125,7 +73146,7 @@
         <v>321</v>
       </c>
       <c r="P375" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q375">
         <v>2</v>
@@ -73212,7 +73233,7 @@
         <v>1.44</v>
       </c>
       <c r="AS375">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT375">
         <v>1.4</v>
@@ -73403,10 +73424,10 @@
         <v>1</v>
       </c>
       <c r="AS376">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT376">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU376">
         <v>1.49</v>
@@ -73594,7 +73615,7 @@
         <v>0.7</v>
       </c>
       <c r="AS377">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT377">
         <v>0.73</v>
@@ -73785,7 +73806,7 @@
         <v>0.7</v>
       </c>
       <c r="AS378">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT378">
         <v>0.64</v>
@@ -73976,7 +73997,7 @@
         <v>1.78</v>
       </c>
       <c r="AS379">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT379">
         <v>1.6</v>
@@ -74080,7 +74101,7 @@
         <v>324</v>
       </c>
       <c r="P380" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q380">
         <v>3</v>
@@ -74170,7 +74191,7 @@
         <v>2.09</v>
       </c>
       <c r="AT380">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU380">
         <v>1.51</v>
@@ -74549,10 +74570,10 @@
         <v>0.5</v>
       </c>
       <c r="AS382">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT382">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU382">
         <v>1.71</v>
@@ -74740,10 +74761,10 @@
         <v>0.6</v>
       </c>
       <c r="AS383">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT383">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU383">
         <v>1.76</v>
@@ -74934,7 +74955,7 @@
         <v>1.91</v>
       </c>
       <c r="AT384">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU384">
         <v>1.24</v>
@@ -75125,7 +75146,7 @@
         <v>2.2</v>
       </c>
       <c r="AT385">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU385">
         <v>1.54</v>
@@ -75313,10 +75334,10 @@
         <v>0.89</v>
       </c>
       <c r="AS386">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT386">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU386">
         <v>1.59</v>
@@ -75507,7 +75528,7 @@
         <v>1.3</v>
       </c>
       <c r="AT387">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU387">
         <v>1.5</v>
@@ -75695,10 +75716,10 @@
         <v>0.5</v>
       </c>
       <c r="AS388">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT388">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU388">
         <v>1.28</v>
@@ -76754,7 +76775,7 @@
         <v>102</v>
       </c>
       <c r="P394" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q394">
         <v>3</v>
@@ -76945,7 +76966,7 @@
         <v>102</v>
       </c>
       <c r="P395" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q395">
         <v>6</v>
@@ -77136,7 +77157,7 @@
         <v>102</v>
       </c>
       <c r="P396" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q396">
         <v>2</v>
@@ -78091,7 +78112,7 @@
         <v>332</v>
       </c>
       <c r="P401" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q401">
         <v>5</v>
@@ -78282,7 +78303,7 @@
         <v>333</v>
       </c>
       <c r="P402" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q402">
         <v>3</v>
@@ -78664,7 +78685,7 @@
         <v>256</v>
       </c>
       <c r="P404" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q404">
         <v>13</v>
@@ -78855,7 +78876,7 @@
         <v>103</v>
       </c>
       <c r="P405" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q405">
         <v>1</v>
@@ -78997,6 +79018,2680 @@
       </c>
       <c r="BK405">
         <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:63">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>6161973</v>
+      </c>
+      <c r="C406" t="s">
+        <v>63</v>
+      </c>
+      <c r="D406" t="s">
+        <v>64</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45121.64583333334</v>
+      </c>
+      <c r="F406">
+        <v>25</v>
+      </c>
+      <c r="G406" t="s">
+        <v>99</v>
+      </c>
+      <c r="H406" t="s">
+        <v>80</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>1</v>
+      </c>
+      <c r="L406">
+        <v>2</v>
+      </c>
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406" t="s">
+        <v>335</v>
+      </c>
+      <c r="P406" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q406">
+        <v>2</v>
+      </c>
+      <c r="R406">
+        <v>6</v>
+      </c>
+      <c r="S406">
+        <v>8</v>
+      </c>
+      <c r="T406">
+        <v>3.18</v>
+      </c>
+      <c r="U406">
+        <v>1.81</v>
+      </c>
+      <c r="V406">
+        <v>5.06</v>
+      </c>
+      <c r="W406">
+        <v>1.74</v>
+      </c>
+      <c r="X406">
+        <v>2.09</v>
+      </c>
+      <c r="Y406">
+        <v>4.5</v>
+      </c>
+      <c r="Z406">
+        <v>1.18</v>
+      </c>
+      <c r="AA406">
+        <v>13</v>
+      </c>
+      <c r="AB406">
+        <v>1.01</v>
+      </c>
+      <c r="AC406">
+        <v>2.23</v>
+      </c>
+      <c r="AD406">
+        <v>2.72</v>
+      </c>
+      <c r="AE406">
+        <v>3.4</v>
+      </c>
+      <c r="AF406">
+        <v>1.12</v>
+      </c>
+      <c r="AG406">
+        <v>5.05</v>
+      </c>
+      <c r="AH406">
+        <v>1.66</v>
+      </c>
+      <c r="AI406">
+        <v>2.22</v>
+      </c>
+      <c r="AJ406">
+        <v>3.02</v>
+      </c>
+      <c r="AK406">
+        <v>1.28</v>
+      </c>
+      <c r="AL406">
+        <v>2.57</v>
+      </c>
+      <c r="AM406">
+        <v>1.48</v>
+      </c>
+      <c r="AN406">
+        <v>1.25</v>
+      </c>
+      <c r="AO406">
+        <v>1.41</v>
+      </c>
+      <c r="AP406">
+        <v>1.67</v>
+      </c>
+      <c r="AQ406">
+        <v>1.91</v>
+      </c>
+      <c r="AR406">
+        <v>0.55</v>
+      </c>
+      <c r="AS406">
+        <v>2</v>
+      </c>
+      <c r="AT406">
+        <v>0.5</v>
+      </c>
+      <c r="AU406">
+        <v>1.32</v>
+      </c>
+      <c r="AV406">
+        <v>1.16</v>
+      </c>
+      <c r="AW406">
+        <v>2.48</v>
+      </c>
+      <c r="AX406">
+        <v>2.16</v>
+      </c>
+      <c r="AY406">
+        <v>8</v>
+      </c>
+      <c r="AZ406">
+        <v>1.98</v>
+      </c>
+      <c r="BA406">
+        <v>1.61</v>
+      </c>
+      <c r="BB406">
+        <v>2.05</v>
+      </c>
+      <c r="BC406">
+        <v>2.6</v>
+      </c>
+      <c r="BD406">
+        <v>3.84</v>
+      </c>
+      <c r="BE406">
+        <v>0</v>
+      </c>
+      <c r="BF406">
+        <v>3</v>
+      </c>
+      <c r="BG406">
+        <v>2</v>
+      </c>
+      <c r="BH406">
+        <v>5</v>
+      </c>
+      <c r="BI406">
+        <v>5</v>
+      </c>
+      <c r="BJ406">
+        <v>8</v>
+      </c>
+      <c r="BK406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:63">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>6161979</v>
+      </c>
+      <c r="C407" t="s">
+        <v>63</v>
+      </c>
+      <c r="D407" t="s">
+        <v>64</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45121.875</v>
+      </c>
+      <c r="F407">
+        <v>25</v>
+      </c>
+      <c r="G407" t="s">
+        <v>73</v>
+      </c>
+      <c r="H407" t="s">
+        <v>69</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407">
+        <v>1</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+      <c r="M407">
+        <v>2</v>
+      </c>
+      <c r="N407">
+        <v>2</v>
+      </c>
+      <c r="O407" t="s">
+        <v>102</v>
+      </c>
+      <c r="P407" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q407">
+        <v>6</v>
+      </c>
+      <c r="R407">
+        <v>3</v>
+      </c>
+      <c r="S407">
+        <v>9</v>
+      </c>
+      <c r="T407">
+        <v>2.79</v>
+      </c>
+      <c r="U407">
+        <v>1.96</v>
+      </c>
+      <c r="V407">
+        <v>5.31</v>
+      </c>
+      <c r="W407">
+        <v>1.58</v>
+      </c>
+      <c r="X407">
+        <v>2.25</v>
+      </c>
+      <c r="Y407">
+        <v>3.72</v>
+      </c>
+      <c r="Z407">
+        <v>1.25</v>
+      </c>
+      <c r="AA407">
+        <v>10.5</v>
+      </c>
+      <c r="AB407">
+        <v>1.03</v>
+      </c>
+      <c r="AC407">
+        <v>1.89</v>
+      </c>
+      <c r="AD407">
+        <v>3.05</v>
+      </c>
+      <c r="AE407">
+        <v>3.95</v>
+      </c>
+      <c r="AF407">
+        <v>1.12</v>
+      </c>
+      <c r="AG407">
+        <v>6.46</v>
+      </c>
+      <c r="AH407">
+        <v>1.53</v>
+      </c>
+      <c r="AI407">
+        <v>2.34</v>
+      </c>
+      <c r="AJ407">
+        <v>2.55</v>
+      </c>
+      <c r="AK407">
+        <v>1.39</v>
+      </c>
+      <c r="AL407">
+        <v>2.27</v>
+      </c>
+      <c r="AM407">
+        <v>1.6</v>
+      </c>
+      <c r="AN407">
+        <v>1.22</v>
+      </c>
+      <c r="AO407">
+        <v>1.34</v>
+      </c>
+      <c r="AP407">
+        <v>1.84</v>
+      </c>
+      <c r="AQ407">
+        <v>1.18</v>
+      </c>
+      <c r="AR407">
+        <v>0.55</v>
+      </c>
+      <c r="AS407">
+        <v>1.08</v>
+      </c>
+      <c r="AT407">
+        <v>0.75</v>
+      </c>
+      <c r="AU407">
+        <v>1.33</v>
+      </c>
+      <c r="AV407">
+        <v>1.1</v>
+      </c>
+      <c r="AW407">
+        <v>2.43</v>
+      </c>
+      <c r="AX407">
+        <v>1.59</v>
+      </c>
+      <c r="AY407">
+        <v>8.6</v>
+      </c>
+      <c r="AZ407">
+        <v>2.94</v>
+      </c>
+      <c r="BA407">
+        <v>1.55</v>
+      </c>
+      <c r="BB407">
+        <v>1.92</v>
+      </c>
+      <c r="BC407">
+        <v>2.43</v>
+      </c>
+      <c r="BD407">
+        <v>3.34</v>
+      </c>
+      <c r="BE407">
+        <v>5.2</v>
+      </c>
+      <c r="BF407">
+        <v>4</v>
+      </c>
+      <c r="BG407">
+        <v>6</v>
+      </c>
+      <c r="BH407">
+        <v>6</v>
+      </c>
+      <c r="BI407">
+        <v>2</v>
+      </c>
+      <c r="BJ407">
+        <v>10</v>
+      </c>
+      <c r="BK407">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:63">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>6161972</v>
+      </c>
+      <c r="C408" t="s">
+        <v>63</v>
+      </c>
+      <c r="D408" t="s">
+        <v>64</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45121.89583333334</v>
+      </c>
+      <c r="F408">
+        <v>25</v>
+      </c>
+      <c r="G408" t="s">
+        <v>85</v>
+      </c>
+      <c r="H408" t="s">
+        <v>81</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408">
+        <v>1</v>
+      </c>
+      <c r="O408" t="s">
+        <v>322</v>
+      </c>
+      <c r="P408" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q408">
+        <v>11</v>
+      </c>
+      <c r="R408">
+        <v>2</v>
+      </c>
+      <c r="S408">
+        <v>13</v>
+      </c>
+      <c r="T408">
+        <v>2.1</v>
+      </c>
+      <c r="U408">
+        <v>2.21</v>
+      </c>
+      <c r="V408">
+        <v>7.3</v>
+      </c>
+      <c r="W408">
+        <v>1.47</v>
+      </c>
+      <c r="X408">
+        <v>2.67</v>
+      </c>
+      <c r="Y408">
+        <v>3.36</v>
+      </c>
+      <c r="Z408">
+        <v>1.32</v>
+      </c>
+      <c r="AA408">
+        <v>8.4</v>
+      </c>
+      <c r="AB408">
+        <v>1.05</v>
+      </c>
+      <c r="AC408">
+        <v>1.43</v>
+      </c>
+      <c r="AD408">
+        <v>3.8</v>
+      </c>
+      <c r="AE408">
+        <v>6.8</v>
+      </c>
+      <c r="AF408">
+        <v>1.04</v>
+      </c>
+      <c r="AG408">
+        <v>7.7</v>
+      </c>
+      <c r="AH408">
+        <v>1.36</v>
+      </c>
+      <c r="AI408">
+        <v>2.82</v>
+      </c>
+      <c r="AJ408">
+        <v>2.12</v>
+      </c>
+      <c r="AK408">
+        <v>1.56</v>
+      </c>
+      <c r="AL408">
+        <v>2.38</v>
+      </c>
+      <c r="AM408">
+        <v>1.54</v>
+      </c>
+      <c r="AN408">
+        <v>1.08</v>
+      </c>
+      <c r="AO408">
+        <v>1.23</v>
+      </c>
+      <c r="AP408">
+        <v>2.66</v>
+      </c>
+      <c r="AQ408">
+        <v>2.18</v>
+      </c>
+      <c r="AR408">
+        <v>0.45</v>
+      </c>
+      <c r="AS408">
+        <v>2.25</v>
+      </c>
+      <c r="AT408">
+        <v>0.42</v>
+      </c>
+      <c r="AU408">
+        <v>1.4</v>
+      </c>
+      <c r="AV408">
+        <v>1.03</v>
+      </c>
+      <c r="AW408">
+        <v>2.43</v>
+      </c>
+      <c r="AX408">
+        <v>1.33</v>
+      </c>
+      <c r="AY408">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ408">
+        <v>4.2</v>
+      </c>
+      <c r="BA408">
+        <v>1.48</v>
+      </c>
+      <c r="BB408">
+        <v>1.8</v>
+      </c>
+      <c r="BC408">
+        <v>2.26</v>
+      </c>
+      <c r="BD408">
+        <v>3.15</v>
+      </c>
+      <c r="BE408">
+        <v>4.9</v>
+      </c>
+      <c r="BF408">
+        <v>2</v>
+      </c>
+      <c r="BG408">
+        <v>0</v>
+      </c>
+      <c r="BH408">
+        <v>6</v>
+      </c>
+      <c r="BI408">
+        <v>2</v>
+      </c>
+      <c r="BJ408">
+        <v>8</v>
+      </c>
+      <c r="BK408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:63">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>6161929</v>
+      </c>
+      <c r="C409" t="s">
+        <v>63</v>
+      </c>
+      <c r="D409" t="s">
+        <v>64</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45122.50694444445</v>
+      </c>
+      <c r="F409">
+        <v>22</v>
+      </c>
+      <c r="G409" t="s">
+        <v>96</v>
+      </c>
+      <c r="H409" t="s">
+        <v>101</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>1</v>
+      </c>
+      <c r="K409">
+        <v>1</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+      <c r="M409">
+        <v>3</v>
+      </c>
+      <c r="N409">
+        <v>3</v>
+      </c>
+      <c r="O409" t="s">
+        <v>102</v>
+      </c>
+      <c r="P409" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q409">
+        <v>4</v>
+      </c>
+      <c r="R409">
+        <v>2</v>
+      </c>
+      <c r="S409">
+        <v>6</v>
+      </c>
+      <c r="T409">
+        <v>3.5</v>
+      </c>
+      <c r="U409">
+        <v>1.98</v>
+      </c>
+      <c r="V409">
+        <v>2.95</v>
+      </c>
+      <c r="W409">
+        <v>1.46</v>
+      </c>
+      <c r="X409">
+        <v>2.5</v>
+      </c>
+      <c r="Y409">
+        <v>3.1</v>
+      </c>
+      <c r="Z409">
+        <v>1.32</v>
+      </c>
+      <c r="AA409">
+        <v>8.5</v>
+      </c>
+      <c r="AB409">
+        <v>1.06</v>
+      </c>
+      <c r="AC409">
+        <v>2.93</v>
+      </c>
+      <c r="AD409">
+        <v>3.32</v>
+      </c>
+      <c r="AE409">
+        <v>2.44</v>
+      </c>
+      <c r="AF409">
+        <v>1.07</v>
+      </c>
+      <c r="AG409">
+        <v>7.5</v>
+      </c>
+      <c r="AH409">
+        <v>1.37</v>
+      </c>
+      <c r="AI409">
+        <v>2.8</v>
+      </c>
+      <c r="AJ409">
+        <v>2.18</v>
+      </c>
+      <c r="AK409">
+        <v>1.64</v>
+      </c>
+      <c r="AL409">
+        <v>1.88</v>
+      </c>
+      <c r="AM409">
+        <v>1.8</v>
+      </c>
+      <c r="AN409">
+        <v>1.55</v>
+      </c>
+      <c r="AO409">
+        <v>1.33</v>
+      </c>
+      <c r="AP409">
+        <v>1.37</v>
+      </c>
+      <c r="AQ409">
+        <v>1</v>
+      </c>
+      <c r="AR409">
+        <v>1.5</v>
+      </c>
+      <c r="AS409">
+        <v>0.91</v>
+      </c>
+      <c r="AT409">
+        <v>1.64</v>
+      </c>
+      <c r="AU409">
+        <v>2.04</v>
+      </c>
+      <c r="AV409">
+        <v>1.61</v>
+      </c>
+      <c r="AW409">
+        <v>3.65</v>
+      </c>
+      <c r="AX409">
+        <v>1.83</v>
+      </c>
+      <c r="AY409">
+        <v>7.6</v>
+      </c>
+      <c r="AZ409">
+        <v>2.41</v>
+      </c>
+      <c r="BA409">
+        <v>1.2</v>
+      </c>
+      <c r="BB409">
+        <v>1.49</v>
+      </c>
+      <c r="BC409">
+        <v>1.75</v>
+      </c>
+      <c r="BD409">
+        <v>2.19</v>
+      </c>
+      <c r="BE409">
+        <v>2.7</v>
+      </c>
+      <c r="BF409">
+        <v>6</v>
+      </c>
+      <c r="BG409">
+        <v>8</v>
+      </c>
+      <c r="BH409">
+        <v>7</v>
+      </c>
+      <c r="BI409">
+        <v>3</v>
+      </c>
+      <c r="BJ409">
+        <v>13</v>
+      </c>
+      <c r="BK409">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:63">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>6161977</v>
+      </c>
+      <c r="C410" t="s">
+        <v>63</v>
+      </c>
+      <c r="D410" t="s">
+        <v>64</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45122.64583333334</v>
+      </c>
+      <c r="F410">
+        <v>25</v>
+      </c>
+      <c r="G410" t="s">
+        <v>71</v>
+      </c>
+      <c r="H410" t="s">
+        <v>86</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>2</v>
+      </c>
+      <c r="M410">
+        <v>1</v>
+      </c>
+      <c r="N410">
+        <v>3</v>
+      </c>
+      <c r="O410" t="s">
+        <v>336</v>
+      </c>
+      <c r="P410" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q410">
+        <v>5</v>
+      </c>
+      <c r="R410">
+        <v>2</v>
+      </c>
+      <c r="S410">
+        <v>7</v>
+      </c>
+      <c r="T410">
+        <v>3.32</v>
+      </c>
+      <c r="U410">
+        <v>1.95</v>
+      </c>
+      <c r="V410">
+        <v>4.02</v>
+      </c>
+      <c r="W410">
+        <v>1.57</v>
+      </c>
+      <c r="X410">
+        <v>2.37</v>
+      </c>
+      <c r="Y410">
+        <v>3.64</v>
+      </c>
+      <c r="Z410">
+        <v>1.26</v>
+      </c>
+      <c r="AA410">
+        <v>10.2</v>
+      </c>
+      <c r="AB410">
+        <v>1.03</v>
+      </c>
+      <c r="AC410">
+        <v>2.4</v>
+      </c>
+      <c r="AD410">
+        <v>3.1</v>
+      </c>
+      <c r="AE410">
+        <v>3.18</v>
+      </c>
+      <c r="AF410">
+        <v>1.11</v>
+      </c>
+      <c r="AG410">
+        <v>6.35</v>
+      </c>
+      <c r="AH410">
+        <v>1.5</v>
+      </c>
+      <c r="AI410">
+        <v>2.5</v>
+      </c>
+      <c r="AJ410">
+        <v>2.44</v>
+      </c>
+      <c r="AK410">
+        <v>1.49</v>
+      </c>
+      <c r="AL410">
+        <v>2.13</v>
+      </c>
+      <c r="AM410">
+        <v>1.68</v>
+      </c>
+      <c r="AN410">
+        <v>1.36</v>
+      </c>
+      <c r="AO410">
+        <v>1.37</v>
+      </c>
+      <c r="AP410">
+        <v>1.56</v>
+      </c>
+      <c r="AQ410">
+        <v>2</v>
+      </c>
+      <c r="AR410">
+        <v>1.09</v>
+      </c>
+      <c r="AS410">
+        <v>2.08</v>
+      </c>
+      <c r="AT410">
+        <v>1</v>
+      </c>
+      <c r="AU410">
+        <v>1.55</v>
+      </c>
+      <c r="AV410">
+        <v>1.25</v>
+      </c>
+      <c r="AW410">
+        <v>2.8</v>
+      </c>
+      <c r="AX410">
+        <v>1.89</v>
+      </c>
+      <c r="AY410">
+        <v>6.85</v>
+      </c>
+      <c r="AZ410">
+        <v>2.39</v>
+      </c>
+      <c r="BA410">
+        <v>1.69</v>
+      </c>
+      <c r="BB410">
+        <v>2.13</v>
+      </c>
+      <c r="BC410">
+        <v>2.7</v>
+      </c>
+      <c r="BD410">
+        <v>4.15</v>
+      </c>
+      <c r="BE410">
+        <v>6.1</v>
+      </c>
+      <c r="BF410">
+        <v>3</v>
+      </c>
+      <c r="BG410">
+        <v>4</v>
+      </c>
+      <c r="BH410">
+        <v>6</v>
+      </c>
+      <c r="BI410">
+        <v>2</v>
+      </c>
+      <c r="BJ410">
+        <v>9</v>
+      </c>
+      <c r="BK410">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:63">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>6161928</v>
+      </c>
+      <c r="C411" t="s">
+        <v>63</v>
+      </c>
+      <c r="D411" t="s">
+        <v>64</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45122.65277777778</v>
+      </c>
+      <c r="F411">
+        <v>22</v>
+      </c>
+      <c r="G411" t="s">
+        <v>95</v>
+      </c>
+      <c r="H411" t="s">
+        <v>98</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411">
+        <v>1</v>
+      </c>
+      <c r="O411" t="s">
+        <v>225</v>
+      </c>
+      <c r="P411" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q411">
+        <v>13</v>
+      </c>
+      <c r="R411">
+        <v>2</v>
+      </c>
+      <c r="S411">
+        <v>15</v>
+      </c>
+      <c r="T411">
+        <v>2.43</v>
+      </c>
+      <c r="U411">
+        <v>1.94</v>
+      </c>
+      <c r="V411">
+        <v>6.32</v>
+      </c>
+      <c r="W411">
+        <v>1.57</v>
+      </c>
+      <c r="X411">
+        <v>2.32</v>
+      </c>
+      <c r="Y411">
+        <v>3.72</v>
+      </c>
+      <c r="Z411">
+        <v>1.25</v>
+      </c>
+      <c r="AA411">
+        <v>10.5</v>
+      </c>
+      <c r="AB411">
+        <v>1.03</v>
+      </c>
+      <c r="AC411">
+        <v>1.76</v>
+      </c>
+      <c r="AD411">
+        <v>3.38</v>
+      </c>
+      <c r="AE411">
+        <v>5.25</v>
+      </c>
+      <c r="AF411">
+        <v>1.08</v>
+      </c>
+      <c r="AG411">
+        <v>6.25</v>
+      </c>
+      <c r="AH411">
+        <v>1.52</v>
+      </c>
+      <c r="AI411">
+        <v>2.45</v>
+      </c>
+      <c r="AJ411">
+        <v>2.51</v>
+      </c>
+      <c r="AK411">
+        <v>1.4</v>
+      </c>
+      <c r="AL411">
+        <v>2.4</v>
+      </c>
+      <c r="AM411">
+        <v>1.54</v>
+      </c>
+      <c r="AN411">
+        <v>1.15</v>
+      </c>
+      <c r="AO411">
+        <v>1.32</v>
+      </c>
+      <c r="AP411">
+        <v>2.08</v>
+      </c>
+      <c r="AQ411">
+        <v>2.2</v>
+      </c>
+      <c r="AR411">
+        <v>0</v>
+      </c>
+      <c r="AS411">
+        <v>2.27</v>
+      </c>
+      <c r="AT411">
+        <v>0</v>
+      </c>
+      <c r="AU411">
+        <v>1.81</v>
+      </c>
+      <c r="AV411">
+        <v>1.19</v>
+      </c>
+      <c r="AW411">
+        <v>3</v>
+      </c>
+      <c r="AX411">
+        <v>1.48</v>
+      </c>
+      <c r="AY411">
+        <v>8.6</v>
+      </c>
+      <c r="AZ411">
+        <v>3.32</v>
+      </c>
+      <c r="BA411">
+        <v>1.4</v>
+      </c>
+      <c r="BB411">
+        <v>1.7</v>
+      </c>
+      <c r="BC411">
+        <v>2.12</v>
+      </c>
+      <c r="BD411">
+        <v>2.63</v>
+      </c>
+      <c r="BE411">
+        <v>3.74</v>
+      </c>
+      <c r="BF411">
+        <v>4</v>
+      </c>
+      <c r="BG411">
+        <v>0</v>
+      </c>
+      <c r="BH411">
+        <v>7</v>
+      </c>
+      <c r="BI411">
+        <v>3</v>
+      </c>
+      <c r="BJ411">
+        <v>11</v>
+      </c>
+      <c r="BK411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:63">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>6161980</v>
+      </c>
+      <c r="C412" t="s">
+        <v>63</v>
+      </c>
+      <c r="D412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F412">
+        <v>25</v>
+      </c>
+      <c r="G412" t="s">
+        <v>68</v>
+      </c>
+      <c r="H412" t="s">
+        <v>72</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>1</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412">
+        <v>1</v>
+      </c>
+      <c r="O412" t="s">
+        <v>120</v>
+      </c>
+      <c r="P412" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q412">
+        <v>7</v>
+      </c>
+      <c r="R412">
+        <v>7</v>
+      </c>
+      <c r="S412">
+        <v>14</v>
+      </c>
+      <c r="T412">
+        <v>2.9</v>
+      </c>
+      <c r="U412">
+        <v>1.88</v>
+      </c>
+      <c r="V412">
+        <v>4.2</v>
+      </c>
+      <c r="W412">
+        <v>1.55</v>
+      </c>
+      <c r="X412">
+        <v>2.3</v>
+      </c>
+      <c r="Y412">
+        <v>3.5</v>
+      </c>
+      <c r="Z412">
+        <v>1.25</v>
+      </c>
+      <c r="AA412">
+        <v>8.25</v>
+      </c>
+      <c r="AB412">
+        <v>1.04</v>
+      </c>
+      <c r="AC412">
+        <v>2.3</v>
+      </c>
+      <c r="AD412">
+        <v>2.88</v>
+      </c>
+      <c r="AE412">
+        <v>3.1</v>
+      </c>
+      <c r="AF412">
+        <v>1.11</v>
+      </c>
+      <c r="AG412">
+        <v>6</v>
+      </c>
+      <c r="AH412">
+        <v>1.5</v>
+      </c>
+      <c r="AI412">
+        <v>2.48</v>
+      </c>
+      <c r="AJ412">
+        <v>2.59</v>
+      </c>
+      <c r="AK412">
+        <v>1.44</v>
+      </c>
+      <c r="AL412">
+        <v>2.1</v>
+      </c>
+      <c r="AM412">
+        <v>1.65</v>
+      </c>
+      <c r="AN412">
+        <v>1.28</v>
+      </c>
+      <c r="AO412">
+        <v>1.32</v>
+      </c>
+      <c r="AP412">
+        <v>1.62</v>
+      </c>
+      <c r="AQ412">
+        <v>1.64</v>
+      </c>
+      <c r="AR412">
+        <v>1.09</v>
+      </c>
+      <c r="AS412">
+        <v>1.75</v>
+      </c>
+      <c r="AT412">
+        <v>1</v>
+      </c>
+      <c r="AU412">
+        <v>1.72</v>
+      </c>
+      <c r="AV412">
+        <v>1.31</v>
+      </c>
+      <c r="AW412">
+        <v>3.03</v>
+      </c>
+      <c r="AX412">
+        <v>1.72</v>
+      </c>
+      <c r="AY412">
+        <v>6.8</v>
+      </c>
+      <c r="AZ412">
+        <v>2.77</v>
+      </c>
+      <c r="BA412">
+        <v>1.43</v>
+      </c>
+      <c r="BB412">
+        <v>1.7</v>
+      </c>
+      <c r="BC412">
+        <v>2.1</v>
+      </c>
+      <c r="BD412">
+        <v>2.63</v>
+      </c>
+      <c r="BE412">
+        <v>4</v>
+      </c>
+      <c r="BF412">
+        <v>4</v>
+      </c>
+      <c r="BG412">
+        <v>4</v>
+      </c>
+      <c r="BH412">
+        <v>7</v>
+      </c>
+      <c r="BI412">
+        <v>1</v>
+      </c>
+      <c r="BJ412">
+        <v>11</v>
+      </c>
+      <c r="BK412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:63">
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>6161934</v>
+      </c>
+      <c r="C413" t="s">
+        <v>63</v>
+      </c>
+      <c r="D413" t="s">
+        <v>64</v>
+      </c>
+      <c r="E413" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F413">
+        <v>22</v>
+      </c>
+      <c r="G413" t="s">
+        <v>76</v>
+      </c>
+      <c r="H413" t="s">
+        <v>77</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>1</v>
+      </c>
+      <c r="K413">
+        <v>1</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413">
+        <v>2</v>
+      </c>
+      <c r="N413">
+        <v>3</v>
+      </c>
+      <c r="O413" t="s">
+        <v>337</v>
+      </c>
+      <c r="P413" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q413">
+        <v>1</v>
+      </c>
+      <c r="R413">
+        <v>4</v>
+      </c>
+      <c r="S413">
+        <v>5</v>
+      </c>
+      <c r="T413">
+        <v>3.08</v>
+      </c>
+      <c r="U413">
+        <v>1.98</v>
+      </c>
+      <c r="V413">
+        <v>4.29</v>
+      </c>
+      <c r="W413">
+        <v>1.56</v>
+      </c>
+      <c r="X413">
+        <v>2.42</v>
+      </c>
+      <c r="Y413">
+        <v>3.56</v>
+      </c>
+      <c r="Z413">
+        <v>1.27</v>
+      </c>
+      <c r="AA413">
+        <v>9.9</v>
+      </c>
+      <c r="AB413">
+        <v>1.03</v>
+      </c>
+      <c r="AC413">
+        <v>2.1</v>
+      </c>
+      <c r="AD413">
+        <v>2.9</v>
+      </c>
+      <c r="AE413">
+        <v>3.5</v>
+      </c>
+      <c r="AF413">
+        <v>1.1</v>
+      </c>
+      <c r="AG413">
+        <v>6.56</v>
+      </c>
+      <c r="AH413">
+        <v>1.54</v>
+      </c>
+      <c r="AI413">
+        <v>2.38</v>
+      </c>
+      <c r="AJ413">
+        <v>2.73</v>
+      </c>
+      <c r="AK413">
+        <v>1.4</v>
+      </c>
+      <c r="AL413">
+        <v>2.11</v>
+      </c>
+      <c r="AM413">
+        <v>1.69</v>
+      </c>
+      <c r="AN413">
+        <v>1.31</v>
+      </c>
+      <c r="AO413">
+        <v>1.36</v>
+      </c>
+      <c r="AP413">
+        <v>1.66</v>
+      </c>
+      <c r="AQ413">
+        <v>1.8</v>
+      </c>
+      <c r="AR413">
+        <v>0.8</v>
+      </c>
+      <c r="AS413">
+        <v>1.64</v>
+      </c>
+      <c r="AT413">
+        <v>1</v>
+      </c>
+      <c r="AU413">
+        <v>1.47</v>
+      </c>
+      <c r="AV413">
+        <v>1.22</v>
+      </c>
+      <c r="AW413">
+        <v>2.69</v>
+      </c>
+      <c r="AX413">
+        <v>1.63</v>
+      </c>
+      <c r="AY413">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ413">
+        <v>2.79</v>
+      </c>
+      <c r="BA413">
+        <v>1.32</v>
+      </c>
+      <c r="BB413">
+        <v>1.64</v>
+      </c>
+      <c r="BC413">
+        <v>2.03</v>
+      </c>
+      <c r="BD413">
+        <v>2.65</v>
+      </c>
+      <c r="BE413">
+        <v>3.56</v>
+      </c>
+      <c r="BF413">
+        <v>3</v>
+      </c>
+      <c r="BG413">
+        <v>6</v>
+      </c>
+      <c r="BH413">
+        <v>6</v>
+      </c>
+      <c r="BI413">
+        <v>2</v>
+      </c>
+      <c r="BJ413">
+        <v>9</v>
+      </c>
+      <c r="BK413">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63">
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>6161935</v>
+      </c>
+      <c r="C414" t="s">
+        <v>63</v>
+      </c>
+      <c r="D414" t="s">
+        <v>64</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45122.79166666666</v>
+      </c>
+      <c r="F414">
+        <v>22</v>
+      </c>
+      <c r="G414" t="s">
+        <v>90</v>
+      </c>
+      <c r="H414" t="s">
+        <v>83</v>
+      </c>
+      <c r="I414">
+        <v>1</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>1</v>
+      </c>
+      <c r="L414">
+        <v>1</v>
+      </c>
+      <c r="M414">
+        <v>1</v>
+      </c>
+      <c r="N414">
+        <v>2</v>
+      </c>
+      <c r="O414" t="s">
+        <v>220</v>
+      </c>
+      <c r="P414" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q414">
+        <v>6</v>
+      </c>
+      <c r="R414">
+        <v>3</v>
+      </c>
+      <c r="S414">
+        <v>9</v>
+      </c>
+      <c r="T414">
+        <v>2.89</v>
+      </c>
+      <c r="U414">
+        <v>1.94</v>
+      </c>
+      <c r="V414">
+        <v>4.93</v>
+      </c>
+      <c r="W414">
+        <v>1.56</v>
+      </c>
+      <c r="X414">
+        <v>2.2</v>
+      </c>
+      <c r="Y414">
+        <v>3.72</v>
+      </c>
+      <c r="Z414">
+        <v>1.25</v>
+      </c>
+      <c r="AA414">
+        <v>10.5</v>
+      </c>
+      <c r="AB414">
+        <v>1.03</v>
+      </c>
+      <c r="AC414">
+        <v>2</v>
+      </c>
+      <c r="AD414">
+        <v>2.88</v>
+      </c>
+      <c r="AE414">
+        <v>3.8</v>
+      </c>
+      <c r="AF414">
+        <v>1.08</v>
+      </c>
+      <c r="AG414">
+        <v>6.25</v>
+      </c>
+      <c r="AH414">
+        <v>1.65</v>
+      </c>
+      <c r="AI414">
+        <v>2.17</v>
+      </c>
+      <c r="AJ414">
+        <v>2.77</v>
+      </c>
+      <c r="AK414">
+        <v>1.39</v>
+      </c>
+      <c r="AL414">
+        <v>2.25</v>
+      </c>
+      <c r="AM414">
+        <v>1.6</v>
+      </c>
+      <c r="AN414">
+        <v>1.24</v>
+      </c>
+      <c r="AO414">
+        <v>1.35</v>
+      </c>
+      <c r="AP414">
+        <v>1.78</v>
+      </c>
+      <c r="AQ414">
+        <v>2.2</v>
+      </c>
+      <c r="AR414">
+        <v>1.1</v>
+      </c>
+      <c r="AS414">
+        <v>2.09</v>
+      </c>
+      <c r="AT414">
+        <v>1.09</v>
+      </c>
+      <c r="AU414">
+        <v>1.68</v>
+      </c>
+      <c r="AV414">
+        <v>1.14</v>
+      </c>
+      <c r="AW414">
+        <v>2.82</v>
+      </c>
+      <c r="AX414">
+        <v>1.61</v>
+      </c>
+      <c r="AY414">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ414">
+        <v>2.86</v>
+      </c>
+      <c r="BA414">
+        <v>1.43</v>
+      </c>
+      <c r="BB414">
+        <v>1.75</v>
+      </c>
+      <c r="BC414">
+        <v>2.19</v>
+      </c>
+      <c r="BD414">
+        <v>2.7</v>
+      </c>
+      <c r="BE414">
+        <v>4.2</v>
+      </c>
+      <c r="BF414">
+        <v>4</v>
+      </c>
+      <c r="BG414">
+        <v>2</v>
+      </c>
+      <c r="BH414">
+        <v>0</v>
+      </c>
+      <c r="BI414">
+        <v>3</v>
+      </c>
+      <c r="BJ414">
+        <v>4</v>
+      </c>
+      <c r="BK414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:63">
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>6161974</v>
+      </c>
+      <c r="C415" t="s">
+        <v>63</v>
+      </c>
+      <c r="D415" t="s">
+        <v>64</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45123.56944444445</v>
+      </c>
+      <c r="F415">
+        <v>25</v>
+      </c>
+      <c r="G415" t="s">
+        <v>67</v>
+      </c>
+      <c r="H415" t="s">
+        <v>91</v>
+      </c>
+      <c r="I415">
+        <v>1</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>1</v>
+      </c>
+      <c r="L415">
+        <v>2</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415">
+        <v>2</v>
+      </c>
+      <c r="O415" t="s">
+        <v>338</v>
+      </c>
+      <c r="P415" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q415">
+        <v>1</v>
+      </c>
+      <c r="R415">
+        <v>6</v>
+      </c>
+      <c r="S415">
+        <v>7</v>
+      </c>
+      <c r="T415">
+        <v>4.25</v>
+      </c>
+      <c r="U415">
+        <v>1.93</v>
+      </c>
+      <c r="V415">
+        <v>3.22</v>
+      </c>
+      <c r="W415">
+        <v>1.6</v>
+      </c>
+      <c r="X415">
+        <v>2.33</v>
+      </c>
+      <c r="Y415">
+        <v>3.72</v>
+      </c>
+      <c r="Z415">
+        <v>1.25</v>
+      </c>
+      <c r="AA415">
+        <v>10.7</v>
+      </c>
+      <c r="AB415">
+        <v>1.03</v>
+      </c>
+      <c r="AC415">
+        <v>2.78</v>
+      </c>
+      <c r="AD415">
+        <v>2.83</v>
+      </c>
+      <c r="AE415">
+        <v>2.46</v>
+      </c>
+      <c r="AF415">
+        <v>1.11</v>
+      </c>
+      <c r="AG415">
+        <v>5.5</v>
+      </c>
+      <c r="AH415">
+        <v>1.53</v>
+      </c>
+      <c r="AI415">
+        <v>2.2</v>
+      </c>
+      <c r="AJ415">
+        <v>2.62</v>
+      </c>
+      <c r="AK415">
+        <v>1.43</v>
+      </c>
+      <c r="AL415">
+        <v>2.19</v>
+      </c>
+      <c r="AM415">
+        <v>1.64</v>
+      </c>
+      <c r="AN415">
+        <v>1.6</v>
+      </c>
+      <c r="AO415">
+        <v>1.37</v>
+      </c>
+      <c r="AP415">
+        <v>1.33</v>
+      </c>
+      <c r="AQ415">
+        <v>1.27</v>
+      </c>
+      <c r="AR415">
+        <v>0.82</v>
+      </c>
+      <c r="AS415">
+        <v>1.42</v>
+      </c>
+      <c r="AT415">
+        <v>0.75</v>
+      </c>
+      <c r="AU415">
+        <v>1.28</v>
+      </c>
+      <c r="AV415">
+        <v>1.26</v>
+      </c>
+      <c r="AW415">
+        <v>2.54</v>
+      </c>
+      <c r="AX415">
+        <v>2.14</v>
+      </c>
+      <c r="AY415">
+        <v>7</v>
+      </c>
+      <c r="AZ415">
+        <v>2.07</v>
+      </c>
+      <c r="BA415">
+        <v>1.46</v>
+      </c>
+      <c r="BB415">
+        <v>1.8</v>
+      </c>
+      <c r="BC415">
+        <v>2.26</v>
+      </c>
+      <c r="BD415">
+        <v>3.08</v>
+      </c>
+      <c r="BE415">
+        <v>3.35</v>
+      </c>
+      <c r="BF415">
+        <v>4</v>
+      </c>
+      <c r="BG415">
+        <v>4</v>
+      </c>
+      <c r="BH415">
+        <v>3</v>
+      </c>
+      <c r="BI415">
+        <v>10</v>
+      </c>
+      <c r="BJ415">
+        <v>7</v>
+      </c>
+      <c r="BK415">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:63">
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>6161978</v>
+      </c>
+      <c r="C416" t="s">
+        <v>63</v>
+      </c>
+      <c r="D416" t="s">
+        <v>64</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45123.625</v>
+      </c>
+      <c r="F416">
+        <v>25</v>
+      </c>
+      <c r="G416" t="s">
+        <v>65</v>
+      </c>
+      <c r="H416" t="s">
+        <v>79</v>
+      </c>
+      <c r="I416">
+        <v>1</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>1</v>
+      </c>
+      <c r="L416">
+        <v>2</v>
+      </c>
+      <c r="M416">
+        <v>1</v>
+      </c>
+      <c r="N416">
+        <v>3</v>
+      </c>
+      <c r="O416" t="s">
+        <v>339</v>
+      </c>
+      <c r="P416" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q416">
+        <v>2</v>
+      </c>
+      <c r="R416">
+        <v>4</v>
+      </c>
+      <c r="S416">
+        <v>6</v>
+      </c>
+      <c r="T416">
+        <v>2.2</v>
+      </c>
+      <c r="U416">
+        <v>2.1</v>
+      </c>
+      <c r="V416">
+        <v>7</v>
+      </c>
+      <c r="W416">
+        <v>1.5</v>
+      </c>
+      <c r="X416">
+        <v>2.5</v>
+      </c>
+      <c r="Y416">
+        <v>3.5</v>
+      </c>
+      <c r="Z416">
+        <v>1.29</v>
+      </c>
+      <c r="AA416">
+        <v>11</v>
+      </c>
+      <c r="AB416">
+        <v>1.05</v>
+      </c>
+      <c r="AC416">
+        <v>1.56</v>
+      </c>
+      <c r="AD416">
+        <v>3.55</v>
+      </c>
+      <c r="AE416">
+        <v>5</v>
+      </c>
+      <c r="AF416">
+        <v>1.08</v>
+      </c>
+      <c r="AG416">
+        <v>7.25</v>
+      </c>
+      <c r="AH416">
+        <v>1.43</v>
+      </c>
+      <c r="AI416">
+        <v>2.6</v>
+      </c>
+      <c r="AJ416">
+        <v>2.41</v>
+      </c>
+      <c r="AK416">
+        <v>1.5</v>
+      </c>
+      <c r="AL416">
+        <v>2.5</v>
+      </c>
+      <c r="AM416">
+        <v>1.5</v>
+      </c>
+      <c r="AN416">
+        <v>1.12</v>
+      </c>
+      <c r="AO416">
+        <v>1.25</v>
+      </c>
+      <c r="AP416">
+        <v>2.37</v>
+      </c>
+      <c r="AQ416">
+        <v>1.91</v>
+      </c>
+      <c r="AR416">
+        <v>0.45</v>
+      </c>
+      <c r="AS416">
+        <v>2</v>
+      </c>
+      <c r="AT416">
+        <v>0.42</v>
+      </c>
+      <c r="AU416">
+        <v>1.36</v>
+      </c>
+      <c r="AV416">
+        <v>1.08</v>
+      </c>
+      <c r="AW416">
+        <v>2.44</v>
+      </c>
+      <c r="AX416">
+        <v>1.47</v>
+      </c>
+      <c r="AY416">
+        <v>8.5</v>
+      </c>
+      <c r="AZ416">
+        <v>3.38</v>
+      </c>
+      <c r="BA416">
+        <v>1.39</v>
+      </c>
+      <c r="BB416">
+        <v>1.74</v>
+      </c>
+      <c r="BC416">
+        <v>2.16</v>
+      </c>
+      <c r="BD416">
+        <v>2.88</v>
+      </c>
+      <c r="BE416">
+        <v>4.2</v>
+      </c>
+      <c r="BF416">
+        <v>9</v>
+      </c>
+      <c r="BG416">
+        <v>2</v>
+      </c>
+      <c r="BH416">
+        <v>5</v>
+      </c>
+      <c r="BI416">
+        <v>4</v>
+      </c>
+      <c r="BJ416">
+        <v>14</v>
+      </c>
+      <c r="BK416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:63">
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>6161931</v>
+      </c>
+      <c r="C417" t="s">
+        <v>63</v>
+      </c>
+      <c r="D417" t="s">
+        <v>64</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F417">
+        <v>22</v>
+      </c>
+      <c r="G417" t="s">
+        <v>92</v>
+      </c>
+      <c r="H417" t="s">
+        <v>84</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417" t="s">
+        <v>102</v>
+      </c>
+      <c r="P417" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q417">
+        <v>9</v>
+      </c>
+      <c r="R417">
+        <v>1</v>
+      </c>
+      <c r="S417">
+        <v>10</v>
+      </c>
+      <c r="T417">
+        <v>2.19</v>
+      </c>
+      <c r="U417">
+        <v>2.21</v>
+      </c>
+      <c r="V417">
+        <v>6.77</v>
+      </c>
+      <c r="W417">
+        <v>1.44</v>
+      </c>
+      <c r="X417">
+        <v>2.52</v>
+      </c>
+      <c r="Y417">
+        <v>3.24</v>
+      </c>
+      <c r="Z417">
+        <v>1.23</v>
+      </c>
+      <c r="AA417">
+        <v>8.1</v>
+      </c>
+      <c r="AB417">
+        <v>1.06</v>
+      </c>
+      <c r="AC417">
+        <v>1.53</v>
+      </c>
+      <c r="AD417">
+        <v>3.75</v>
+      </c>
+      <c r="AE417">
+        <v>6</v>
+      </c>
+      <c r="AF417">
+        <v>1.06</v>
+      </c>
+      <c r="AG417">
+        <v>10</v>
+      </c>
+      <c r="AH417">
+        <v>1.38</v>
+      </c>
+      <c r="AI417">
+        <v>3.05</v>
+      </c>
+      <c r="AJ417">
+        <v>2.16</v>
+      </c>
+      <c r="AK417">
+        <v>1.62</v>
+      </c>
+      <c r="AL417">
+        <v>2.22</v>
+      </c>
+      <c r="AM417">
+        <v>1.63</v>
+      </c>
+      <c r="AN417">
+        <v>1.1</v>
+      </c>
+      <c r="AO417">
+        <v>1.24</v>
+      </c>
+      <c r="AP417">
+        <v>2.51</v>
+      </c>
+      <c r="AQ417">
+        <v>1.3</v>
+      </c>
+      <c r="AR417">
+        <v>0.1</v>
+      </c>
+      <c r="AS417">
+        <v>1.27</v>
+      </c>
+      <c r="AT417">
+        <v>0.18</v>
+      </c>
+      <c r="AU417">
+        <v>1.56</v>
+      </c>
+      <c r="AV417">
+        <v>1.09</v>
+      </c>
+      <c r="AW417">
+        <v>2.65</v>
+      </c>
+      <c r="AX417">
+        <v>1.44</v>
+      </c>
+      <c r="AY417">
+        <v>8.5</v>
+      </c>
+      <c r="AZ417">
+        <v>3.55</v>
+      </c>
+      <c r="BA417">
+        <v>1.52</v>
+      </c>
+      <c r="BB417">
+        <v>1.87</v>
+      </c>
+      <c r="BC417">
+        <v>2.37</v>
+      </c>
+      <c r="BD417">
+        <v>3.2</v>
+      </c>
+      <c r="BE417">
+        <v>0</v>
+      </c>
+      <c r="BF417">
+        <v>3</v>
+      </c>
+      <c r="BG417">
+        <v>0</v>
+      </c>
+      <c r="BH417">
+        <v>17</v>
+      </c>
+      <c r="BI417">
+        <v>3</v>
+      </c>
+      <c r="BJ417">
+        <v>20</v>
+      </c>
+      <c r="BK417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:63">
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>6161932</v>
+      </c>
+      <c r="C418" t="s">
+        <v>63</v>
+      </c>
+      <c r="D418" t="s">
+        <v>64</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45123.64583333334</v>
+      </c>
+      <c r="F418">
+        <v>22</v>
+      </c>
+      <c r="G418" t="s">
+        <v>94</v>
+      </c>
+      <c r="H418" t="s">
+        <v>82</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418" t="s">
+        <v>102</v>
+      </c>
+      <c r="P418" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q418">
+        <v>6</v>
+      </c>
+      <c r="R418">
+        <v>2</v>
+      </c>
+      <c r="S418">
+        <v>8</v>
+      </c>
+      <c r="T418">
+        <v>2.64</v>
+      </c>
+      <c r="U418">
+        <v>2.02</v>
+      </c>
+      <c r="V418">
+        <v>5.3</v>
+      </c>
+      <c r="W418">
+        <v>1.54</v>
+      </c>
+      <c r="X418">
+        <v>2.44</v>
+      </c>
+      <c r="Y418">
+        <v>3.64</v>
+      </c>
+      <c r="Z418">
+        <v>1.26</v>
+      </c>
+      <c r="AA418">
+        <v>10.2</v>
+      </c>
+      <c r="AB418">
+        <v>1.03</v>
+      </c>
+      <c r="AC418">
+        <v>1.9</v>
+      </c>
+      <c r="AD418">
+        <v>3.15</v>
+      </c>
+      <c r="AE418">
+        <v>4.2</v>
+      </c>
+      <c r="AF418">
+        <v>1.1</v>
+      </c>
+      <c r="AG418">
+        <v>6.71</v>
+      </c>
+      <c r="AH418">
+        <v>1.49</v>
+      </c>
+      <c r="AI418">
+        <v>2.44</v>
+      </c>
+      <c r="AJ418">
+        <v>2.52</v>
+      </c>
+      <c r="AK418">
+        <v>1.46</v>
+      </c>
+      <c r="AL418">
+        <v>2.25</v>
+      </c>
+      <c r="AM418">
+        <v>1.61</v>
+      </c>
+      <c r="AN418">
+        <v>1.2</v>
+      </c>
+      <c r="AO418">
+        <v>1.33</v>
+      </c>
+      <c r="AP418">
+        <v>1.92</v>
+      </c>
+      <c r="AQ418">
+        <v>1.9</v>
+      </c>
+      <c r="AR418">
+        <v>1.2</v>
+      </c>
+      <c r="AS418">
+        <v>1.82</v>
+      </c>
+      <c r="AT418">
+        <v>1.18</v>
+      </c>
+      <c r="AU418">
+        <v>1.52</v>
+      </c>
+      <c r="AV418">
+        <v>1.52</v>
+      </c>
+      <c r="AW418">
+        <v>3.04</v>
+      </c>
+      <c r="AX418">
+        <v>1.6</v>
+      </c>
+      <c r="AY418">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ418">
+        <v>2.88</v>
+      </c>
+      <c r="BA418">
+        <v>1.34</v>
+      </c>
+      <c r="BB418">
+        <v>1.67</v>
+      </c>
+      <c r="BC418">
+        <v>2.13</v>
+      </c>
+      <c r="BD418">
+        <v>2.4</v>
+      </c>
+      <c r="BE418">
+        <v>3.74</v>
+      </c>
+      <c r="BF418">
+        <v>2</v>
+      </c>
+      <c r="BG418">
+        <v>5</v>
+      </c>
+      <c r="BH418">
+        <v>11</v>
+      </c>
+      <c r="BI418">
+        <v>7</v>
+      </c>
+      <c r="BJ418">
+        <v>13</v>
+      </c>
+      <c r="BK418">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:63">
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>6161975</v>
+      </c>
+      <c r="C419" t="s">
+        <v>63</v>
+      </c>
+      <c r="D419" t="s">
+        <v>64</v>
+      </c>
+      <c r="E419" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F419">
+        <v>25</v>
+      </c>
+      <c r="G419" t="s">
+        <v>66</v>
+      </c>
+      <c r="H419" t="s">
+        <v>88</v>
+      </c>
+      <c r="I419">
+        <v>1</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>1</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419">
+        <v>1</v>
+      </c>
+      <c r="O419" t="s">
+        <v>149</v>
+      </c>
+      <c r="P419" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q419">
+        <v>6</v>
+      </c>
+      <c r="R419">
+        <v>5</v>
+      </c>
+      <c r="S419">
+        <v>11</v>
+      </c>
+      <c r="T419">
+        <v>2.74</v>
+      </c>
+      <c r="U419">
+        <v>1.92</v>
+      </c>
+      <c r="V419">
+        <v>5.63</v>
+      </c>
+      <c r="W419">
+        <v>1.63</v>
+      </c>
+      <c r="X419">
+        <v>2.25</v>
+      </c>
+      <c r="Y419">
+        <v>4.15</v>
+      </c>
+      <c r="Z419">
+        <v>1.21</v>
+      </c>
+      <c r="AA419">
+        <v>12</v>
+      </c>
+      <c r="AB419">
+        <v>1.02</v>
+      </c>
+      <c r="AC419">
+        <v>1.73</v>
+      </c>
+      <c r="AD419">
+        <v>3</v>
+      </c>
+      <c r="AE419">
+        <v>5</v>
+      </c>
+      <c r="AF419">
+        <v>1.13</v>
+      </c>
+      <c r="AG419">
+        <v>5.77</v>
+      </c>
+      <c r="AH419">
+        <v>1.52</v>
+      </c>
+      <c r="AI419">
+        <v>2.45</v>
+      </c>
+      <c r="AJ419">
+        <v>2.55</v>
+      </c>
+      <c r="AK419">
+        <v>1.45</v>
+      </c>
+      <c r="AL419">
+        <v>2.51</v>
+      </c>
+      <c r="AM419">
+        <v>1.5</v>
+      </c>
+      <c r="AN419">
+        <v>1.19</v>
+      </c>
+      <c r="AO419">
+        <v>1.36</v>
+      </c>
+      <c r="AP419">
+        <v>1.86</v>
+      </c>
+      <c r="AQ419">
+        <v>1.91</v>
+      </c>
+      <c r="AR419">
+        <v>1</v>
+      </c>
+      <c r="AS419">
+        <v>2</v>
+      </c>
+      <c r="AT419">
+        <v>0.92</v>
+      </c>
+      <c r="AU419">
+        <v>1.71</v>
+      </c>
+      <c r="AV419">
+        <v>1.27</v>
+      </c>
+      <c r="AW419">
+        <v>2.98</v>
+      </c>
+      <c r="AX419">
+        <v>1.62</v>
+      </c>
+      <c r="AY419">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ419">
+        <v>2.84</v>
+      </c>
+      <c r="BA419">
+        <v>1.36</v>
+      </c>
+      <c r="BB419">
+        <v>1.74</v>
+      </c>
+      <c r="BC419">
+        <v>2.17</v>
+      </c>
+      <c r="BD419">
+        <v>2.95</v>
+      </c>
+      <c r="BE419">
+        <v>4.2</v>
+      </c>
+      <c r="BF419">
+        <v>4</v>
+      </c>
+      <c r="BG419">
+        <v>2</v>
+      </c>
+      <c r="BH419">
+        <v>5</v>
+      </c>
+      <c r="BI419">
+        <v>3</v>
+      </c>
+      <c r="BJ419">
+        <v>9</v>
+      </c>
+      <c r="BK419">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="431">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1299,6 +1299,15 @@
   <si>
     <t>['8', '47']</t>
   </si>
+  <si>
+    <t>['2', '58']</t>
+  </si>
+  <si>
+    <t>['5', '42']</t>
+  </si>
+  <si>
+    <t>['42', '60', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1659,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK419"/>
+  <dimension ref="A1:BK423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2945,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT7">
         <v>0.73</v>
@@ -3330,7 +3339,7 @@
         <v>2.09</v>
       </c>
       <c r="AT9">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -7341,7 +7350,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.29</v>
@@ -8102,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
         <v>1.36</v>
@@ -9057,7 +9066,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -9248,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -9442,7 +9451,7 @@
         <v>1.08</v>
       </c>
       <c r="AT41">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU41">
         <v>0.74</v>
@@ -10394,10 +10403,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT46">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -14026,7 +14035,7 @@
         <v>1.82</v>
       </c>
       <c r="AT65">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU65">
         <v>2.27</v>
@@ -14790,7 +14799,7 @@
         <v>0.91</v>
       </c>
       <c r="AT69">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU69">
         <v>1.9</v>
@@ -15360,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15933,7 +15942,7 @@
         <v>3</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -16127,7 +16136,7 @@
         <v>2.08</v>
       </c>
       <c r="AT76">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU76">
         <v>1.37</v>
@@ -16315,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT77">
         <v>0.18</v>
@@ -16891,7 +16900,7 @@
         <v>2.09</v>
       </c>
       <c r="AT80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.67</v>
@@ -17079,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT81">
         <v>0.92</v>
@@ -20899,7 +20908,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT101">
         <v>1.18</v>
@@ -21093,7 +21102,7 @@
         <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU102">
         <v>1.2</v>
@@ -21475,7 +21484,7 @@
         <v>1.82</v>
       </c>
       <c r="AT104">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.47</v>
@@ -22618,7 +22627,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT110">
         <v>1</v>
@@ -22809,7 +22818,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT111">
         <v>1.64</v>
@@ -23003,7 +23012,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU112">
         <v>1.59</v>
@@ -23767,7 +23776,7 @@
         <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU116">
         <v>2.02</v>
@@ -26438,7 +26447,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>0.64</v>
@@ -27778,7 +27787,7 @@
         <v>2</v>
       </c>
       <c r="AT137">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU137">
         <v>1.04</v>
@@ -29112,7 +29121,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT144">
         <v>0.75</v>
@@ -29497,7 +29506,7 @@
         <v>1.36</v>
       </c>
       <c r="AT146">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU146">
         <v>1.41</v>
@@ -30449,10 +30458,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU151">
         <v>1.46</v>
@@ -30643,7 +30652,7 @@
         <v>1.82</v>
       </c>
       <c r="AT152">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU152">
         <v>1.34</v>
@@ -30831,7 +30840,7 @@
         <v>0.5</v>
       </c>
       <c r="AS153">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT153">
         <v>0.91</v>
@@ -34842,7 +34851,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT174">
         <v>0.64</v>
@@ -35606,7 +35615,7 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT178">
         <v>0.83</v>
@@ -35991,7 +36000,7 @@
         <v>2.08</v>
       </c>
       <c r="AT180">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU180">
         <v>1.44</v>
@@ -36182,7 +36191,7 @@
         <v>1.55</v>
       </c>
       <c r="AT181">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -38092,7 +38101,7 @@
         <v>2.09</v>
       </c>
       <c r="AT191">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU191">
         <v>1.66</v>
@@ -38853,7 +38862,7 @@
         <v>0</v>
       </c>
       <c r="AS195">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT195">
         <v>0</v>
@@ -39235,7 +39244,7 @@
         <v>1.4</v>
       </c>
       <c r="AS197">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT197">
         <v>0.64</v>
@@ -40193,7 +40202,7 @@
         <v>1.55</v>
       </c>
       <c r="AT202">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU202">
         <v>1.35</v>
@@ -41339,7 +41348,7 @@
         <v>1.58</v>
       </c>
       <c r="AT208">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU208">
         <v>1.3</v>
@@ -41909,7 +41918,7 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT211">
         <v>1.64</v>
@@ -42482,7 +42491,7 @@
         <v>0.4</v>
       </c>
       <c r="AS214">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT214">
         <v>1.17</v>
@@ -43631,7 +43640,7 @@
         <v>1.55</v>
       </c>
       <c r="AT220">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU220">
         <v>1.4</v>
@@ -43822,7 +43831,7 @@
         <v>1.36</v>
       </c>
       <c r="AT221">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU221">
         <v>1.48</v>
@@ -46302,7 +46311,7 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT234">
         <v>1.55</v>
@@ -48788,7 +48797,7 @@
         <v>1.18</v>
       </c>
       <c r="AT247">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU247">
         <v>1.45</v>
@@ -48979,7 +48988,7 @@
         <v>2.36</v>
       </c>
       <c r="AT248">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU248">
         <v>1.74</v>
@@ -49167,7 +49176,7 @@
         <v>0.8</v>
       </c>
       <c r="AS249">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT249">
         <v>1.36</v>
@@ -49740,7 +49749,7 @@
         <v>0.67</v>
       </c>
       <c r="AS252">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT252">
         <v>1</v>
@@ -50316,7 +50325,7 @@
         <v>1.55</v>
       </c>
       <c r="AT255">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU255">
         <v>1.4</v>
@@ -50504,7 +50513,7 @@
         <v>0.57</v>
       </c>
       <c r="AS256">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT256">
         <v>0.75</v>
@@ -51080,7 +51089,7 @@
         <v>1.27</v>
       </c>
       <c r="AT259">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -52414,7 +52423,7 @@
         <v>1.29</v>
       </c>
       <c r="AS266">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT266">
         <v>1.36</v>
@@ -54900,7 +54909,7 @@
         <v>1.73</v>
       </c>
       <c r="AT279">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU279">
         <v>1.5</v>
@@ -55661,7 +55670,7 @@
         <v>1.17</v>
       </c>
       <c r="AS283">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT283">
         <v>1</v>
@@ -56425,7 +56434,7 @@
         <v>0.67</v>
       </c>
       <c r="AS287">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT287">
         <v>0.64</v>
@@ -58529,7 +58538,7 @@
         <v>1.64</v>
       </c>
       <c r="AT298">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU298">
         <v>1.31</v>
@@ -58720,7 +58729,7 @@
         <v>2.36</v>
       </c>
       <c r="AT299">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU299">
         <v>2.02</v>
@@ -59863,7 +59872,7 @@
         <v>0.75</v>
       </c>
       <c r="AS305">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT305">
         <v>1</v>
@@ -60054,7 +60063,7 @@
         <v>0.88</v>
       </c>
       <c r="AS306">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT306">
         <v>1.09</v>
@@ -60248,7 +60257,7 @@
         <v>2.27</v>
       </c>
       <c r="AT307">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU307">
         <v>1.69</v>
@@ -61394,7 +61403,7 @@
         <v>2.55</v>
       </c>
       <c r="AT313">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU313">
         <v>1.81</v>
@@ -63110,7 +63119,7 @@
         <v>1.43</v>
       </c>
       <c r="AS322">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT322">
         <v>1.18</v>
@@ -63301,7 +63310,7 @@
         <v>0.71</v>
       </c>
       <c r="AS323">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT323">
         <v>1.09</v>
@@ -65787,7 +65796,7 @@
         <v>0.91</v>
       </c>
       <c r="AT336">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU336">
         <v>2.07</v>
@@ -66169,7 +66178,7 @@
         <v>2.55</v>
       </c>
       <c r="AT338">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU338">
         <v>1.83</v>
@@ -66742,7 +66751,7 @@
         <v>1.75</v>
       </c>
       <c r="AT341">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU341">
         <v>1.76</v>
@@ -66930,7 +66939,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS342">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT342">
         <v>0.42</v>
@@ -67503,7 +67512,7 @@
         <v>0</v>
       </c>
       <c r="AS345">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT345">
         <v>0.18</v>
@@ -67694,7 +67703,7 @@
         <v>0.88</v>
       </c>
       <c r="AS346">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT346">
         <v>0.64</v>
@@ -68076,7 +68085,7 @@
         <v>1</v>
       </c>
       <c r="AS348">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT348">
         <v>1</v>
@@ -68652,7 +68661,7 @@
         <v>1.73</v>
       </c>
       <c r="AT351">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU351">
         <v>1.61</v>
@@ -72660,7 +72669,7 @@
         <v>1.22</v>
       </c>
       <c r="AS372">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT372">
         <v>1.09</v>
@@ -73236,7 +73245,7 @@
         <v>1.27</v>
       </c>
       <c r="AT375">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU375">
         <v>1.59</v>
@@ -73809,7 +73818,7 @@
         <v>2</v>
       </c>
       <c r="AT378">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU378">
         <v>1.32</v>
@@ -74000,7 +74009,7 @@
         <v>2.27</v>
       </c>
       <c r="AT379">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU379">
         <v>1.8</v>
@@ -74382,7 +74391,7 @@
         <v>1.73</v>
       </c>
       <c r="AT381">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU381">
         <v>1.61</v>
@@ -74952,7 +74961,7 @@
         <v>0.9</v>
       </c>
       <c r="AS384">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT384">
         <v>0.75</v>
@@ -75143,7 +75152,7 @@
         <v>1.67</v>
       </c>
       <c r="AS385">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT385">
         <v>1.64</v>
@@ -75525,7 +75534,7 @@
         <v>1.22</v>
       </c>
       <c r="AS387">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT387">
         <v>1.18</v>
@@ -81126,7 +81135,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>6161931</v>
+        <v>6161932</v>
       </c>
       <c r="C417" t="s">
         <v>63</v>
@@ -81141,10 +81150,10 @@
         <v>22</v>
       </c>
       <c r="G417" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H417" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I417">
         <v>0</v>
@@ -81171,145 +81180,145 @@
         <v>102</v>
       </c>
       <c r="Q417">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S417">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T417">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="U417">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="V417">
-        <v>6.77</v>
+        <v>5.3</v>
       </c>
       <c r="W417">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="X417">
+        <v>2.44</v>
+      </c>
+      <c r="Y417">
+        <v>3.64</v>
+      </c>
+      <c r="Z417">
+        <v>1.26</v>
+      </c>
+      <c r="AA417">
+        <v>10.2</v>
+      </c>
+      <c r="AB417">
+        <v>1.03</v>
+      </c>
+      <c r="AC417">
+        <v>1.9</v>
+      </c>
+      <c r="AD417">
+        <v>3.15</v>
+      </c>
+      <c r="AE417">
+        <v>4.2</v>
+      </c>
+      <c r="AF417">
+        <v>1.1</v>
+      </c>
+      <c r="AG417">
+        <v>6.71</v>
+      </c>
+      <c r="AH417">
+        <v>1.49</v>
+      </c>
+      <c r="AI417">
+        <v>2.44</v>
+      </c>
+      <c r="AJ417">
         <v>2.52</v>
       </c>
-      <c r="Y417">
-        <v>3.24</v>
-      </c>
-      <c r="Z417">
-        <v>1.23</v>
-      </c>
-      <c r="AA417">
-        <v>8.1</v>
-      </c>
-      <c r="AB417">
-        <v>1.06</v>
-      </c>
-      <c r="AC417">
-        <v>1.53</v>
-      </c>
-      <c r="AD417">
-        <v>3.75</v>
-      </c>
-      <c r="AE417">
-        <v>6</v>
-      </c>
-      <c r="AF417">
-        <v>1.06</v>
-      </c>
-      <c r="AG417">
-        <v>10</v>
-      </c>
-      <c r="AH417">
-        <v>1.38</v>
-      </c>
-      <c r="AI417">
-        <v>3.05</v>
-      </c>
-      <c r="AJ417">
-        <v>2.16</v>
-      </c>
       <c r="AK417">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AL417">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AM417">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AN417">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AO417">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AP417">
-        <v>2.51</v>
+        <v>1.92</v>
       </c>
       <c r="AQ417">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AR417">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="AS417">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="AT417">
-        <v>0.18</v>
+        <v>1.18</v>
       </c>
       <c r="AU417">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AV417">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="AW417">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="AX417">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AY417">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ417">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="BA417">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="BB417">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="BC417">
-        <v>2.37</v>
+        <v>2.13</v>
       </c>
       <c r="BD417">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE417">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="BF417">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG417">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH417">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BI417">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ417">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BK417">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" spans="1:63">
@@ -81317,7 +81326,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6161932</v>
+        <v>6161931</v>
       </c>
       <c r="C418" t="s">
         <v>63</v>
@@ -81332,10 +81341,10 @@
         <v>22</v>
       </c>
       <c r="G418" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H418" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I418">
         <v>0</v>
@@ -81362,145 +81371,145 @@
         <v>102</v>
       </c>
       <c r="Q418">
+        <v>9</v>
+      </c>
+      <c r="R418">
+        <v>1</v>
+      </c>
+      <c r="S418">
+        <v>10</v>
+      </c>
+      <c r="T418">
+        <v>2.19</v>
+      </c>
+      <c r="U418">
+        <v>2.21</v>
+      </c>
+      <c r="V418">
+        <v>6.77</v>
+      </c>
+      <c r="W418">
+        <v>1.44</v>
+      </c>
+      <c r="X418">
+        <v>2.52</v>
+      </c>
+      <c r="Y418">
+        <v>3.24</v>
+      </c>
+      <c r="Z418">
+        <v>1.23</v>
+      </c>
+      <c r="AA418">
+        <v>8.1</v>
+      </c>
+      <c r="AB418">
+        <v>1.06</v>
+      </c>
+      <c r="AC418">
+        <v>1.53</v>
+      </c>
+      <c r="AD418">
+        <v>3.75</v>
+      </c>
+      <c r="AE418">
         <v>6</v>
       </c>
-      <c r="R418">
-        <v>2</v>
-      </c>
-      <c r="S418">
-        <v>8</v>
-      </c>
-      <c r="T418">
-        <v>2.64</v>
-      </c>
-      <c r="U418">
-        <v>2.02</v>
-      </c>
-      <c r="V418">
-        <v>5.3</v>
-      </c>
-      <c r="W418">
-        <v>1.54</v>
-      </c>
-      <c r="X418">
-        <v>2.44</v>
-      </c>
-      <c r="Y418">
-        <v>3.64</v>
-      </c>
-      <c r="Z418">
-        <v>1.26</v>
-      </c>
-      <c r="AA418">
-        <v>10.2</v>
-      </c>
-      <c r="AB418">
-        <v>1.03</v>
-      </c>
-      <c r="AC418">
-        <v>1.9</v>
-      </c>
-      <c r="AD418">
-        <v>3.15</v>
-      </c>
-      <c r="AE418">
-        <v>4.2</v>
-      </c>
       <c r="AF418">
+        <v>1.06</v>
+      </c>
+      <c r="AG418">
+        <v>10</v>
+      </c>
+      <c r="AH418">
+        <v>1.38</v>
+      </c>
+      <c r="AI418">
+        <v>3.05</v>
+      </c>
+      <c r="AJ418">
+        <v>2.16</v>
+      </c>
+      <c r="AK418">
+        <v>1.62</v>
+      </c>
+      <c r="AL418">
+        <v>2.22</v>
+      </c>
+      <c r="AM418">
+        <v>1.63</v>
+      </c>
+      <c r="AN418">
         <v>1.1</v>
       </c>
-      <c r="AG418">
-        <v>6.71</v>
-      </c>
-      <c r="AH418">
-        <v>1.49</v>
-      </c>
-      <c r="AI418">
-        <v>2.44</v>
-      </c>
-      <c r="AJ418">
-        <v>2.52</v>
-      </c>
-      <c r="AK418">
-        <v>1.46</v>
-      </c>
-      <c r="AL418">
-        <v>2.25</v>
-      </c>
-      <c r="AM418">
-        <v>1.61</v>
-      </c>
-      <c r="AN418">
-        <v>1.2</v>
-      </c>
       <c r="AO418">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AP418">
-        <v>1.92</v>
+        <v>2.51</v>
       </c>
       <c r="AQ418">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AR418">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AS418">
-        <v>1.82</v>
+        <v>1.27</v>
       </c>
       <c r="AT418">
-        <v>1.18</v>
+        <v>0.18</v>
       </c>
       <c r="AU418">
+        <v>1.56</v>
+      </c>
+      <c r="AV418">
+        <v>1.09</v>
+      </c>
+      <c r="AW418">
+        <v>2.65</v>
+      </c>
+      <c r="AX418">
+        <v>1.44</v>
+      </c>
+      <c r="AY418">
+        <v>8.5</v>
+      </c>
+      <c r="AZ418">
+        <v>3.55</v>
+      </c>
+      <c r="BA418">
         <v>1.52</v>
       </c>
-      <c r="AV418">
-        <v>1.52</v>
-      </c>
-      <c r="AW418">
-        <v>3.04</v>
-      </c>
-      <c r="AX418">
-        <v>1.6</v>
-      </c>
-      <c r="AY418">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AZ418">
-        <v>2.88</v>
-      </c>
-      <c r="BA418">
-        <v>1.34</v>
-      </c>
       <c r="BB418">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="BC418">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="BD418">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="BE418">
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="BF418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG418">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH418">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BI418">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BJ418">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BK418">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:63">
@@ -81692,6 +81701,770 @@
       </c>
       <c r="BK419">
         <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:63">
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>6161933</v>
+      </c>
+      <c r="C420" t="s">
+        <v>63</v>
+      </c>
+      <c r="D420" t="s">
+        <v>64</v>
+      </c>
+      <c r="E420" s="2">
+        <v>45123.79513888889</v>
+      </c>
+      <c r="F420">
+        <v>22</v>
+      </c>
+      <c r="G420" t="s">
+        <v>93</v>
+      </c>
+      <c r="H420" t="s">
+        <v>75</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>1</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+      <c r="M420">
+        <v>1</v>
+      </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="O420" t="s">
+        <v>102</v>
+      </c>
+      <c r="P420" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q420">
+        <v>7</v>
+      </c>
+      <c r="R420">
+        <v>5</v>
+      </c>
+      <c r="S420">
+        <v>12</v>
+      </c>
+      <c r="T420">
+        <v>2.81</v>
+      </c>
+      <c r="U420">
+        <v>2.04</v>
+      </c>
+      <c r="V420">
+        <v>4.63</v>
+      </c>
+      <c r="W420">
+        <v>1.52</v>
+      </c>
+      <c r="X420">
+        <v>2.52</v>
+      </c>
+      <c r="Y420">
+        <v>3.48</v>
+      </c>
+      <c r="Z420">
+        <v>1.28</v>
+      </c>
+      <c r="AA420">
+        <v>9.6</v>
+      </c>
+      <c r="AB420">
+        <v>1.04</v>
+      </c>
+      <c r="AC420">
+        <v>1.9</v>
+      </c>
+      <c r="AD420">
+        <v>3</v>
+      </c>
+      <c r="AE420">
+        <v>4</v>
+      </c>
+      <c r="AF420">
+        <v>1.06</v>
+      </c>
+      <c r="AG420">
+        <v>6.7</v>
+      </c>
+      <c r="AH420">
+        <v>1.45</v>
+      </c>
+      <c r="AI420">
+        <v>2.73</v>
+      </c>
+      <c r="AJ420">
+        <v>2.2</v>
+      </c>
+      <c r="AK420">
+        <v>1.6</v>
+      </c>
+      <c r="AL420">
+        <v>2.11</v>
+      </c>
+      <c r="AM420">
+        <v>1.69</v>
+      </c>
+      <c r="AN420">
+        <v>1.26</v>
+      </c>
+      <c r="AO420">
+        <v>1.34</v>
+      </c>
+      <c r="AP420">
+        <v>1.78</v>
+      </c>
+      <c r="AQ420">
+        <v>1.5</v>
+      </c>
+      <c r="AR420">
+        <v>1.4</v>
+      </c>
+      <c r="AS420">
+        <v>1.36</v>
+      </c>
+      <c r="AT420">
+        <v>1.55</v>
+      </c>
+      <c r="AU420">
+        <v>1.47</v>
+      </c>
+      <c r="AV420">
+        <v>1.03</v>
+      </c>
+      <c r="AW420">
+        <v>2.5</v>
+      </c>
+      <c r="AX420">
+        <v>1.92</v>
+      </c>
+      <c r="AY420">
+        <v>7.5</v>
+      </c>
+      <c r="AZ420">
+        <v>2.28</v>
+      </c>
+      <c r="BA420">
+        <v>1.21</v>
+      </c>
+      <c r="BB420">
+        <v>1.41</v>
+      </c>
+      <c r="BC420">
+        <v>1.79</v>
+      </c>
+      <c r="BD420">
+        <v>2.22</v>
+      </c>
+      <c r="BE420">
+        <v>2.91</v>
+      </c>
+      <c r="BF420">
+        <v>4</v>
+      </c>
+      <c r="BG420">
+        <v>4</v>
+      </c>
+      <c r="BH420">
+        <v>3</v>
+      </c>
+      <c r="BI420">
+        <v>9</v>
+      </c>
+      <c r="BJ420">
+        <v>7</v>
+      </c>
+      <c r="BK420">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" spans="1:63">
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>6161976</v>
+      </c>
+      <c r="C421" t="s">
+        <v>63</v>
+      </c>
+      <c r="D421" t="s">
+        <v>64</v>
+      </c>
+      <c r="E421" s="2">
+        <v>45124.625</v>
+      </c>
+      <c r="F421">
+        <v>25</v>
+      </c>
+      <c r="G421" t="s">
+        <v>70</v>
+      </c>
+      <c r="H421" t="s">
+        <v>87</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421">
+        <v>2</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>2</v>
+      </c>
+      <c r="N421">
+        <v>3</v>
+      </c>
+      <c r="O421" t="s">
+        <v>158</v>
+      </c>
+      <c r="P421" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q421">
+        <v>4</v>
+      </c>
+      <c r="R421">
+        <v>1</v>
+      </c>
+      <c r="S421">
+        <v>5</v>
+      </c>
+      <c r="T421">
+        <v>2.63</v>
+      </c>
+      <c r="U421">
+        <v>1.83</v>
+      </c>
+      <c r="V421">
+        <v>6</v>
+      </c>
+      <c r="W421">
+        <v>1.67</v>
+      </c>
+      <c r="X421">
+        <v>2.1</v>
+      </c>
+      <c r="Y421">
+        <v>4.33</v>
+      </c>
+      <c r="Z421">
+        <v>1.2</v>
+      </c>
+      <c r="AA421">
+        <v>15</v>
+      </c>
+      <c r="AB421">
+        <v>1.03</v>
+      </c>
+      <c r="AC421">
+        <v>1.8</v>
+      </c>
+      <c r="AD421">
+        <v>2.83</v>
+      </c>
+      <c r="AE421">
+        <v>4.95</v>
+      </c>
+      <c r="AF421">
+        <v>1.12</v>
+      </c>
+      <c r="AG421">
+        <v>6</v>
+      </c>
+      <c r="AH421">
+        <v>1.6</v>
+      </c>
+      <c r="AI421">
+        <v>2.1</v>
+      </c>
+      <c r="AJ421">
+        <v>2.53</v>
+      </c>
+      <c r="AK421">
+        <v>1.4</v>
+      </c>
+      <c r="AL421">
+        <v>2.63</v>
+      </c>
+      <c r="AM421">
+        <v>1.44</v>
+      </c>
+      <c r="AN421">
+        <v>1.12</v>
+      </c>
+      <c r="AO421">
+        <v>1.29</v>
+      </c>
+      <c r="AP421">
+        <v>1.9</v>
+      </c>
+      <c r="AQ421">
+        <v>1.91</v>
+      </c>
+      <c r="AR421">
+        <v>0.64</v>
+      </c>
+      <c r="AS421">
+        <v>1.75</v>
+      </c>
+      <c r="AT421">
+        <v>0.83</v>
+      </c>
+      <c r="AU421">
+        <v>1.23</v>
+      </c>
+      <c r="AV421">
+        <v>1.02</v>
+      </c>
+      <c r="AW421">
+        <v>2.25</v>
+      </c>
+      <c r="AX421">
+        <v>1.31</v>
+      </c>
+      <c r="AY421">
+        <v>10.25</v>
+      </c>
+      <c r="AZ421">
+        <v>4.3</v>
+      </c>
+      <c r="BA421">
+        <v>1.33</v>
+      </c>
+      <c r="BB421">
+        <v>1.69</v>
+      </c>
+      <c r="BC421">
+        <v>2.11</v>
+      </c>
+      <c r="BD421">
+        <v>2.77</v>
+      </c>
+      <c r="BE421">
+        <v>3.88</v>
+      </c>
+      <c r="BF421">
+        <v>7</v>
+      </c>
+      <c r="BG421">
+        <v>4</v>
+      </c>
+      <c r="BH421">
+        <v>4</v>
+      </c>
+      <c r="BI421">
+        <v>4</v>
+      </c>
+      <c r="BJ421">
+        <v>11</v>
+      </c>
+      <c r="BK421">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:63">
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>6161927</v>
+      </c>
+      <c r="C422" t="s">
+        <v>63</v>
+      </c>
+      <c r="D422" t="s">
+        <v>64</v>
+      </c>
+      <c r="E422" s="2">
+        <v>45124.625</v>
+      </c>
+      <c r="F422">
+        <v>22</v>
+      </c>
+      <c r="G422" t="s">
+        <v>97</v>
+      </c>
+      <c r="H422" t="s">
+        <v>74</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>2</v>
+      </c>
+      <c r="K422">
+        <v>2</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+      <c r="M422">
+        <v>2</v>
+      </c>
+      <c r="N422">
+        <v>2</v>
+      </c>
+      <c r="O422" t="s">
+        <v>102</v>
+      </c>
+      <c r="P422" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q422">
+        <v>5</v>
+      </c>
+      <c r="R422">
+        <v>3</v>
+      </c>
+      <c r="S422">
+        <v>8</v>
+      </c>
+      <c r="T422">
+        <v>2.6</v>
+      </c>
+      <c r="U422">
+        <v>2</v>
+      </c>
+      <c r="V422">
+        <v>5</v>
+      </c>
+      <c r="W422">
+        <v>1.51</v>
+      </c>
+      <c r="X422">
+        <v>2.37</v>
+      </c>
+      <c r="Y422">
+        <v>3.5</v>
+      </c>
+      <c r="Z422">
+        <v>1.27</v>
+      </c>
+      <c r="AA422">
+        <v>10</v>
+      </c>
+      <c r="AB422">
+        <v>1.05</v>
+      </c>
+      <c r="AC422">
+        <v>1.73</v>
+      </c>
+      <c r="AD422">
+        <v>3.25</v>
+      </c>
+      <c r="AE422">
+        <v>4.45</v>
+      </c>
+      <c r="AF422">
+        <v>1.1</v>
+      </c>
+      <c r="AG422">
+        <v>6.5</v>
+      </c>
+      <c r="AH422">
+        <v>1.45</v>
+      </c>
+      <c r="AI422">
+        <v>2.65</v>
+      </c>
+      <c r="AJ422">
+        <v>2.26</v>
+      </c>
+      <c r="AK422">
+        <v>1.5</v>
+      </c>
+      <c r="AL422">
+        <v>2.2</v>
+      </c>
+      <c r="AM422">
+        <v>1.6</v>
+      </c>
+      <c r="AN422">
+        <v>1.22</v>
+      </c>
+      <c r="AO422">
+        <v>1.31</v>
+      </c>
+      <c r="AP422">
+        <v>1.85</v>
+      </c>
+      <c r="AQ422">
+        <v>2.2</v>
+      </c>
+      <c r="AR422">
+        <v>0.8</v>
+      </c>
+      <c r="AS422">
+        <v>2</v>
+      </c>
+      <c r="AT422">
+        <v>1</v>
+      </c>
+      <c r="AU422">
+        <v>1.52</v>
+      </c>
+      <c r="AV422">
+        <v>1.4</v>
+      </c>
+      <c r="AW422">
+        <v>2.92</v>
+      </c>
+      <c r="AX422">
+        <v>1.64</v>
+      </c>
+      <c r="AY422">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ422">
+        <v>2.7</v>
+      </c>
+      <c r="BA422">
+        <v>1.32</v>
+      </c>
+      <c r="BB422">
+        <v>1.71</v>
+      </c>
+      <c r="BC422">
+        <v>2.13</v>
+      </c>
+      <c r="BD422">
+        <v>2.8</v>
+      </c>
+      <c r="BE422">
+        <v>4.2</v>
+      </c>
+      <c r="BF422">
+        <v>5</v>
+      </c>
+      <c r="BG422">
+        <v>4</v>
+      </c>
+      <c r="BH422">
+        <v>6</v>
+      </c>
+      <c r="BI422">
+        <v>2</v>
+      </c>
+      <c r="BJ422">
+        <v>11</v>
+      </c>
+      <c r="BK422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:63">
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>6161930</v>
+      </c>
+      <c r="C423" t="s">
+        <v>63</v>
+      </c>
+      <c r="D423" t="s">
+        <v>64</v>
+      </c>
+      <c r="E423" s="2">
+        <v>45124.88194444445</v>
+      </c>
+      <c r="F423">
+        <v>22</v>
+      </c>
+      <c r="G423" t="s">
+        <v>100</v>
+      </c>
+      <c r="H423" t="s">
+        <v>89</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>1</v>
+      </c>
+      <c r="L423">
+        <v>1</v>
+      </c>
+      <c r="M423">
+        <v>3</v>
+      </c>
+      <c r="N423">
+        <v>4</v>
+      </c>
+      <c r="O423" t="s">
+        <v>104</v>
+      </c>
+      <c r="P423" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q423">
+        <v>4</v>
+      </c>
+      <c r="R423">
+        <v>6</v>
+      </c>
+      <c r="S423">
+        <v>10</v>
+      </c>
+      <c r="T423">
+        <v>4</v>
+      </c>
+      <c r="U423">
+        <v>1.95</v>
+      </c>
+      <c r="V423">
+        <v>3.25</v>
+      </c>
+      <c r="W423">
+        <v>1.51</v>
+      </c>
+      <c r="X423">
+        <v>2.37</v>
+      </c>
+      <c r="Y423">
+        <v>3.4</v>
+      </c>
+      <c r="Z423">
+        <v>1.27</v>
+      </c>
+      <c r="AA423">
+        <v>10</v>
+      </c>
+      <c r="AB423">
+        <v>1.05</v>
+      </c>
+      <c r="AC423">
+        <v>3.18</v>
+      </c>
+      <c r="AD423">
+        <v>3.1</v>
+      </c>
+      <c r="AE423">
+        <v>2.38</v>
+      </c>
+      <c r="AF423">
+        <v>1.06</v>
+      </c>
+      <c r="AG423">
+        <v>6.5</v>
+      </c>
+      <c r="AH423">
+        <v>1.44</v>
+      </c>
+      <c r="AI423">
+        <v>2.4</v>
+      </c>
+      <c r="AJ423">
+        <v>2.41</v>
+      </c>
+      <c r="AK423">
+        <v>1.5</v>
+      </c>
+      <c r="AL423">
+        <v>2.05</v>
+      </c>
+      <c r="AM423">
+        <v>1.66</v>
+      </c>
+      <c r="AN423">
+        <v>1.53</v>
+      </c>
+      <c r="AO423">
+        <v>1.34</v>
+      </c>
+      <c r="AP423">
+        <v>1.38</v>
+      </c>
+      <c r="AQ423">
+        <v>1.3</v>
+      </c>
+      <c r="AR423">
+        <v>1.6</v>
+      </c>
+      <c r="AS423">
+        <v>1.18</v>
+      </c>
+      <c r="AT423">
+        <v>1.73</v>
+      </c>
+      <c r="AU423">
+        <v>1.45</v>
+      </c>
+      <c r="AV423">
+        <v>1.41</v>
+      </c>
+      <c r="AW423">
+        <v>2.86</v>
+      </c>
+      <c r="AX423">
+        <v>1.88</v>
+      </c>
+      <c r="AY423">
+        <v>8.5</v>
+      </c>
+      <c r="AZ423">
+        <v>2.25</v>
+      </c>
+      <c r="BA423">
+        <v>1.38</v>
+      </c>
+      <c r="BB423">
+        <v>1.72</v>
+      </c>
+      <c r="BC423">
+        <v>2.19</v>
+      </c>
+      <c r="BD423">
+        <v>2.9</v>
+      </c>
+      <c r="BE423">
+        <v>4.2</v>
+      </c>
+      <c r="BF423">
+        <v>4</v>
+      </c>
+      <c r="BG423">
+        <v>6</v>
+      </c>
+      <c r="BH423">
+        <v>5</v>
+      </c>
+      <c r="BI423">
+        <v>5</v>
+      </c>
+      <c r="BJ423">
+        <v>9</v>
+      </c>
+      <c r="BK423">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Prim B Nacional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="439">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1036,6 +1036,21 @@
     <t>['7', '86']</t>
   </si>
   <si>
+    <t>['12', '55']</t>
+  </si>
+  <si>
+    <t>['52', '90+4']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['18', '76']</t>
+  </si>
+  <si>
+    <t>['45+8']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
@@ -1070,9 +1085,6 @@
   </si>
   <si>
     <t>['5']</t>
-  </si>
-  <si>
-    <t>['59']</t>
   </si>
   <si>
     <t>['42', '90']</t>
@@ -1307,6 +1319,18 @@
   </si>
   <si>
     <t>['42', '60', '65']</t>
+  </si>
+  <si>
+    <t>['76', '90+4']</t>
+  </si>
+  <si>
+    <t>['7', '23']</t>
+  </si>
+  <si>
+    <t>['8', '73']</t>
+  </si>
+  <si>
+    <t>['21', '67']</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK423"/>
+  <dimension ref="A1:BK439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2193,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2294,7 +2318,7 @@
         <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2384,7 +2408,7 @@
         <v>1.42</v>
       </c>
       <c r="AT4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2763,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2957,7 +2981,7 @@
         <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3336,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT9">
         <v>0.83</v>
@@ -3631,7 +3655,7 @@
         <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3909,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT12">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4103,7 +4127,7 @@
         <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4291,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4485,7 +4509,7 @@
         <v>2.08</v>
       </c>
       <c r="AT15">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4673,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>0.75</v>
@@ -4864,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT17">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4968,7 +4992,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5055,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT18">
         <v>0.64</v>
@@ -5246,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5350,7 +5374,7 @@
         <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5440,7 +5464,7 @@
         <v>1.82</v>
       </c>
       <c r="AT20">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5628,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT21">
         <v>0.91</v>
@@ -5822,7 +5846,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6114,7 +6138,7 @@
         <v>114</v>
       </c>
       <c r="P24" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6201,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT24">
         <v>0.83</v>
@@ -6392,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6583,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6687,7 +6711,7 @@
         <v>117</v>
       </c>
       <c r="P27" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6777,7 +6801,7 @@
         <v>2.09</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6965,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT28">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -7642,7 +7666,7 @@
         <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7732,7 +7756,7 @@
         <v>1.42</v>
       </c>
       <c r="AT32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.59</v>
@@ -7833,7 +7857,7 @@
         <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q33">
         <v>10</v>
@@ -8024,7 +8048,7 @@
         <v>123</v>
       </c>
       <c r="P34" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8114,7 +8138,7 @@
         <v>1.36</v>
       </c>
       <c r="AT34">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -8684,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
         <v>0.42</v>
@@ -8788,7 +8812,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9257,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT40">
         <v>1.73</v>
@@ -9639,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1.64</v>
@@ -10215,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10594,10 +10618,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT47">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU47">
         <v>1.93</v>
@@ -10698,7 +10722,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10785,10 +10809,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT48">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>0.98</v>
@@ -10976,10 +11000,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -11080,7 +11104,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11167,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.02</v>
@@ -11361,7 +11385,7 @@
         <v>1.82</v>
       </c>
       <c r="AT51">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU51">
         <v>2.08</v>
@@ -11462,7 +11486,7 @@
         <v>135</v>
       </c>
       <c r="P52" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11552,7 +11576,7 @@
         <v>2.09</v>
       </c>
       <c r="AT52">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU52">
         <v>2.09</v>
@@ -11740,10 +11764,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1</v>
@@ -11931,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>0.83</v>
@@ -12125,7 +12149,7 @@
         <v>2.08</v>
       </c>
       <c r="AT55">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.44</v>
@@ -12316,7 +12340,7 @@
         <v>2.08</v>
       </c>
       <c r="AT56">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -12504,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12886,10 +12910,10 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU59">
         <v>2.6</v>
@@ -13077,10 +13101,10 @@
         <v>0</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU60">
         <v>1.64</v>
@@ -13181,7 +13205,7 @@
         <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -13268,10 +13292,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT61">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU61">
         <v>1.88</v>
@@ -13459,10 +13483,10 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU62">
         <v>1.28</v>
@@ -13650,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT63">
         <v>0.91</v>
@@ -13841,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT64">
         <v>0.64</v>
@@ -13945,7 +13969,7 @@
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q65">
         <v>14</v>
@@ -14709,7 +14733,7 @@
         <v>102</v>
       </c>
       <c r="P69" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -15369,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15473,7 +15497,7 @@
         <v>149</v>
       </c>
       <c r="P73" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16518,7 +16542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT78">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU78">
         <v>1.55</v>
@@ -16619,7 +16643,7 @@
         <v>153</v>
       </c>
       <c r="P79" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17383,7 +17407,7 @@
         <v>157</v>
       </c>
       <c r="P83" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -17470,10 +17494,10 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT83">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.37</v>
@@ -17664,7 +17688,7 @@
         <v>1.82</v>
       </c>
       <c r="AT84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.84</v>
@@ -17852,7 +17876,7 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT85">
         <v>0.64</v>
@@ -17956,7 +17980,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -18043,10 +18067,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU86">
         <v>1.39</v>
@@ -18147,7 +18171,7 @@
         <v>160</v>
       </c>
       <c r="P87" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -18234,10 +18258,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU87">
         <v>0.83</v>
@@ -18338,7 +18362,7 @@
         <v>161</v>
       </c>
       <c r="P88" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18428,7 +18452,7 @@
         <v>2.08</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU88">
         <v>1.14</v>
@@ -18616,10 +18640,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT89">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18807,7 +18831,7 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT90">
         <v>0.83</v>
@@ -18911,7 +18935,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -18998,10 +19022,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU91">
         <v>1.36</v>
@@ -19189,10 +19213,10 @@
         <v>1.5</v>
       </c>
       <c r="AS92">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -19380,10 +19404,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU93">
         <v>1.03</v>
@@ -19484,7 +19508,7 @@
         <v>102</v>
       </c>
       <c r="P94" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19571,10 +19595,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU94">
         <v>1.93</v>
@@ -19762,10 +19786,10 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT95">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19953,10 +19977,10 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT96">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU96">
         <v>1.3</v>
@@ -20144,10 +20168,10 @@
         <v>0.5</v>
       </c>
       <c r="AS97">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>1.23</v>
@@ -20248,7 +20272,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q98">
         <v>10</v>
@@ -20335,10 +20359,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT98">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>1.87</v>
@@ -20439,7 +20463,7 @@
         <v>166</v>
       </c>
       <c r="P99" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q99">
         <v>2</v>
@@ -20526,10 +20550,10 @@
         <v>1.5</v>
       </c>
       <c r="AS99">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT99">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU99">
         <v>1.98</v>
@@ -22158,7 +22182,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -22731,7 +22755,7 @@
         <v>174</v>
       </c>
       <c r="P111" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24259,7 +24283,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -24346,7 +24370,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT119">
         <v>1.09</v>
@@ -24537,10 +24561,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT120">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU120">
         <v>2.05</v>
@@ -24641,7 +24665,7 @@
         <v>179</v>
       </c>
       <c r="P121" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24728,7 +24752,7 @@
         <v>0.33</v>
       </c>
       <c r="AS121">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT121">
         <v>0.64</v>
@@ -24832,7 +24856,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q122">
         <v>4</v>
@@ -24919,10 +24943,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU122">
         <v>1.3</v>
@@ -25023,7 +25047,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -25113,7 +25137,7 @@
         <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -25301,10 +25325,10 @@
         <v>1.67</v>
       </c>
       <c r="AS124">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT124">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU124">
         <v>1.18</v>
@@ -25492,10 +25516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT125">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU125">
         <v>1.58</v>
@@ -25683,10 +25707,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.31</v>
@@ -25787,7 +25811,7 @@
         <v>102</v>
       </c>
       <c r="P127" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q127">
         <v>11</v>
@@ -25877,7 +25901,7 @@
         <v>1.27</v>
       </c>
       <c r="AT127">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25978,7 +26002,7 @@
         <v>184</v>
       </c>
       <c r="P128" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -26065,10 +26089,10 @@
         <v>1.33</v>
       </c>
       <c r="AS128">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT128">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU128">
         <v>1.36</v>
@@ -26256,10 +26280,10 @@
         <v>0.67</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU129">
         <v>1.51</v>
@@ -26360,7 +26384,7 @@
         <v>102</v>
       </c>
       <c r="P130" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26447,10 +26471,10 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT130">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU130">
         <v>1.4</v>
@@ -26551,7 +26575,7 @@
         <v>185</v>
       </c>
       <c r="P131" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26638,10 +26662,10 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT131">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU131">
         <v>1.56</v>
@@ -26832,7 +26856,7 @@
         <v>2.08</v>
       </c>
       <c r="AT132">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU132">
         <v>1.41</v>
@@ -27020,10 +27044,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU133">
         <v>1.6</v>
@@ -27211,10 +27235,10 @@
         <v>1</v>
       </c>
       <c r="AS134">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT134">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.41</v>
@@ -27402,10 +27426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT135">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU135">
         <v>1.95</v>
@@ -27506,7 +27530,7 @@
         <v>189</v>
       </c>
       <c r="P136" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -27593,10 +27617,10 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT136">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU136">
         <v>1.88</v>
@@ -28843,7 +28867,7 @@
         <v>102</v>
       </c>
       <c r="P143" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29225,7 +29249,7 @@
         <v>121</v>
       </c>
       <c r="P145" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -29315,7 +29339,7 @@
         <v>0.91</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU145">
         <v>2.4</v>
@@ -29503,7 +29527,7 @@
         <v>0.33</v>
       </c>
       <c r="AS146">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT146">
         <v>1</v>
@@ -29607,7 +29631,7 @@
         <v>194</v>
       </c>
       <c r="P147" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29798,7 +29822,7 @@
         <v>195</v>
       </c>
       <c r="P148" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29885,7 +29909,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT148">
         <v>0.5</v>
@@ -29989,7 +30013,7 @@
         <v>102</v>
       </c>
       <c r="P149" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31222,10 +31246,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU155">
         <v>1.24</v>
@@ -31413,10 +31437,10 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT156">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU156">
         <v>1.25</v>
@@ -31604,7 +31628,7 @@
         <v>1</v>
       </c>
       <c r="AS157">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT157">
         <v>0.64</v>
@@ -31795,7 +31819,7 @@
         <v>0.25</v>
       </c>
       <c r="AS158">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT158">
         <v>0.42</v>
@@ -31899,7 +31923,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31986,10 +32010,10 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT159">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU159">
         <v>1.42</v>
@@ -32177,10 +32201,10 @@
         <v>0.75</v>
       </c>
       <c r="AS160">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT160">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU160">
         <v>1.2</v>
@@ -32371,7 +32395,7 @@
         <v>1.08</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32562,7 +32586,7 @@
         <v>2.08</v>
       </c>
       <c r="AT162">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.5</v>
@@ -32663,7 +32687,7 @@
         <v>204</v>
       </c>
       <c r="P163" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -32750,10 +32774,10 @@
         <v>1</v>
       </c>
       <c r="AS163">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT163">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU163">
         <v>1.65</v>
@@ -32941,7 +32965,7 @@
         <v>1.2</v>
       </c>
       <c r="AS164">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT164">
         <v>0.75</v>
@@ -33132,7 +33156,7 @@
         <v>0.67</v>
       </c>
       <c r="AS165">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT165">
         <v>1.09</v>
@@ -33236,7 +33260,7 @@
         <v>205</v>
       </c>
       <c r="P166" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q166">
         <v>6</v>
@@ -33326,7 +33350,7 @@
         <v>1.27</v>
       </c>
       <c r="AT166">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU166">
         <v>1.33</v>
@@ -33427,7 +33451,7 @@
         <v>206</v>
       </c>
       <c r="P167" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33514,10 +33538,10 @@
         <v>1.25</v>
       </c>
       <c r="AS167">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT167">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU167">
         <v>1.7</v>
@@ -33708,7 +33732,7 @@
         <v>2.27</v>
       </c>
       <c r="AT168">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU168">
         <v>1.65</v>
@@ -34090,7 +34114,7 @@
         <v>2.08</v>
       </c>
       <c r="AT170">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU170">
         <v>1.48</v>
@@ -34278,10 +34302,10 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT171">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU171">
         <v>1.54</v>
@@ -34573,7 +34597,7 @@
         <v>209</v>
       </c>
       <c r="P173" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34660,10 +34684,10 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT173">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU173">
         <v>1.53</v>
@@ -34851,10 +34875,10 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT174">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU174">
         <v>1.41</v>
@@ -35042,7 +35066,7 @@
         <v>2</v>
       </c>
       <c r="AS175">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
         <v>1</v>
@@ -35146,7 +35170,7 @@
         <v>211</v>
       </c>
       <c r="P176" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35233,7 +35257,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT176">
         <v>0.92</v>
@@ -36101,7 +36125,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36188,7 +36212,7 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -36382,7 +36406,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU182">
         <v>1.69</v>
@@ -36483,7 +36507,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q183">
         <v>6</v>
@@ -36761,10 +36785,10 @@
         <v>0.8</v>
       </c>
       <c r="AS184">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT184">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.3</v>
@@ -36865,7 +36889,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -36955,7 +36979,7 @@
         <v>2</v>
       </c>
       <c r="AT185">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU185">
         <v>1.33</v>
@@ -37334,7 +37358,7 @@
         <v>0.8</v>
       </c>
       <c r="AS187">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT187">
         <v>0.5</v>
@@ -37438,7 +37462,7 @@
         <v>102</v>
       </c>
       <c r="P188" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q188">
         <v>12</v>
@@ -37525,7 +37549,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT188">
         <v>1.18</v>
@@ -37820,7 +37844,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q190">
         <v>0</v>
@@ -37907,7 +37931,7 @@
         <v>0.2</v>
       </c>
       <c r="AS190">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT190">
         <v>0.42</v>
@@ -38011,7 +38035,7 @@
         <v>102</v>
       </c>
       <c r="P191" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q191">
         <v>10</v>
@@ -38289,10 +38313,10 @@
         <v>0.8</v>
       </c>
       <c r="AS192">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU192">
         <v>1.28</v>
@@ -38480,10 +38504,10 @@
         <v>1.2</v>
       </c>
       <c r="AS193">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT193">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU193">
         <v>1.16</v>
@@ -38674,7 +38698,7 @@
         <v>2.08</v>
       </c>
       <c r="AT194">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU194">
         <v>1.46</v>
@@ -39157,7 +39181,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39247,7 +39271,7 @@
         <v>1.18</v>
       </c>
       <c r="AT197">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU197">
         <v>1.46</v>
@@ -39438,7 +39462,7 @@
         <v>1.27</v>
       </c>
       <c r="AT198">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU198">
         <v>1.87</v>
@@ -39629,7 +39653,7 @@
         <v>2</v>
       </c>
       <c r="AT199">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU199">
         <v>1.88</v>
@@ -39817,7 +39841,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT200">
         <v>0.92</v>
@@ -39921,7 +39945,7 @@
         <v>226</v>
       </c>
       <c r="P201" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q201">
         <v>3</v>
@@ -40112,7 +40136,7 @@
         <v>102</v>
       </c>
       <c r="P202" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q202">
         <v>11</v>
@@ -40199,7 +40223,7 @@
         <v>1.25</v>
       </c>
       <c r="AS202">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT202">
         <v>1.55</v>
@@ -40303,7 +40327,7 @@
         <v>227</v>
       </c>
       <c r="P203" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q203">
         <v>5</v>
@@ -40393,7 +40417,7 @@
         <v>2.27</v>
       </c>
       <c r="AT203">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU203">
         <v>1.69</v>
@@ -40581,7 +40605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS204">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40685,7 +40709,7 @@
         <v>102</v>
       </c>
       <c r="P205" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q205">
         <v>8</v>
@@ -40775,7 +40799,7 @@
         <v>1.27</v>
       </c>
       <c r="AT205">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU205">
         <v>1.3</v>
@@ -40876,7 +40900,7 @@
         <v>102</v>
       </c>
       <c r="P206" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q206">
         <v>6</v>
@@ -41067,7 +41091,7 @@
         <v>229</v>
       </c>
       <c r="P207" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q207">
         <v>5</v>
@@ -41157,7 +41181,7 @@
         <v>0.91</v>
       </c>
       <c r="AT207">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU207">
         <v>2.2</v>
@@ -41345,7 +41369,7 @@
         <v>0.67</v>
       </c>
       <c r="AS208">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT208">
         <v>0.83</v>
@@ -41449,7 +41473,7 @@
         <v>102</v>
       </c>
       <c r="P209" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41536,7 +41560,7 @@
         <v>1.33</v>
       </c>
       <c r="AS209">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT209">
         <v>1</v>
@@ -41727,7 +41751,7 @@
         <v>0.75</v>
       </c>
       <c r="AS210">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT210">
         <v>1.09</v>
@@ -41831,7 +41855,7 @@
         <v>102</v>
       </c>
       <c r="P211" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41918,10 +41942,10 @@
         <v>1</v>
       </c>
       <c r="AS211">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT211">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU211">
         <v>1.43</v>
@@ -42109,10 +42133,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT212">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU212">
         <v>1.43</v>
@@ -42300,10 +42324,10 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT213">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU213">
         <v>1.68</v>
@@ -42494,7 +42518,7 @@
         <v>1.75</v>
       </c>
       <c r="AT214">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU214">
         <v>1.36</v>
@@ -42595,7 +42619,7 @@
         <v>102</v>
       </c>
       <c r="P215" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q215">
         <v>7</v>
@@ -43446,7 +43470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT219">
         <v>0.75</v>
@@ -43637,7 +43661,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT220">
         <v>1</v>
@@ -43828,7 +43852,7 @@
         <v>1.8</v>
       </c>
       <c r="AS221">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT221">
         <v>1.73</v>
@@ -44213,7 +44237,7 @@
         <v>1.82</v>
       </c>
       <c r="AT223">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU223">
         <v>1.69</v>
@@ -44314,7 +44338,7 @@
         <v>238</v>
       </c>
       <c r="P224" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q224">
         <v>2</v>
@@ -44401,7 +44425,7 @@
         <v>0.17</v>
       </c>
       <c r="AS224">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT224">
         <v>0.42</v>
@@ -44696,7 +44720,7 @@
         <v>239</v>
       </c>
       <c r="P226" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q226">
         <v>4</v>
@@ -44786,7 +44810,7 @@
         <v>1.27</v>
       </c>
       <c r="AT226">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU226">
         <v>1.71</v>
@@ -44974,10 +44998,10 @@
         <v>0.67</v>
       </c>
       <c r="AS227">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT227">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU227">
         <v>1.26</v>
@@ -45078,7 +45102,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45165,10 +45189,10 @@
         <v>0.67</v>
       </c>
       <c r="AS228">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT228">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU228">
         <v>1.19</v>
@@ -45359,7 +45383,7 @@
         <v>2</v>
       </c>
       <c r="AT229">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU229">
         <v>1.33</v>
@@ -45460,7 +45484,7 @@
         <v>157</v>
       </c>
       <c r="P230" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45550,7 +45574,7 @@
         <v>1.08</v>
       </c>
       <c r="AT230">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU230">
         <v>1.51</v>
@@ -45932,7 +45956,7 @@
         <v>1.75</v>
       </c>
       <c r="AT232">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU232">
         <v>1.75</v>
@@ -46120,7 +46144,7 @@
         <v>0</v>
       </c>
       <c r="AS233">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT233">
         <v>0.18</v>
@@ -46314,7 +46338,7 @@
         <v>1.36</v>
       </c>
       <c r="AT234">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU234">
         <v>1.39</v>
@@ -46502,7 +46526,7 @@
         <v>0.83</v>
       </c>
       <c r="AS235">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT235">
         <v>0.42</v>
@@ -46606,7 +46630,7 @@
         <v>102</v>
       </c>
       <c r="P236" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -46696,7 +46720,7 @@
         <v>1.42</v>
       </c>
       <c r="AT236">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU236">
         <v>1.38</v>
@@ -46797,7 +46821,7 @@
         <v>244</v>
       </c>
       <c r="P237" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46887,7 +46911,7 @@
         <v>2</v>
       </c>
       <c r="AT237">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU237">
         <v>1.4</v>
@@ -47075,7 +47099,7 @@
         <v>1.57</v>
       </c>
       <c r="AS238">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT238">
         <v>1</v>
@@ -47179,7 +47203,7 @@
         <v>246</v>
       </c>
       <c r="P239" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q239">
         <v>9</v>
@@ -47269,7 +47293,7 @@
         <v>0.91</v>
       </c>
       <c r="AT239">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU239">
         <v>2.07</v>
@@ -47457,7 +47481,7 @@
         <v>0.5</v>
       </c>
       <c r="AS240">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT240">
         <v>0.75</v>
@@ -47561,7 +47585,7 @@
         <v>248</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -47651,7 +47675,7 @@
         <v>1.27</v>
       </c>
       <c r="AT241">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU241">
         <v>1.26</v>
@@ -47842,7 +47866,7 @@
         <v>2.27</v>
       </c>
       <c r="AT242">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU242">
         <v>1.76</v>
@@ -47943,7 +47967,7 @@
         <v>250</v>
       </c>
       <c r="P243" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q243">
         <v>10</v>
@@ -48030,7 +48054,7 @@
         <v>1.4</v>
       </c>
       <c r="AS243">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT243">
         <v>1.18</v>
@@ -48221,7 +48245,7 @@
         <v>1.4</v>
       </c>
       <c r="AS244">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT244">
         <v>1</v>
@@ -48415,7 +48439,7 @@
         <v>2</v>
       </c>
       <c r="AT245">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU245">
         <v>1.82</v>
@@ -48794,7 +48818,7 @@
         <v>0.57</v>
       </c>
       <c r="AS247">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT247">
         <v>0.83</v>
@@ -48985,7 +49009,7 @@
         <v>1.6</v>
       </c>
       <c r="AS248">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT248">
         <v>1.55</v>
@@ -49176,10 +49200,10 @@
         <v>0.8</v>
       </c>
       <c r="AS249">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT249">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU249">
         <v>1.64</v>
@@ -49367,7 +49391,7 @@
         <v>0.6</v>
       </c>
       <c r="AS250">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT250">
         <v>1.09</v>
@@ -49752,7 +49776,7 @@
         <v>1.18</v>
       </c>
       <c r="AT252">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU252">
         <v>1.53</v>
@@ -49943,7 +49967,7 @@
         <v>1.64</v>
       </c>
       <c r="AT253">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU253">
         <v>1.39</v>
@@ -50134,7 +50158,7 @@
         <v>2</v>
       </c>
       <c r="AT254">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU254">
         <v>1.2</v>
@@ -50235,7 +50259,7 @@
         <v>259</v>
       </c>
       <c r="P255" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q255">
         <v>2</v>
@@ -50322,7 +50346,7 @@
         <v>1.67</v>
       </c>
       <c r="AS255">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT255">
         <v>1.73</v>
@@ -50516,7 +50540,7 @@
         <v>1.75</v>
       </c>
       <c r="AT256">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU256">
         <v>1.3</v>
@@ -50704,7 +50728,7 @@
         <v>0.57</v>
       </c>
       <c r="AS257">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT257">
         <v>0.42</v>
@@ -50898,7 +50922,7 @@
         <v>1.75</v>
       </c>
       <c r="AT258">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU258">
         <v>1.72</v>
@@ -50999,7 +51023,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q259">
         <v>10</v>
@@ -51086,7 +51110,7 @@
         <v>0.83</v>
       </c>
       <c r="AS259">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT259">
         <v>1</v>
@@ -51190,7 +51214,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q260">
         <v>9</v>
@@ -51277,7 +51301,7 @@
         <v>1.29</v>
       </c>
       <c r="AS260">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT260">
         <v>1.64</v>
@@ -51471,7 +51495,7 @@
         <v>2.08</v>
       </c>
       <c r="AT261">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU261">
         <v>1.59</v>
@@ -51572,7 +51596,7 @@
         <v>107</v>
       </c>
       <c r="P262" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q262">
         <v>2</v>
@@ -51662,7 +51686,7 @@
         <v>2.09</v>
       </c>
       <c r="AT262">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU262">
         <v>1.72</v>
@@ -52041,7 +52065,7 @@
         <v>1.29</v>
       </c>
       <c r="AS264">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT264">
         <v>0.75</v>
@@ -52232,7 +52256,7 @@
         <v>0.71</v>
       </c>
       <c r="AS265">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT265">
         <v>0.5</v>
@@ -52426,7 +52450,7 @@
         <v>1.36</v>
       </c>
       <c r="AT266">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU266">
         <v>1.36</v>
@@ -52527,7 +52551,7 @@
         <v>266</v>
       </c>
       <c r="P267" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q267">
         <v>2</v>
@@ -52617,7 +52641,7 @@
         <v>1.82</v>
       </c>
       <c r="AT267">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU267">
         <v>1.56</v>
@@ -52808,7 +52832,7 @@
         <v>1.08</v>
       </c>
       <c r="AT268">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU268">
         <v>1.3</v>
@@ -52996,7 +53020,7 @@
         <v>0</v>
       </c>
       <c r="AS269">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT269">
         <v>0</v>
@@ -53381,7 +53405,7 @@
         <v>2</v>
       </c>
       <c r="AT271">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU271">
         <v>1.44</v>
@@ -53569,7 +53593,7 @@
         <v>1</v>
       </c>
       <c r="AS272">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT272">
         <v>1</v>
@@ -53673,7 +53697,7 @@
         <v>270</v>
       </c>
       <c r="P273" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -53763,7 +53787,7 @@
         <v>1.27</v>
       </c>
       <c r="AT273">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU273">
         <v>1.27</v>
@@ -53951,7 +53975,7 @@
         <v>1.38</v>
       </c>
       <c r="AS274">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT274">
         <v>1</v>
@@ -54055,7 +54079,7 @@
         <v>271</v>
       </c>
       <c r="P275" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q275">
         <v>2</v>
@@ -54145,7 +54169,7 @@
         <v>2.08</v>
       </c>
       <c r="AT275">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU275">
         <v>1.62</v>
@@ -54246,7 +54270,7 @@
         <v>272</v>
       </c>
       <c r="P276" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -54333,7 +54357,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT276">
         <v>0.83</v>
@@ -54524,7 +54548,7 @@
         <v>0.57</v>
       </c>
       <c r="AS277">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT277">
         <v>0.75</v>
@@ -54715,7 +54739,7 @@
         <v>1.67</v>
       </c>
       <c r="AS278">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT278">
         <v>1.18</v>
@@ -54819,7 +54843,7 @@
         <v>102</v>
       </c>
       <c r="P279" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q279">
         <v>10</v>
@@ -54906,7 +54930,7 @@
         <v>1.5</v>
       </c>
       <c r="AS279">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT279">
         <v>1.55</v>
@@ -55100,7 +55124,7 @@
         <v>0.91</v>
       </c>
       <c r="AT280">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU280">
         <v>2</v>
@@ -55479,7 +55503,7 @@
         <v>0.71</v>
       </c>
       <c r="AS282">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT282">
         <v>0.42</v>
@@ -55670,7 +55694,7 @@
         <v>1.17</v>
       </c>
       <c r="AS283">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT283">
         <v>1</v>
@@ -55861,7 +55885,7 @@
         <v>0</v>
       </c>
       <c r="AS284">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT284">
         <v>0.18</v>
@@ -56055,7 +56079,7 @@
         <v>2.25</v>
       </c>
       <c r="AT285">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU285">
         <v>1.14</v>
@@ -56246,7 +56270,7 @@
         <v>1.27</v>
       </c>
       <c r="AT286">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU286">
         <v>1.62</v>
@@ -56347,7 +56371,7 @@
         <v>250</v>
       </c>
       <c r="P287" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q287">
         <v>8</v>
@@ -56437,7 +56461,7 @@
         <v>1.18</v>
       </c>
       <c r="AT287">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU287">
         <v>1.58</v>
@@ -56538,7 +56562,7 @@
         <v>278</v>
       </c>
       <c r="P288" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56816,7 +56840,7 @@
         <v>1.13</v>
       </c>
       <c r="AS289">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT289">
         <v>0.75</v>
@@ -56920,7 +56944,7 @@
         <v>200</v>
       </c>
       <c r="P290" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57010,7 +57034,7 @@
         <v>2</v>
       </c>
       <c r="AT290">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU290">
         <v>1.78</v>
@@ -57198,7 +57222,7 @@
         <v>0</v>
       </c>
       <c r="AS291">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT291">
         <v>0</v>
@@ -57302,7 +57326,7 @@
         <v>102</v>
       </c>
       <c r="P292" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q292">
         <v>3</v>
@@ -57389,7 +57413,7 @@
         <v>1.5</v>
       </c>
       <c r="AS292">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT292">
         <v>1.64</v>
@@ -57774,7 +57798,7 @@
         <v>2.08</v>
       </c>
       <c r="AT294">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU294">
         <v>1.56</v>
@@ -57965,7 +57989,7 @@
         <v>2</v>
       </c>
       <c r="AT295">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU295">
         <v>1.16</v>
@@ -58066,7 +58090,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q296">
         <v>9</v>
@@ -58156,7 +58180,7 @@
         <v>2.09</v>
       </c>
       <c r="AT296">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU296">
         <v>1.69</v>
@@ -58257,7 +58281,7 @@
         <v>283</v>
       </c>
       <c r="P297" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q297">
         <v>4</v>
@@ -58347,7 +58371,7 @@
         <v>1.82</v>
       </c>
       <c r="AT297">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU297">
         <v>1.47</v>
@@ -58448,7 +58472,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q298">
         <v>7</v>
@@ -58535,7 +58559,7 @@
         <v>0.5</v>
       </c>
       <c r="AS298">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT298">
         <v>0.83</v>
@@ -58639,7 +58663,7 @@
         <v>284</v>
       </c>
       <c r="P299" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q299">
         <v>6</v>
@@ -58726,7 +58750,7 @@
         <v>1.14</v>
       </c>
       <c r="AS299">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -59108,7 +59132,7 @@
         <v>1.13</v>
       </c>
       <c r="AS301">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT301">
         <v>0.92</v>
@@ -59302,7 +59326,7 @@
         <v>1.64</v>
       </c>
       <c r="AT302">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU302">
         <v>1.42</v>
@@ -59403,7 +59427,7 @@
         <v>286</v>
       </c>
       <c r="P303" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59490,10 +59514,10 @@
         <v>1.75</v>
       </c>
       <c r="AS303">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT303">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU303">
         <v>1.5</v>
@@ -59681,7 +59705,7 @@
         <v>0.88</v>
       </c>
       <c r="AS304">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT304">
         <v>0.91</v>
@@ -59785,7 +59809,7 @@
         <v>287</v>
       </c>
       <c r="P305" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q305">
         <v>6</v>
@@ -59875,7 +59899,7 @@
         <v>1.36</v>
       </c>
       <c r="AT305">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU305">
         <v>1.37</v>
@@ -60066,7 +60090,7 @@
         <v>1.75</v>
       </c>
       <c r="AT306">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU306">
         <v>1.27</v>
@@ -60448,7 +60472,7 @@
         <v>1.82</v>
       </c>
       <c r="AT308">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60740,7 +60764,7 @@
         <v>291</v>
       </c>
       <c r="P310" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q310">
         <v>11</v>
@@ -60827,10 +60851,10 @@
         <v>1.5</v>
       </c>
       <c r="AS310">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT310">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU310">
         <v>1.2</v>
@@ -61018,7 +61042,7 @@
         <v>1.13</v>
       </c>
       <c r="AS311">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT311">
         <v>0.83</v>
@@ -61209,7 +61233,7 @@
         <v>0</v>
       </c>
       <c r="AS312">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT312">
         <v>0.18</v>
@@ -61400,7 +61424,7 @@
         <v>1.86</v>
       </c>
       <c r="AS313">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT313">
         <v>1.73</v>
@@ -61594,7 +61618,7 @@
         <v>2.08</v>
       </c>
       <c r="AT314">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU314">
         <v>1.6</v>
@@ -61785,7 +61809,7 @@
         <v>2</v>
       </c>
       <c r="AT315">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU315">
         <v>1.38</v>
@@ -61973,10 +61997,10 @@
         <v>1</v>
       </c>
       <c r="AS316">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT316">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU316">
         <v>1.87</v>
@@ -62077,7 +62101,7 @@
         <v>197</v>
       </c>
       <c r="P317" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q317">
         <v>5</v>
@@ -62164,7 +62188,7 @@
         <v>1</v>
       </c>
       <c r="AS317">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT317">
         <v>1</v>
@@ -62355,7 +62379,7 @@
         <v>0.5</v>
       </c>
       <c r="AS318">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT318">
         <v>0.75</v>
@@ -62650,7 +62674,7 @@
         <v>298</v>
       </c>
       <c r="P320" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q320">
         <v>6</v>
@@ -62740,7 +62764,7 @@
         <v>1.27</v>
       </c>
       <c r="AT320">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU320">
         <v>1.27</v>
@@ -62841,7 +62865,7 @@
         <v>299</v>
       </c>
       <c r="P321" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q321">
         <v>5</v>
@@ -63119,7 +63143,7 @@
         <v>1.43</v>
       </c>
       <c r="AS322">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT322">
         <v>1.18</v>
@@ -63223,7 +63247,7 @@
         <v>300</v>
       </c>
       <c r="P323" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q323">
         <v>3</v>
@@ -63504,7 +63528,7 @@
         <v>1.27</v>
       </c>
       <c r="AT324">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU324">
         <v>1.56</v>
@@ -63695,7 +63719,7 @@
         <v>2.25</v>
       </c>
       <c r="AT325">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU325">
         <v>1.21</v>
@@ -63886,7 +63910,7 @@
         <v>2</v>
       </c>
       <c r="AT326">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU326">
         <v>1.34</v>
@@ -64265,10 +64289,10 @@
         <v>1.25</v>
       </c>
       <c r="AS328">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT328">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU328">
         <v>1.84</v>
@@ -64456,7 +64480,7 @@
         <v>1</v>
       </c>
       <c r="AS329">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT329">
         <v>0.83</v>
@@ -64647,10 +64671,10 @@
         <v>1.44</v>
       </c>
       <c r="AS330">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT330">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU330">
         <v>1.73</v>
@@ -64751,7 +64775,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q331">
         <v>5</v>
@@ -64838,10 +64862,10 @@
         <v>0.89</v>
       </c>
       <c r="AS331">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT331">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU331">
         <v>1.36</v>
@@ -65029,7 +65053,7 @@
         <v>1.22</v>
       </c>
       <c r="AS332">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT332">
         <v>1</v>
@@ -65414,7 +65438,7 @@
         <v>1.75</v>
       </c>
       <c r="AT334">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU334">
         <v>1.8</v>
@@ -65605,7 +65629,7 @@
         <v>2</v>
       </c>
       <c r="AT335">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU335">
         <v>1.79</v>
@@ -66175,7 +66199,7 @@
         <v>1</v>
       </c>
       <c r="AS338">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT338">
         <v>1</v>
@@ -66557,7 +66581,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS340">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT340">
         <v>0.42</v>
@@ -67130,7 +67154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS343">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT343">
         <v>1</v>
@@ -67512,7 +67536,7 @@
         <v>0</v>
       </c>
       <c r="AS345">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT345">
         <v>0.18</v>
@@ -67706,7 +67730,7 @@
         <v>1.36</v>
       </c>
       <c r="AT346">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU346">
         <v>1.33</v>
@@ -67897,7 +67921,7 @@
         <v>1.42</v>
       </c>
       <c r="AT347">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU347">
         <v>1.32</v>
@@ -67998,7 +68022,7 @@
         <v>312</v>
       </c>
       <c r="P348" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q348">
         <v>2</v>
@@ -68189,7 +68213,7 @@
         <v>188</v>
       </c>
       <c r="P349" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q349">
         <v>6</v>
@@ -68279,7 +68303,7 @@
         <v>1.82</v>
       </c>
       <c r="AT349">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU349">
         <v>1.58</v>
@@ -68658,7 +68682,7 @@
         <v>1.63</v>
       </c>
       <c r="AS351">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT351">
         <v>1.73</v>
@@ -68762,7 +68786,7 @@
         <v>313</v>
       </c>
       <c r="P352" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q352">
         <v>2</v>
@@ -69040,10 +69064,10 @@
         <v>1.3</v>
       </c>
       <c r="AS353">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT353">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU353">
         <v>1.34</v>
@@ -69231,10 +69255,10 @@
         <v>1.56</v>
       </c>
       <c r="AS354">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT354">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU354">
         <v>1.43</v>
@@ -69422,7 +69446,7 @@
         <v>0.7</v>
       </c>
       <c r="AS355">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT355">
         <v>0.64</v>
@@ -69613,10 +69637,10 @@
         <v>0.78</v>
       </c>
       <c r="AS356">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT356">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU356">
         <v>1.43</v>
@@ -69804,10 +69828,10 @@
         <v>1.3</v>
       </c>
       <c r="AS357">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT357">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU357">
         <v>1.66</v>
@@ -69995,10 +70019,10 @@
         <v>0.5</v>
       </c>
       <c r="AS358">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT358">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU358">
         <v>1.8</v>
@@ -70186,7 +70210,7 @@
         <v>0</v>
       </c>
       <c r="AS359">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT359">
         <v>0</v>
@@ -70481,7 +70505,7 @@
         <v>181</v>
       </c>
       <c r="P361" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70571,7 +70595,7 @@
         <v>2.08</v>
       </c>
       <c r="AT361">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU361">
         <v>1.6</v>
@@ -70762,7 +70786,7 @@
         <v>2.09</v>
       </c>
       <c r="AT362">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU362">
         <v>1.66</v>
@@ -70863,7 +70887,7 @@
         <v>181</v>
       </c>
       <c r="P363" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q363">
         <v>6</v>
@@ -70953,7 +70977,7 @@
         <v>1.82</v>
       </c>
       <c r="AT363">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU363">
         <v>1.41</v>
@@ -71054,7 +71078,7 @@
         <v>102</v>
       </c>
       <c r="P364" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q364">
         <v>5</v>
@@ -71141,10 +71165,10 @@
         <v>1.1</v>
       </c>
       <c r="AS364">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT364">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU364">
         <v>1.48</v>
@@ -71245,7 +71269,7 @@
         <v>220</v>
       </c>
       <c r="P365" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q365">
         <v>1</v>
@@ -71332,10 +71356,10 @@
         <v>0.67</v>
       </c>
       <c r="AS365">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT365">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU365">
         <v>1.53</v>
@@ -71526,7 +71550,7 @@
         <v>2.25</v>
       </c>
       <c r="AT366">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU366">
         <v>1.31</v>
@@ -71627,7 +71651,7 @@
         <v>317</v>
       </c>
       <c r="P367" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q367">
         <v>8</v>
@@ -71714,7 +71738,7 @@
         <v>1.11</v>
       </c>
       <c r="AS367">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT367">
         <v>0.91</v>
@@ -71908,7 +71932,7 @@
         <v>1.27</v>
       </c>
       <c r="AT368">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU368">
         <v>1.35</v>
@@ -72096,10 +72120,10 @@
         <v>1.33</v>
       </c>
       <c r="AS369">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT369">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU369">
         <v>1.6</v>
@@ -72287,7 +72311,7 @@
         <v>1.1</v>
       </c>
       <c r="AS370">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT370">
         <v>1</v>
@@ -72773,7 +72797,7 @@
         <v>102</v>
       </c>
       <c r="P373" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q373">
         <v>6</v>
@@ -72863,7 +72887,7 @@
         <v>1.64</v>
       </c>
       <c r="AT373">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU373">
         <v>1.4</v>
@@ -73155,7 +73179,7 @@
         <v>321</v>
       </c>
       <c r="P375" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q375">
         <v>2</v>
@@ -73627,7 +73651,7 @@
         <v>2</v>
       </c>
       <c r="AT377">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU377">
         <v>1.37</v>
@@ -74110,7 +74134,7 @@
         <v>324</v>
       </c>
       <c r="P380" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q380">
         <v>3</v>
@@ -74197,7 +74221,7 @@
         <v>0.6</v>
       </c>
       <c r="AS380">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="AT380">
         <v>0.75</v>
@@ -74388,7 +74412,7 @@
         <v>0.89</v>
       </c>
       <c r="AS381">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT381">
         <v>1</v>
@@ -75152,7 +75176,7 @@
         <v>1.67</v>
       </c>
       <c r="AS385">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT385">
         <v>1.64</v>
@@ -75919,7 +75943,7 @@
         <v>1.82</v>
       </c>
       <c r="AT389">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU389">
         <v>1.44</v>
@@ -76107,10 +76131,10 @@
         <v>0.7</v>
       </c>
       <c r="AS390">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT390">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU390">
         <v>1.5</v>
@@ -76298,10 +76322,10 @@
         <v>0.91</v>
       </c>
       <c r="AS391">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT391">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU391">
         <v>1.38</v>
@@ -76489,10 +76513,10 @@
         <v>0.73</v>
       </c>
       <c r="AS392">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT392">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU392">
         <v>1.69</v>
@@ -76683,7 +76707,7 @@
         <v>2.08</v>
       </c>
       <c r="AT393">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU393">
         <v>1.67</v>
@@ -76784,7 +76808,7 @@
         <v>102</v>
       </c>
       <c r="P394" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q394">
         <v>3</v>
@@ -76871,10 +76895,10 @@
         <v>0.8</v>
       </c>
       <c r="AS394">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT394">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU394">
         <v>1.57</v>
@@ -76975,7 +76999,7 @@
         <v>102</v>
       </c>
       <c r="P395" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q395">
         <v>6</v>
@@ -77062,10 +77086,10 @@
         <v>0.9</v>
       </c>
       <c r="AS395">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT395">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU395">
         <v>1.67</v>
@@ -77166,7 +77190,7 @@
         <v>102</v>
       </c>
       <c r="P396" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q396">
         <v>2</v>
@@ -77253,10 +77277,10 @@
         <v>1.2</v>
       </c>
       <c r="AS396">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT396">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU396">
         <v>1.38</v>
@@ -77444,7 +77468,7 @@
         <v>0.91</v>
       </c>
       <c r="AS397">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT397">
         <v>0.83</v>
@@ -77635,7 +77659,7 @@
         <v>1</v>
       </c>
       <c r="AS398">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT398">
         <v>0.91</v>
@@ -77829,7 +77853,7 @@
         <v>2.08</v>
       </c>
       <c r="AT399">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU399">
         <v>1.79</v>
@@ -78017,10 +78041,10 @@
         <v>1.18</v>
       </c>
       <c r="AS400">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AT400">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU400">
         <v>1.35</v>
@@ -78121,7 +78145,7 @@
         <v>332</v>
       </c>
       <c r="P401" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q401">
         <v>5</v>
@@ -78208,10 +78232,10 @@
         <v>1.18</v>
       </c>
       <c r="AS401">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT401">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU401">
         <v>1.35</v>
@@ -78312,7 +78336,7 @@
         <v>333</v>
       </c>
       <c r="P402" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q402">
         <v>3</v>
@@ -78399,10 +78423,10 @@
         <v>0.7</v>
       </c>
       <c r="AS402">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT402">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU402">
         <v>2.09</v>
@@ -78590,10 +78614,10 @@
         <v>1.7</v>
       </c>
       <c r="AS403">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AT403">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU403">
         <v>1.74</v>
@@ -78694,7 +78718,7 @@
         <v>256</v>
       </c>
       <c r="P404" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q404">
         <v>13</v>
@@ -78781,10 +78805,10 @@
         <v>1.5</v>
       </c>
       <c r="AS404">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT404">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU404">
         <v>1.5</v>
@@ -78885,7 +78909,7 @@
         <v>103</v>
       </c>
       <c r="P405" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q405">
         <v>1</v>
@@ -78975,7 +78999,7 @@
         <v>1.27</v>
       </c>
       <c r="AT405">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU405">
         <v>1.37</v>
@@ -79267,7 +79291,7 @@
         <v>102</v>
       </c>
       <c r="P407" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q407">
         <v>6</v>
@@ -79649,7 +79673,7 @@
         <v>102</v>
       </c>
       <c r="P409" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q409">
         <v>4</v>
@@ -80413,7 +80437,7 @@
         <v>337</v>
       </c>
       <c r="P413" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q413">
         <v>1</v>
@@ -80986,7 +81010,7 @@
         <v>339</v>
       </c>
       <c r="P416" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q416">
         <v>2</v>
@@ -81941,7 +81965,7 @@
         <v>158</v>
       </c>
       <c r="P421" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q421">
         <v>4</v>
@@ -82132,7 +82156,7 @@
         <v>102</v>
       </c>
       <c r="P422" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q422">
         <v>5</v>
@@ -82219,7 +82243,7 @@
         <v>0.8</v>
       </c>
       <c r="AS422">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT422">
         <v>1</v>
@@ -82323,7 +82347,7 @@
         <v>104</v>
       </c>
       <c r="P423" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q423">
         <v>4</v>
@@ -82465,6 +82489,3062 @@
       </c>
       <c r="BK423">
         <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:63">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>6161995</v>
+      </c>
+      <c r="C424" t="s">
+        <v>63</v>
+      </c>
+      <c r="D424" t="s">
+        <v>64</v>
+      </c>
+      <c r="E424" s="2">
+        <v>45129.45833333334</v>
+      </c>
+      <c r="F424">
+        <v>26</v>
+      </c>
+      <c r="G424" t="s">
+        <v>88</v>
+      </c>
+      <c r="H424" t="s">
+        <v>67</v>
+      </c>
+      <c r="I424">
+        <v>1</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424">
+        <v>2</v>
+      </c>
+      <c r="L424">
+        <v>2</v>
+      </c>
+      <c r="M424">
+        <v>1</v>
+      </c>
+      <c r="N424">
+        <v>3</v>
+      </c>
+      <c r="O424" t="s">
+        <v>340</v>
+      </c>
+      <c r="P424" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q424">
+        <v>2</v>
+      </c>
+      <c r="R424">
+        <v>1</v>
+      </c>
+      <c r="S424">
+        <v>3</v>
+      </c>
+      <c r="T424">
+        <v>2.6</v>
+      </c>
+      <c r="U424">
+        <v>1.95</v>
+      </c>
+      <c r="V424">
+        <v>6</v>
+      </c>
+      <c r="W424">
+        <v>1.57</v>
+      </c>
+      <c r="X424">
+        <v>2.3</v>
+      </c>
+      <c r="Y424">
+        <v>3.6</v>
+      </c>
+      <c r="Z424">
+        <v>1.19</v>
+      </c>
+      <c r="AA424">
+        <v>8.75</v>
+      </c>
+      <c r="AB424">
+        <v>1.01</v>
+      </c>
+      <c r="AC424">
+        <v>1.71</v>
+      </c>
+      <c r="AD424">
+        <v>3.3</v>
+      </c>
+      <c r="AE424">
+        <v>5.2</v>
+      </c>
+      <c r="AF424">
+        <v>1.06</v>
+      </c>
+      <c r="AG424">
+        <v>6.75</v>
+      </c>
+      <c r="AH424">
+        <v>1.53</v>
+      </c>
+      <c r="AI424">
+        <v>2.37</v>
+      </c>
+      <c r="AJ424">
+        <v>2.73</v>
+      </c>
+      <c r="AK424">
+        <v>1.4</v>
+      </c>
+      <c r="AL424">
+        <v>2.25</v>
+      </c>
+      <c r="AM424">
+        <v>1.48</v>
+      </c>
+      <c r="AN424">
+        <v>1.13</v>
+      </c>
+      <c r="AO424">
+        <v>1.29</v>
+      </c>
+      <c r="AP424">
+        <v>1.9</v>
+      </c>
+      <c r="AQ424">
+        <v>1.18</v>
+      </c>
+      <c r="AR424">
+        <v>0.92</v>
+      </c>
+      <c r="AS424">
+        <v>1.33</v>
+      </c>
+      <c r="AT424">
+        <v>0.85</v>
+      </c>
+      <c r="AU424">
+        <v>1.39</v>
+      </c>
+      <c r="AV424">
+        <v>1.01</v>
+      </c>
+      <c r="AW424">
+        <v>2.4</v>
+      </c>
+      <c r="AX424">
+        <v>1.58</v>
+      </c>
+      <c r="AY424">
+        <v>8.9</v>
+      </c>
+      <c r="AZ424">
+        <v>2.88</v>
+      </c>
+      <c r="BA424">
+        <v>1.44</v>
+      </c>
+      <c r="BB424">
+        <v>1.73</v>
+      </c>
+      <c r="BC424">
+        <v>2.2</v>
+      </c>
+      <c r="BD424">
+        <v>2.98</v>
+      </c>
+      <c r="BE424">
+        <v>4.5</v>
+      </c>
+      <c r="BF424">
+        <v>3</v>
+      </c>
+      <c r="BG424">
+        <v>4</v>
+      </c>
+      <c r="BH424">
+        <v>4</v>
+      </c>
+      <c r="BI424">
+        <v>3</v>
+      </c>
+      <c r="BJ424">
+        <v>7</v>
+      </c>
+      <c r="BK424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:63">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>6161998</v>
+      </c>
+      <c r="C425" t="s">
+        <v>63</v>
+      </c>
+      <c r="D425" t="s">
+        <v>64</v>
+      </c>
+      <c r="E425" s="2">
+        <v>45129.50694444445</v>
+      </c>
+      <c r="F425">
+        <v>26</v>
+      </c>
+      <c r="G425" t="s">
+        <v>81</v>
+      </c>
+      <c r="H425" t="s">
+        <v>78</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425" t="s">
+        <v>102</v>
+      </c>
+      <c r="P425" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q425">
+        <v>3</v>
+      </c>
+      <c r="R425">
+        <v>3</v>
+      </c>
+      <c r="S425">
+        <v>6</v>
+      </c>
+      <c r="T425">
+        <v>4</v>
+      </c>
+      <c r="U425">
+        <v>1.91</v>
+      </c>
+      <c r="V425">
+        <v>3.25</v>
+      </c>
+      <c r="W425">
+        <v>1.57</v>
+      </c>
+      <c r="X425">
+        <v>2.3</v>
+      </c>
+      <c r="Y425">
+        <v>3.35</v>
+      </c>
+      <c r="Z425">
+        <v>1.22</v>
+      </c>
+      <c r="AA425">
+        <v>8</v>
+      </c>
+      <c r="AB425">
+        <v>1.01</v>
+      </c>
+      <c r="AC425">
+        <v>3.1</v>
+      </c>
+      <c r="AD425">
+        <v>2.9</v>
+      </c>
+      <c r="AE425">
+        <v>2.4</v>
+      </c>
+      <c r="AF425">
+        <v>1.05</v>
+      </c>
+      <c r="AG425">
+        <v>7</v>
+      </c>
+      <c r="AH425">
+        <v>1.5</v>
+      </c>
+      <c r="AI425">
+        <v>2.45</v>
+      </c>
+      <c r="AJ425">
+        <v>2.62</v>
+      </c>
+      <c r="AK425">
+        <v>1.43</v>
+      </c>
+      <c r="AL425">
+        <v>2</v>
+      </c>
+      <c r="AM425">
+        <v>1.66</v>
+      </c>
+      <c r="AN425">
+        <v>1.46</v>
+      </c>
+      <c r="AO425">
+        <v>1.32</v>
+      </c>
+      <c r="AP425">
+        <v>1.3</v>
+      </c>
+      <c r="AQ425">
+        <v>1.42</v>
+      </c>
+      <c r="AR425">
+        <v>0.73</v>
+      </c>
+      <c r="AS425">
+        <v>1.38</v>
+      </c>
+      <c r="AT425">
+        <v>0.75</v>
+      </c>
+      <c r="AU425">
+        <v>1.68</v>
+      </c>
+      <c r="AV425">
+        <v>1.36</v>
+      </c>
+      <c r="AW425">
+        <v>3.04</v>
+      </c>
+      <c r="AX425">
+        <v>2.15</v>
+      </c>
+      <c r="AY425">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ425">
+        <v>1.97</v>
+      </c>
+      <c r="BA425">
+        <v>1.5</v>
+      </c>
+      <c r="BB425">
+        <v>1.85</v>
+      </c>
+      <c r="BC425">
+        <v>2.3</v>
+      </c>
+      <c r="BD425">
+        <v>3.28</v>
+      </c>
+      <c r="BE425">
+        <v>4.9</v>
+      </c>
+      <c r="BF425">
+        <v>3</v>
+      </c>
+      <c r="BG425">
+        <v>6</v>
+      </c>
+      <c r="BH425">
+        <v>6</v>
+      </c>
+      <c r="BI425">
+        <v>7</v>
+      </c>
+      <c r="BJ425">
+        <v>9</v>
+      </c>
+      <c r="BK425">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" spans="1:63">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>6161994</v>
+      </c>
+      <c r="C426" t="s">
+        <v>63</v>
+      </c>
+      <c r="D426" t="s">
+        <v>64</v>
+      </c>
+      <c r="E426" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F426">
+        <v>26</v>
+      </c>
+      <c r="G426" t="s">
+        <v>87</v>
+      </c>
+      <c r="H426" t="s">
+        <v>66</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426">
+        <v>1</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+      <c r="M426">
+        <v>1</v>
+      </c>
+      <c r="N426">
+        <v>1</v>
+      </c>
+      <c r="O426" t="s">
+        <v>102</v>
+      </c>
+      <c r="P426" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q426">
+        <v>5</v>
+      </c>
+      <c r="R426">
+        <v>2</v>
+      </c>
+      <c r="S426">
+        <v>7</v>
+      </c>
+      <c r="T426">
+        <v>3.5</v>
+      </c>
+      <c r="U426">
+        <v>1.68</v>
+      </c>
+      <c r="V426">
+        <v>3.55</v>
+      </c>
+      <c r="W426">
+        <v>1.66</v>
+      </c>
+      <c r="X426">
+        <v>2.15</v>
+      </c>
+      <c r="Y426">
+        <v>3.95</v>
+      </c>
+      <c r="Z426">
+        <v>1.16</v>
+      </c>
+      <c r="AA426">
+        <v>9.25</v>
+      </c>
+      <c r="AB426">
+        <v>1.03</v>
+      </c>
+      <c r="AC426">
+        <v>2.8</v>
+      </c>
+      <c r="AD426">
+        <v>2.7</v>
+      </c>
+      <c r="AE426">
+        <v>2.85</v>
+      </c>
+      <c r="AF426">
+        <v>1.08</v>
+      </c>
+      <c r="AG426">
+        <v>6</v>
+      </c>
+      <c r="AH426">
+        <v>1.57</v>
+      </c>
+      <c r="AI426">
+        <v>2.25</v>
+      </c>
+      <c r="AJ426">
+        <v>2.89</v>
+      </c>
+      <c r="AK426">
+        <v>1.36</v>
+      </c>
+      <c r="AL426">
+        <v>2.05</v>
+      </c>
+      <c r="AM426">
+        <v>1.6</v>
+      </c>
+      <c r="AN426">
+        <v>1.33</v>
+      </c>
+      <c r="AO426">
+        <v>1.38</v>
+      </c>
+      <c r="AP426">
+        <v>1.35</v>
+      </c>
+      <c r="AQ426">
+        <v>2.25</v>
+      </c>
+      <c r="AR426">
+        <v>0.75</v>
+      </c>
+      <c r="AS426">
+        <v>2.08</v>
+      </c>
+      <c r="AT426">
+        <v>0.92</v>
+      </c>
+      <c r="AU426">
+        <v>1.29</v>
+      </c>
+      <c r="AV426">
+        <v>1.17</v>
+      </c>
+      <c r="AW426">
+        <v>2.46</v>
+      </c>
+      <c r="AX426">
+        <v>2.17</v>
+      </c>
+      <c r="AY426">
+        <v>8</v>
+      </c>
+      <c r="AZ426">
+        <v>1.97</v>
+      </c>
+      <c r="BA426">
+        <v>1.57</v>
+      </c>
+      <c r="BB426">
+        <v>1.95</v>
+      </c>
+      <c r="BC426">
+        <v>2.5</v>
+      </c>
+      <c r="BD426">
+        <v>3.56</v>
+      </c>
+      <c r="BE426">
+        <v>5.4</v>
+      </c>
+      <c r="BF426">
+        <v>3</v>
+      </c>
+      <c r="BG426">
+        <v>3</v>
+      </c>
+      <c r="BH426">
+        <v>7</v>
+      </c>
+      <c r="BI426">
+        <v>4</v>
+      </c>
+      <c r="BJ426">
+        <v>10</v>
+      </c>
+      <c r="BK426">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:63">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>6161946</v>
+      </c>
+      <c r="C427" t="s">
+        <v>63</v>
+      </c>
+      <c r="D427" t="s">
+        <v>64</v>
+      </c>
+      <c r="E427" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F427">
+        <v>23</v>
+      </c>
+      <c r="G427" t="s">
+        <v>77</v>
+      </c>
+      <c r="H427" t="s">
+        <v>90</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>1</v>
+      </c>
+      <c r="M427">
+        <v>1</v>
+      </c>
+      <c r="N427">
+        <v>2</v>
+      </c>
+      <c r="O427" t="s">
+        <v>119</v>
+      </c>
+      <c r="P427" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q427">
+        <v>4</v>
+      </c>
+      <c r="R427">
+        <v>8</v>
+      </c>
+      <c r="S427">
+        <v>12</v>
+      </c>
+      <c r="T427">
+        <v>3.1</v>
+      </c>
+      <c r="U427">
+        <v>1.87</v>
+      </c>
+      <c r="V427">
+        <v>3.75</v>
+      </c>
+      <c r="W427">
+        <v>1.52</v>
+      </c>
+      <c r="X427">
+        <v>2.4</v>
+      </c>
+      <c r="Y427">
+        <v>3.5</v>
+      </c>
+      <c r="Z427">
+        <v>1.27</v>
+      </c>
+      <c r="AA427">
+        <v>10.5</v>
+      </c>
+      <c r="AB427">
+        <v>1.05</v>
+      </c>
+      <c r="AC427">
+        <v>2.18</v>
+      </c>
+      <c r="AD427">
+        <v>2.95</v>
+      </c>
+      <c r="AE427">
+        <v>3.5</v>
+      </c>
+      <c r="AF427">
+        <v>1.09</v>
+      </c>
+      <c r="AG427">
+        <v>7.25</v>
+      </c>
+      <c r="AH427">
+        <v>1.52</v>
+      </c>
+      <c r="AI427">
+        <v>2.43</v>
+      </c>
+      <c r="AJ427">
+        <v>2.65</v>
+      </c>
+      <c r="AK427">
+        <v>1.42</v>
+      </c>
+      <c r="AL427">
+        <v>2.05</v>
+      </c>
+      <c r="AM427">
+        <v>1.74</v>
+      </c>
+      <c r="AN427">
+        <v>1.32</v>
+      </c>
+      <c r="AO427">
+        <v>1.38</v>
+      </c>
+      <c r="AP427">
+        <v>1.58</v>
+      </c>
+      <c r="AQ427">
+        <v>1.36</v>
+      </c>
+      <c r="AR427">
+        <v>1.36</v>
+      </c>
+      <c r="AS427">
+        <v>1.33</v>
+      </c>
+      <c r="AT427">
+        <v>1.33</v>
+      </c>
+      <c r="AU427">
+        <v>1.63</v>
+      </c>
+      <c r="AV427">
+        <v>1.09</v>
+      </c>
+      <c r="AW427">
+        <v>2.72</v>
+      </c>
+      <c r="AX427">
+        <v>1.67</v>
+      </c>
+      <c r="AY427">
+        <v>8.9</v>
+      </c>
+      <c r="AZ427">
+        <v>2.63</v>
+      </c>
+      <c r="BA427">
+        <v>1.29</v>
+      </c>
+      <c r="BB427">
+        <v>1.6</v>
+      </c>
+      <c r="BC427">
+        <v>1.95</v>
+      </c>
+      <c r="BD427">
+        <v>2.4</v>
+      </c>
+      <c r="BE427">
+        <v>3.48</v>
+      </c>
+      <c r="BF427">
+        <v>5</v>
+      </c>
+      <c r="BG427">
+        <v>5</v>
+      </c>
+      <c r="BH427">
+        <v>7</v>
+      </c>
+      <c r="BI427">
+        <v>4</v>
+      </c>
+      <c r="BJ427">
+        <v>12</v>
+      </c>
+      <c r="BK427">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:63">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>6161948</v>
+      </c>
+      <c r="C428" t="s">
+        <v>63</v>
+      </c>
+      <c r="D428" t="s">
+        <v>64</v>
+      </c>
+      <c r="E428" s="2">
+        <v>45129.625</v>
+      </c>
+      <c r="F428">
+        <v>23</v>
+      </c>
+      <c r="G428" t="s">
+        <v>82</v>
+      </c>
+      <c r="H428" t="s">
+        <v>93</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>1</v>
+      </c>
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428">
+        <v>1</v>
+      </c>
+      <c r="O428" t="s">
+        <v>216</v>
+      </c>
+      <c r="P428" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q428">
+        <v>5</v>
+      </c>
+      <c r="R428">
+        <v>4</v>
+      </c>
+      <c r="S428">
+        <v>9</v>
+      </c>
+      <c r="T428">
+        <v>3.1</v>
+      </c>
+      <c r="U428">
+        <v>1.86</v>
+      </c>
+      <c r="V428">
+        <v>3.55</v>
+      </c>
+      <c r="W428">
+        <v>1.54</v>
+      </c>
+      <c r="X428">
+        <v>2.35</v>
+      </c>
+      <c r="Y428">
+        <v>3.6</v>
+      </c>
+      <c r="Z428">
+        <v>1.25</v>
+      </c>
+      <c r="AA428">
+        <v>11</v>
+      </c>
+      <c r="AB428">
+        <v>1.04</v>
+      </c>
+      <c r="AC428">
+        <v>2.55</v>
+      </c>
+      <c r="AD428">
+        <v>2.85</v>
+      </c>
+      <c r="AE428">
+        <v>3</v>
+      </c>
+      <c r="AF428">
+        <v>1.1</v>
+      </c>
+      <c r="AG428">
+        <v>7</v>
+      </c>
+      <c r="AH428">
+        <v>1.5</v>
+      </c>
+      <c r="AI428">
+        <v>2.45</v>
+      </c>
+      <c r="AJ428">
+        <v>2.41</v>
+      </c>
+      <c r="AK428">
+        <v>1.5</v>
+      </c>
+      <c r="AL428">
+        <v>2</v>
+      </c>
+      <c r="AM428">
+        <v>1.74</v>
+      </c>
+      <c r="AN428">
+        <v>1.37</v>
+      </c>
+      <c r="AO428">
+        <v>1.4</v>
+      </c>
+      <c r="AP428">
+        <v>1.51</v>
+      </c>
+      <c r="AQ428">
+        <v>1.55</v>
+      </c>
+      <c r="AR428">
+        <v>1.64</v>
+      </c>
+      <c r="AS428">
+        <v>1.67</v>
+      </c>
+      <c r="AT428">
+        <v>1.5</v>
+      </c>
+      <c r="AU428">
+        <v>1.53</v>
+      </c>
+      <c r="AV428">
+        <v>1.41</v>
+      </c>
+      <c r="AW428">
+        <v>2.94</v>
+      </c>
+      <c r="AX428">
+        <v>1.73</v>
+      </c>
+      <c r="AY428">
+        <v>8.9</v>
+      </c>
+      <c r="AZ428">
+        <v>2.49</v>
+      </c>
+      <c r="BA428">
+        <v>1.26</v>
+      </c>
+      <c r="BB428">
+        <v>1.55</v>
+      </c>
+      <c r="BC428">
+        <v>1.85</v>
+      </c>
+      <c r="BD428">
+        <v>2.3</v>
+      </c>
+      <c r="BE428">
+        <v>3.2</v>
+      </c>
+      <c r="BF428">
+        <v>3</v>
+      </c>
+      <c r="BG428">
+        <v>0</v>
+      </c>
+      <c r="BH428">
+        <v>6</v>
+      </c>
+      <c r="BI428">
+        <v>4</v>
+      </c>
+      <c r="BJ428">
+        <v>9</v>
+      </c>
+      <c r="BK428">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:63">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>6161996</v>
+      </c>
+      <c r="C429" t="s">
+        <v>63</v>
+      </c>
+      <c r="D429" t="s">
+        <v>64</v>
+      </c>
+      <c r="E429" s="2">
+        <v>45129.63194444445</v>
+      </c>
+      <c r="F429">
+        <v>26</v>
+      </c>
+      <c r="G429" t="s">
+        <v>91</v>
+      </c>
+      <c r="H429" t="s">
+        <v>99</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>2</v>
+      </c>
+      <c r="M429">
+        <v>1</v>
+      </c>
+      <c r="N429">
+        <v>3</v>
+      </c>
+      <c r="O429" t="s">
+        <v>341</v>
+      </c>
+      <c r="P429" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q429">
+        <v>10</v>
+      </c>
+      <c r="R429">
+        <v>3</v>
+      </c>
+      <c r="S429">
+        <v>13</v>
+      </c>
+      <c r="T429">
+        <v>2.75</v>
+      </c>
+      <c r="U429">
+        <v>1.83</v>
+      </c>
+      <c r="V429">
+        <v>5</v>
+      </c>
+      <c r="W429">
+        <v>1.6</v>
+      </c>
+      <c r="X429">
+        <v>2.25</v>
+      </c>
+      <c r="Y429">
+        <v>3.85</v>
+      </c>
+      <c r="Z429">
+        <v>1.23</v>
+      </c>
+      <c r="AA429">
+        <v>13</v>
+      </c>
+      <c r="AB429">
+        <v>1.03</v>
+      </c>
+      <c r="AC429">
+        <v>1.97</v>
+      </c>
+      <c r="AD429">
+        <v>2.95</v>
+      </c>
+      <c r="AE429">
+        <v>4.3</v>
+      </c>
+      <c r="AF429">
+        <v>1.11</v>
+      </c>
+      <c r="AG429">
+        <v>6.5</v>
+      </c>
+      <c r="AH429">
+        <v>1.53</v>
+      </c>
+      <c r="AI429">
+        <v>2.3</v>
+      </c>
+      <c r="AJ429">
+        <v>2.81</v>
+      </c>
+      <c r="AK429">
+        <v>1.38</v>
+      </c>
+      <c r="AL429">
+        <v>2.25</v>
+      </c>
+      <c r="AM429">
+        <v>1.57</v>
+      </c>
+      <c r="AN429">
+        <v>1.22</v>
+      </c>
+      <c r="AO429">
+        <v>1.38</v>
+      </c>
+      <c r="AP429">
+        <v>1.8</v>
+      </c>
+      <c r="AQ429">
+        <v>2.5</v>
+      </c>
+      <c r="AR429">
+        <v>1.09</v>
+      </c>
+      <c r="AS429">
+        <v>2.54</v>
+      </c>
+      <c r="AT429">
+        <v>1</v>
+      </c>
+      <c r="AU429">
+        <v>1.7</v>
+      </c>
+      <c r="AV429">
+        <v>1.11</v>
+      </c>
+      <c r="AW429">
+        <v>2.81</v>
+      </c>
+      <c r="AX429">
+        <v>1.47</v>
+      </c>
+      <c r="AY429">
+        <v>8.9</v>
+      </c>
+      <c r="AZ429">
+        <v>3.32</v>
+      </c>
+      <c r="BA429">
+        <v>1.5</v>
+      </c>
+      <c r="BB429">
+        <v>1.85</v>
+      </c>
+      <c r="BC429">
+        <v>2.3</v>
+      </c>
+      <c r="BD429">
+        <v>3.28</v>
+      </c>
+      <c r="BE429">
+        <v>5</v>
+      </c>
+      <c r="BF429">
+        <v>6</v>
+      </c>
+      <c r="BG429">
+        <v>2</v>
+      </c>
+      <c r="BH429">
+        <v>6</v>
+      </c>
+      <c r="BI429">
+        <v>3</v>
+      </c>
+      <c r="BJ429">
+        <v>12</v>
+      </c>
+      <c r="BK429">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:63">
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>6161991</v>
+      </c>
+      <c r="C430" t="s">
+        <v>63</v>
+      </c>
+      <c r="D430" t="s">
+        <v>64</v>
+      </c>
+      <c r="E430" s="2">
+        <v>45129.75694444445</v>
+      </c>
+      <c r="F430">
+        <v>26</v>
+      </c>
+      <c r="G430" t="s">
+        <v>69</v>
+      </c>
+      <c r="H430" t="s">
+        <v>65</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+      <c r="M430">
+        <v>2</v>
+      </c>
+      <c r="N430">
+        <v>2</v>
+      </c>
+      <c r="O430" t="s">
+        <v>102</v>
+      </c>
+      <c r="P430" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q430">
+        <v>5</v>
+      </c>
+      <c r="R430">
+        <v>5</v>
+      </c>
+      <c r="S430">
+        <v>10</v>
+      </c>
+      <c r="T430">
+        <v>3.6</v>
+      </c>
+      <c r="U430">
+        <v>1.8</v>
+      </c>
+      <c r="V430">
+        <v>3.6</v>
+      </c>
+      <c r="W430">
+        <v>1.66</v>
+      </c>
+      <c r="X430">
+        <v>2.11</v>
+      </c>
+      <c r="Y430">
+        <v>4.33</v>
+      </c>
+      <c r="Z430">
+        <v>1.2</v>
+      </c>
+      <c r="AA430">
+        <v>9</v>
+      </c>
+      <c r="AB430">
+        <v>1.03</v>
+      </c>
+      <c r="AC430">
+        <v>2.74</v>
+      </c>
+      <c r="AD430">
+        <v>2.82</v>
+      </c>
+      <c r="AE430">
+        <v>2.5</v>
+      </c>
+      <c r="AF430">
+        <v>1.12</v>
+      </c>
+      <c r="AG430">
+        <v>6.05</v>
+      </c>
+      <c r="AH430">
+        <v>1.53</v>
+      </c>
+      <c r="AI430">
+        <v>2.2</v>
+      </c>
+      <c r="AJ430">
+        <v>2.78</v>
+      </c>
+      <c r="AK430">
+        <v>1.33</v>
+      </c>
+      <c r="AL430">
+        <v>2.25</v>
+      </c>
+      <c r="AM430">
+        <v>1.6</v>
+      </c>
+      <c r="AN430">
+        <v>1.4</v>
+      </c>
+      <c r="AO430">
+        <v>1.35</v>
+      </c>
+      <c r="AP430">
+        <v>1.4</v>
+      </c>
+      <c r="AQ430">
+        <v>1.91</v>
+      </c>
+      <c r="AR430">
+        <v>1.17</v>
+      </c>
+      <c r="AS430">
+        <v>1.75</v>
+      </c>
+      <c r="AT430">
+        <v>1.31</v>
+      </c>
+      <c r="AU430">
+        <v>1.25</v>
+      </c>
+      <c r="AV430">
+        <v>1.16</v>
+      </c>
+      <c r="AW430">
+        <v>2.41</v>
+      </c>
+      <c r="AX430">
+        <v>2.33</v>
+      </c>
+      <c r="AY430">
+        <v>8.1</v>
+      </c>
+      <c r="AZ430">
+        <v>1.85</v>
+      </c>
+      <c r="BA430">
+        <v>1.65</v>
+      </c>
+      <c r="BB430">
+        <v>2.05</v>
+      </c>
+      <c r="BC430">
+        <v>2.63</v>
+      </c>
+      <c r="BD430">
+        <v>3.92</v>
+      </c>
+      <c r="BE430">
+        <v>5.9</v>
+      </c>
+      <c r="BF430">
+        <v>3</v>
+      </c>
+      <c r="BG430">
+        <v>7</v>
+      </c>
+      <c r="BH430">
+        <v>4</v>
+      </c>
+      <c r="BI430">
+        <v>7</v>
+      </c>
+      <c r="BJ430">
+        <v>7</v>
+      </c>
+      <c r="BK430">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:63">
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>6161951</v>
+      </c>
+      <c r="C431" t="s">
+        <v>63</v>
+      </c>
+      <c r="D431" t="s">
+        <v>64</v>
+      </c>
+      <c r="E431" s="2">
+        <v>45129.84027777778</v>
+      </c>
+      <c r="F431">
+        <v>23</v>
+      </c>
+      <c r="G431" t="s">
+        <v>101</v>
+      </c>
+      <c r="H431" t="s">
+        <v>100</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>1</v>
+      </c>
+      <c r="M431">
+        <v>1</v>
+      </c>
+      <c r="N431">
+        <v>2</v>
+      </c>
+      <c r="O431" t="s">
+        <v>342</v>
+      </c>
+      <c r="P431" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q431">
+        <v>8</v>
+      </c>
+      <c r="R431">
+        <v>1</v>
+      </c>
+      <c r="S431">
+        <v>9</v>
+      </c>
+      <c r="T431">
+        <v>2.3</v>
+      </c>
+      <c r="U431">
+        <v>2.1</v>
+      </c>
+      <c r="V431">
+        <v>5.5</v>
+      </c>
+      <c r="W431">
+        <v>1.45</v>
+      </c>
+      <c r="X431">
+        <v>2.6</v>
+      </c>
+      <c r="Y431">
+        <v>3.26</v>
+      </c>
+      <c r="Z431">
+        <v>1.33</v>
+      </c>
+      <c r="AA431">
+        <v>7.25</v>
+      </c>
+      <c r="AB431">
+        <v>1.06</v>
+      </c>
+      <c r="AC431">
+        <v>1.65</v>
+      </c>
+      <c r="AD431">
+        <v>3.45</v>
+      </c>
+      <c r="AE431">
+        <v>4.45</v>
+      </c>
+      <c r="AF431">
+        <v>1.05</v>
+      </c>
+      <c r="AG431">
+        <v>9.6</v>
+      </c>
+      <c r="AH431">
+        <v>1.36</v>
+      </c>
+      <c r="AI431">
+        <v>2.93</v>
+      </c>
+      <c r="AJ431">
+        <v>2.13</v>
+      </c>
+      <c r="AK431">
+        <v>1.71</v>
+      </c>
+      <c r="AL431">
+        <v>2.1</v>
+      </c>
+      <c r="AM431">
+        <v>1.7</v>
+      </c>
+      <c r="AN431">
+        <v>1.16</v>
+      </c>
+      <c r="AO431">
+        <v>1.24</v>
+      </c>
+      <c r="AP431">
+        <v>2.1</v>
+      </c>
+      <c r="AQ431">
+        <v>2.55</v>
+      </c>
+      <c r="AR431">
+        <v>1.36</v>
+      </c>
+      <c r="AS431">
+        <v>2.42</v>
+      </c>
+      <c r="AT431">
+        <v>1.33</v>
+      </c>
+      <c r="AU431">
+        <v>1.7</v>
+      </c>
+      <c r="AV431">
+        <v>1.16</v>
+      </c>
+      <c r="AW431">
+        <v>2.86</v>
+      </c>
+      <c r="AX431">
+        <v>1.44</v>
+      </c>
+      <c r="AY431">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ431">
+        <v>3.44</v>
+      </c>
+      <c r="BA431">
+        <v>1.43</v>
+      </c>
+      <c r="BB431">
+        <v>1.73</v>
+      </c>
+      <c r="BC431">
+        <v>2.2</v>
+      </c>
+      <c r="BD431">
+        <v>2.5</v>
+      </c>
+      <c r="BE431">
+        <v>4.2</v>
+      </c>
+      <c r="BF431">
+        <v>5</v>
+      </c>
+      <c r="BG431">
+        <v>3</v>
+      </c>
+      <c r="BH431">
+        <v>14</v>
+      </c>
+      <c r="BI431">
+        <v>1</v>
+      </c>
+      <c r="BJ431">
+        <v>19</v>
+      </c>
+      <c r="BK431">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:63">
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>6161992</v>
+      </c>
+      <c r="C432" t="s">
+        <v>63</v>
+      </c>
+      <c r="D432" t="s">
+        <v>64</v>
+      </c>
+      <c r="E432" s="2">
+        <v>45130.62847222222</v>
+      </c>
+      <c r="F432">
+        <v>26</v>
+      </c>
+      <c r="G432" t="s">
+        <v>79</v>
+      </c>
+      <c r="H432" t="s">
+        <v>71</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>2</v>
+      </c>
+      <c r="K432">
+        <v>2</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+      <c r="M432">
+        <v>2</v>
+      </c>
+      <c r="N432">
+        <v>2</v>
+      </c>
+      <c r="O432" t="s">
+        <v>102</v>
+      </c>
+      <c r="P432" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q432">
+        <v>3</v>
+      </c>
+      <c r="R432">
+        <v>4</v>
+      </c>
+      <c r="S432">
+        <v>7</v>
+      </c>
+      <c r="T432">
+        <v>3.3</v>
+      </c>
+      <c r="U432">
+        <v>1.87</v>
+      </c>
+      <c r="V432">
+        <v>3.5</v>
+      </c>
+      <c r="W432">
+        <v>1.56</v>
+      </c>
+      <c r="X432">
+        <v>2.31</v>
+      </c>
+      <c r="Y432">
+        <v>3.5</v>
+      </c>
+      <c r="Z432">
+        <v>1.26</v>
+      </c>
+      <c r="AA432">
+        <v>10.5</v>
+      </c>
+      <c r="AB432">
+        <v>1.04</v>
+      </c>
+      <c r="AC432">
+        <v>2.6</v>
+      </c>
+      <c r="AD432">
+        <v>2.85</v>
+      </c>
+      <c r="AE432">
+        <v>2.71</v>
+      </c>
+      <c r="AF432">
+        <v>1.1</v>
+      </c>
+      <c r="AG432">
+        <v>6</v>
+      </c>
+      <c r="AH432">
+        <v>1.52</v>
+      </c>
+      <c r="AI432">
+        <v>2.43</v>
+      </c>
+      <c r="AJ432">
+        <v>2.5</v>
+      </c>
+      <c r="AK432">
+        <v>1.47</v>
+      </c>
+      <c r="AL432">
+        <v>2.1</v>
+      </c>
+      <c r="AM432">
+        <v>1.7</v>
+      </c>
+      <c r="AN432">
+        <v>1.36</v>
+      </c>
+      <c r="AO432">
+        <v>1.3</v>
+      </c>
+      <c r="AP432">
+        <v>1.4</v>
+      </c>
+      <c r="AQ432">
+        <v>1.64</v>
+      </c>
+      <c r="AR432">
+        <v>1.33</v>
+      </c>
+      <c r="AS432">
+        <v>1.5</v>
+      </c>
+      <c r="AT432">
+        <v>1.46</v>
+      </c>
+      <c r="AU432">
+        <v>1.36</v>
+      </c>
+      <c r="AV432">
+        <v>1.12</v>
+      </c>
+      <c r="AW432">
+        <v>2.48</v>
+      </c>
+      <c r="AX432">
+        <v>1.85</v>
+      </c>
+      <c r="AY432">
+        <v>8.5</v>
+      </c>
+      <c r="AZ432">
+        <v>2.3</v>
+      </c>
+      <c r="BA432">
+        <v>1.43</v>
+      </c>
+      <c r="BB432">
+        <v>1.79</v>
+      </c>
+      <c r="BC432">
+        <v>2.29</v>
+      </c>
+      <c r="BD432">
+        <v>3.08</v>
+      </c>
+      <c r="BE432">
+        <v>4.6</v>
+      </c>
+      <c r="BF432">
+        <v>2</v>
+      </c>
+      <c r="BG432">
+        <v>4</v>
+      </c>
+      <c r="BH432">
+        <v>9</v>
+      </c>
+      <c r="BI432">
+        <v>5</v>
+      </c>
+      <c r="BJ432">
+        <v>11</v>
+      </c>
+      <c r="BK432">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:63">
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>6161990</v>
+      </c>
+      <c r="C433" t="s">
+        <v>63</v>
+      </c>
+      <c r="D433" t="s">
+        <v>64</v>
+      </c>
+      <c r="E433" s="2">
+        <v>45130.64583333334</v>
+      </c>
+      <c r="F433">
+        <v>26</v>
+      </c>
+      <c r="G433" t="s">
+        <v>72</v>
+      </c>
+      <c r="H433" t="s">
+        <v>73</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>1</v>
+      </c>
+      <c r="K433">
+        <v>1</v>
+      </c>
+      <c r="L433">
+        <v>0</v>
+      </c>
+      <c r="M433">
+        <v>1</v>
+      </c>
+      <c r="N433">
+        <v>1</v>
+      </c>
+      <c r="O433" t="s">
+        <v>102</v>
+      </c>
+      <c r="P433" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q433">
+        <v>9</v>
+      </c>
+      <c r="R433">
+        <v>3</v>
+      </c>
+      <c r="S433">
+        <v>12</v>
+      </c>
+      <c r="T433">
+        <v>2.63</v>
+      </c>
+      <c r="U433">
+        <v>1.91</v>
+      </c>
+      <c r="V433">
+        <v>5.5</v>
+      </c>
+      <c r="W433">
+        <v>1.61</v>
+      </c>
+      <c r="X433">
+        <v>2.15</v>
+      </c>
+      <c r="Y433">
+        <v>4</v>
+      </c>
+      <c r="Z433">
+        <v>1.21</v>
+      </c>
+      <c r="AA433">
+        <v>12</v>
+      </c>
+      <c r="AB433">
+        <v>1.03</v>
+      </c>
+      <c r="AC433">
+        <v>1.85</v>
+      </c>
+      <c r="AD433">
+        <v>2.9</v>
+      </c>
+      <c r="AE433">
+        <v>4.55</v>
+      </c>
+      <c r="AF433">
+        <v>1.11</v>
+      </c>
+      <c r="AG433">
+        <v>5.75</v>
+      </c>
+      <c r="AH433">
+        <v>1.55</v>
+      </c>
+      <c r="AI433">
+        <v>2.33</v>
+      </c>
+      <c r="AJ433">
+        <v>2.67</v>
+      </c>
+      <c r="AK433">
+        <v>1.42</v>
+      </c>
+      <c r="AL433">
+        <v>2.45</v>
+      </c>
+      <c r="AM433">
+        <v>1.47</v>
+      </c>
+      <c r="AN433">
+        <v>1.18</v>
+      </c>
+      <c r="AO433">
+        <v>1.33</v>
+      </c>
+      <c r="AP433">
+        <v>1.9</v>
+      </c>
+      <c r="AQ433">
+        <v>2.09</v>
+      </c>
+      <c r="AR433">
+        <v>1.08</v>
+      </c>
+      <c r="AS433">
+        <v>1.92</v>
+      </c>
+      <c r="AT433">
+        <v>1.23</v>
+      </c>
+      <c r="AU433">
+        <v>1.52</v>
+      </c>
+      <c r="AV433">
+        <v>1.09</v>
+      </c>
+      <c r="AW433">
+        <v>2.61</v>
+      </c>
+      <c r="AX433">
+        <v>1.53</v>
+      </c>
+      <c r="AY433">
+        <v>8.9</v>
+      </c>
+      <c r="AZ433">
+        <v>3.04</v>
+      </c>
+      <c r="BA433">
+        <v>1.44</v>
+      </c>
+      <c r="BB433">
+        <v>1.73</v>
+      </c>
+      <c r="BC433">
+        <v>2.2</v>
+      </c>
+      <c r="BD433">
+        <v>3.1</v>
+      </c>
+      <c r="BE433">
+        <v>3.9</v>
+      </c>
+      <c r="BF433">
+        <v>4</v>
+      </c>
+      <c r="BG433">
+        <v>4</v>
+      </c>
+      <c r="BH433">
+        <v>9</v>
+      </c>
+      <c r="BI433">
+        <v>1</v>
+      </c>
+      <c r="BJ433">
+        <v>13</v>
+      </c>
+      <c r="BK433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:63">
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>6161953</v>
+      </c>
+      <c r="C434" t="s">
+        <v>63</v>
+      </c>
+      <c r="D434" t="s">
+        <v>64</v>
+      </c>
+      <c r="E434" s="2">
+        <v>45130.64583333334</v>
+      </c>
+      <c r="F434">
+        <v>23</v>
+      </c>
+      <c r="G434" t="s">
+        <v>97</v>
+      </c>
+      <c r="H434" t="s">
+        <v>95</v>
+      </c>
+      <c r="I434">
+        <v>1</v>
+      </c>
+      <c r="J434">
+        <v>1</v>
+      </c>
+      <c r="K434">
+        <v>2</v>
+      </c>
+      <c r="L434">
+        <v>1</v>
+      </c>
+      <c r="M434">
+        <v>2</v>
+      </c>
+      <c r="N434">
+        <v>3</v>
+      </c>
+      <c r="O434" t="s">
+        <v>210</v>
+      </c>
+      <c r="P434" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q434">
+        <v>4</v>
+      </c>
+      <c r="R434">
+        <v>9</v>
+      </c>
+      <c r="S434">
+        <v>13</v>
+      </c>
+      <c r="T434">
+        <v>3.5</v>
+      </c>
+      <c r="U434">
+        <v>1.91</v>
+      </c>
+      <c r="V434">
+        <v>3.75</v>
+      </c>
+      <c r="W434">
+        <v>1.62</v>
+      </c>
+      <c r="X434">
+        <v>2.2</v>
+      </c>
+      <c r="Y434">
+        <v>4</v>
+      </c>
+      <c r="Z434">
+        <v>1.22</v>
+      </c>
+      <c r="AA434">
+        <v>13</v>
+      </c>
+      <c r="AB434">
+        <v>1.04</v>
+      </c>
+      <c r="AC434">
+        <v>2.67</v>
+      </c>
+      <c r="AD434">
+        <v>2.8</v>
+      </c>
+      <c r="AE434">
+        <v>2.68</v>
+      </c>
+      <c r="AF434">
+        <v>1.11</v>
+      </c>
+      <c r="AG434">
+        <v>6</v>
+      </c>
+      <c r="AH434">
+        <v>1.48</v>
+      </c>
+      <c r="AI434">
+        <v>2.55</v>
+      </c>
+      <c r="AJ434">
+        <v>2.5</v>
+      </c>
+      <c r="AK434">
+        <v>1.47</v>
+      </c>
+      <c r="AL434">
+        <v>2.2</v>
+      </c>
+      <c r="AM434">
+        <v>1.62</v>
+      </c>
+      <c r="AN434">
+        <v>1.41</v>
+      </c>
+      <c r="AO434">
+        <v>1.38</v>
+      </c>
+      <c r="AP434">
+        <v>1.49</v>
+      </c>
+      <c r="AQ434">
+        <v>2</v>
+      </c>
+      <c r="AR434">
+        <v>1.55</v>
+      </c>
+      <c r="AS434">
+        <v>1.83</v>
+      </c>
+      <c r="AT434">
+        <v>1.67</v>
+      </c>
+      <c r="AU434">
+        <v>1.53</v>
+      </c>
+      <c r="AV434">
+        <v>1.47</v>
+      </c>
+      <c r="AW434">
+        <v>3</v>
+      </c>
+      <c r="AX434">
+        <v>2.07</v>
+      </c>
+      <c r="AY434">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ434">
+        <v>2.04</v>
+      </c>
+      <c r="BA434">
+        <v>1.4</v>
+      </c>
+      <c r="BB434">
+        <v>1.74</v>
+      </c>
+      <c r="BC434">
+        <v>2.21</v>
+      </c>
+      <c r="BD434">
+        <v>2.98</v>
+      </c>
+      <c r="BE434">
+        <v>4.5</v>
+      </c>
+      <c r="BF434">
+        <v>4</v>
+      </c>
+      <c r="BG434">
+        <v>4</v>
+      </c>
+      <c r="BH434">
+        <v>2</v>
+      </c>
+      <c r="BI434">
+        <v>5</v>
+      </c>
+      <c r="BJ434">
+        <v>6</v>
+      </c>
+      <c r="BK434">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:63">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>6161949</v>
+      </c>
+      <c r="C435" t="s">
+        <v>63</v>
+      </c>
+      <c r="D435" t="s">
+        <v>64</v>
+      </c>
+      <c r="E435" s="2">
+        <v>45130.64583333334</v>
+      </c>
+      <c r="F435">
+        <v>23</v>
+      </c>
+      <c r="G435" t="s">
+        <v>84</v>
+      </c>
+      <c r="H435" t="s">
+        <v>94</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435">
+        <v>2</v>
+      </c>
+      <c r="L435">
+        <v>1</v>
+      </c>
+      <c r="M435">
+        <v>2</v>
+      </c>
+      <c r="N435">
+        <v>3</v>
+      </c>
+      <c r="O435" t="s">
+        <v>220</v>
+      </c>
+      <c r="P435" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q435">
+        <v>2</v>
+      </c>
+      <c r="R435">
+        <v>5</v>
+      </c>
+      <c r="S435">
+        <v>7</v>
+      </c>
+      <c r="T435">
+        <v>4.75</v>
+      </c>
+      <c r="U435">
+        <v>1.9</v>
+      </c>
+      <c r="V435">
+        <v>2.6</v>
+      </c>
+      <c r="W435">
+        <v>1.55</v>
+      </c>
+      <c r="X435">
+        <v>2.25</v>
+      </c>
+      <c r="Y435">
+        <v>3.5</v>
+      </c>
+      <c r="Z435">
+        <v>1.26</v>
+      </c>
+      <c r="AA435">
+        <v>10</v>
+      </c>
+      <c r="AB435">
+        <v>1.04</v>
+      </c>
+      <c r="AC435">
+        <v>3.52</v>
+      </c>
+      <c r="AD435">
+        <v>3</v>
+      </c>
+      <c r="AE435">
+        <v>2.05</v>
+      </c>
+      <c r="AF435">
+        <v>1.09</v>
+      </c>
+      <c r="AG435">
+        <v>7.1</v>
+      </c>
+      <c r="AH435">
+        <v>1.49</v>
+      </c>
+      <c r="AI435">
+        <v>2.5</v>
+      </c>
+      <c r="AJ435">
+        <v>2.62</v>
+      </c>
+      <c r="AK435">
+        <v>1.43</v>
+      </c>
+      <c r="AL435">
+        <v>2.15</v>
+      </c>
+      <c r="AM435">
+        <v>1.65</v>
+      </c>
+      <c r="AN435">
+        <v>1.83</v>
+      </c>
+      <c r="AO435">
+        <v>1.3</v>
+      </c>
+      <c r="AP435">
+        <v>1.16</v>
+      </c>
+      <c r="AQ435">
+        <v>1.27</v>
+      </c>
+      <c r="AR435">
+        <v>1</v>
+      </c>
+      <c r="AS435">
+        <v>1.17</v>
+      </c>
+      <c r="AT435">
+        <v>1.17</v>
+      </c>
+      <c r="AU435">
+        <v>1.38</v>
+      </c>
+      <c r="AV435">
+        <v>1.32</v>
+      </c>
+      <c r="AW435">
+        <v>2.7</v>
+      </c>
+      <c r="AX435">
+        <v>2.31</v>
+      </c>
+      <c r="AY435">
+        <v>8.5</v>
+      </c>
+      <c r="AZ435">
+        <v>1.84</v>
+      </c>
+      <c r="BA435">
+        <v>1.39</v>
+      </c>
+      <c r="BB435">
+        <v>1.72</v>
+      </c>
+      <c r="BC435">
+        <v>2.19</v>
+      </c>
+      <c r="BD435">
+        <v>2.93</v>
+      </c>
+      <c r="BE435">
+        <v>4.2</v>
+      </c>
+      <c r="BF435">
+        <v>2</v>
+      </c>
+      <c r="BG435">
+        <v>6</v>
+      </c>
+      <c r="BH435">
+        <v>3</v>
+      </c>
+      <c r="BI435">
+        <v>6</v>
+      </c>
+      <c r="BJ435">
+        <v>5</v>
+      </c>
+      <c r="BK435">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:63">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>6161950</v>
+      </c>
+      <c r="C436" t="s">
+        <v>63</v>
+      </c>
+      <c r="D436" t="s">
+        <v>64</v>
+      </c>
+      <c r="E436" s="2">
+        <v>45130.64583333334</v>
+      </c>
+      <c r="F436">
+        <v>23</v>
+      </c>
+      <c r="G436" t="s">
+        <v>89</v>
+      </c>
+      <c r="H436" t="s">
+        <v>92</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>1</v>
+      </c>
+      <c r="L436">
+        <v>2</v>
+      </c>
+      <c r="M436">
+        <v>1</v>
+      </c>
+      <c r="N436">
+        <v>3</v>
+      </c>
+      <c r="O436" t="s">
+        <v>343</v>
+      </c>
+      <c r="P436" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q436">
+        <v>2</v>
+      </c>
+      <c r="R436">
+        <v>6</v>
+      </c>
+      <c r="S436">
+        <v>8</v>
+      </c>
+      <c r="T436">
+        <v>2.15</v>
+      </c>
+      <c r="U436">
+        <v>2.05</v>
+      </c>
+      <c r="V436">
+        <v>6</v>
+      </c>
+      <c r="W436">
+        <v>1.48</v>
+      </c>
+      <c r="X436">
+        <v>2.5</v>
+      </c>
+      <c r="Y436">
+        <v>3.37</v>
+      </c>
+      <c r="Z436">
+        <v>1.32</v>
+      </c>
+      <c r="AA436">
+        <v>9</v>
+      </c>
+      <c r="AB436">
+        <v>1.06</v>
+      </c>
+      <c r="AC436">
+        <v>1.57</v>
+      </c>
+      <c r="AD436">
+        <v>3.55</v>
+      </c>
+      <c r="AE436">
+        <v>5.37</v>
+      </c>
+      <c r="AF436">
+        <v>1.07</v>
+      </c>
+      <c r="AG436">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH436">
+        <v>1.4</v>
+      </c>
+      <c r="AI436">
+        <v>2.8</v>
+      </c>
+      <c r="AJ436">
+        <v>2.32</v>
+      </c>
+      <c r="AK436">
+        <v>1.54</v>
+      </c>
+      <c r="AL436">
+        <v>2.25</v>
+      </c>
+      <c r="AM436">
+        <v>1.6</v>
+      </c>
+      <c r="AN436">
+        <v>1.08</v>
+      </c>
+      <c r="AO436">
+        <v>1.2</v>
+      </c>
+      <c r="AP436">
+        <v>2.35</v>
+      </c>
+      <c r="AQ436">
+        <v>2.36</v>
+      </c>
+      <c r="AR436">
+        <v>0.64</v>
+      </c>
+      <c r="AS436">
+        <v>2.42</v>
+      </c>
+      <c r="AT436">
+        <v>0.58</v>
+      </c>
+      <c r="AU436">
+        <v>2</v>
+      </c>
+      <c r="AV436">
+        <v>1.37</v>
+      </c>
+      <c r="AW436">
+        <v>3.37</v>
+      </c>
+      <c r="AX436">
+        <v>1.56</v>
+      </c>
+      <c r="AY436">
+        <v>9</v>
+      </c>
+      <c r="AZ436">
+        <v>2.93</v>
+      </c>
+      <c r="BA436">
+        <v>1.32</v>
+      </c>
+      <c r="BB436">
+        <v>1.61</v>
+      </c>
+      <c r="BC436">
+        <v>2.05</v>
+      </c>
+      <c r="BD436">
+        <v>2.69</v>
+      </c>
+      <c r="BE436">
+        <v>3.65</v>
+      </c>
+      <c r="BF436">
+        <v>4</v>
+      </c>
+      <c r="BG436">
+        <v>4</v>
+      </c>
+      <c r="BH436">
+        <v>5</v>
+      </c>
+      <c r="BI436">
+        <v>7</v>
+      </c>
+      <c r="BJ436">
+        <v>9</v>
+      </c>
+      <c r="BK436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:63">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>6161952</v>
+      </c>
+      <c r="C437" t="s">
+        <v>63</v>
+      </c>
+      <c r="D437" t="s">
+        <v>64</v>
+      </c>
+      <c r="E437" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F437">
+        <v>23</v>
+      </c>
+      <c r="G437" t="s">
+        <v>98</v>
+      </c>
+      <c r="H437" t="s">
+        <v>96</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437">
+        <v>1</v>
+      </c>
+      <c r="K437">
+        <v>2</v>
+      </c>
+      <c r="L437">
+        <v>1</v>
+      </c>
+      <c r="M437">
+        <v>1</v>
+      </c>
+      <c r="N437">
+        <v>2</v>
+      </c>
+      <c r="O437" t="s">
+        <v>344</v>
+      </c>
+      <c r="P437" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q437">
+        <v>7</v>
+      </c>
+      <c r="R437">
+        <v>7</v>
+      </c>
+      <c r="S437">
+        <v>14</v>
+      </c>
+      <c r="T437">
+        <v>2.6</v>
+      </c>
+      <c r="U437">
+        <v>1.9</v>
+      </c>
+      <c r="V437">
+        <v>4.75</v>
+      </c>
+      <c r="W437">
+        <v>1.56</v>
+      </c>
+      <c r="X437">
+        <v>2.31</v>
+      </c>
+      <c r="Y437">
+        <v>3.75</v>
+      </c>
+      <c r="Z437">
+        <v>1.25</v>
+      </c>
+      <c r="AA437">
+        <v>11</v>
+      </c>
+      <c r="AB437">
+        <v>1.05</v>
+      </c>
+      <c r="AC437">
+        <v>1.83</v>
+      </c>
+      <c r="AD437">
+        <v>3.1</v>
+      </c>
+      <c r="AE437">
+        <v>4.24</v>
+      </c>
+      <c r="AF437">
+        <v>1.09</v>
+      </c>
+      <c r="AG437">
+        <v>7.25</v>
+      </c>
+      <c r="AH437">
+        <v>1.47</v>
+      </c>
+      <c r="AI437">
+        <v>2.55</v>
+      </c>
+      <c r="AJ437">
+        <v>2.62</v>
+      </c>
+      <c r="AK437">
+        <v>1.43</v>
+      </c>
+      <c r="AL437">
+        <v>2.15</v>
+      </c>
+      <c r="AM437">
+        <v>1.62</v>
+      </c>
+      <c r="AN437">
+        <v>1.14</v>
+      </c>
+      <c r="AO437">
+        <v>1.28</v>
+      </c>
+      <c r="AP437">
+        <v>1.9</v>
+      </c>
+      <c r="AQ437">
+        <v>1.73</v>
+      </c>
+      <c r="AR437">
+        <v>0.64</v>
+      </c>
+      <c r="AS437">
+        <v>1.67</v>
+      </c>
+      <c r="AT437">
+        <v>0.67</v>
+      </c>
+      <c r="AU437">
+        <v>1.65</v>
+      </c>
+      <c r="AV437">
+        <v>1.35</v>
+      </c>
+      <c r="AW437">
+        <v>3</v>
+      </c>
+      <c r="AX437">
+        <v>1.64</v>
+      </c>
+      <c r="AY437">
+        <v>9</v>
+      </c>
+      <c r="AZ437">
+        <v>2.68</v>
+      </c>
+      <c r="BA437">
+        <v>1.27</v>
+      </c>
+      <c r="BB437">
+        <v>1.53</v>
+      </c>
+      <c r="BC437">
+        <v>1.92</v>
+      </c>
+      <c r="BD437">
+        <v>2.49</v>
+      </c>
+      <c r="BE437">
+        <v>3.34</v>
+      </c>
+      <c r="BF437">
+        <v>4</v>
+      </c>
+      <c r="BG437">
+        <v>3</v>
+      </c>
+      <c r="BH437">
+        <v>5</v>
+      </c>
+      <c r="BI437">
+        <v>3</v>
+      </c>
+      <c r="BJ437">
+        <v>9</v>
+      </c>
+      <c r="BK437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:63">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>6161947</v>
+      </c>
+      <c r="C438" t="s">
+        <v>63</v>
+      </c>
+      <c r="D438" t="s">
+        <v>64</v>
+      </c>
+      <c r="E438" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F438">
+        <v>23</v>
+      </c>
+      <c r="G438" t="s">
+        <v>75</v>
+      </c>
+      <c r="H438" t="s">
+        <v>76</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>1</v>
+      </c>
+      <c r="L438">
+        <v>1</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>1</v>
+      </c>
+      <c r="O438" t="s">
+        <v>114</v>
+      </c>
+      <c r="P438" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q438">
+        <v>6</v>
+      </c>
+      <c r="R438">
+        <v>6</v>
+      </c>
+      <c r="S438">
+        <v>12</v>
+      </c>
+      <c r="T438">
+        <v>2.6</v>
+      </c>
+      <c r="U438">
+        <v>1.9</v>
+      </c>
+      <c r="V438">
+        <v>4.75</v>
+      </c>
+      <c r="W438">
+        <v>1.54</v>
+      </c>
+      <c r="X438">
+        <v>2.36</v>
+      </c>
+      <c r="Y438">
+        <v>3.5</v>
+      </c>
+      <c r="Z438">
+        <v>1.29</v>
+      </c>
+      <c r="AA438">
+        <v>11</v>
+      </c>
+      <c r="AB438">
+        <v>1.05</v>
+      </c>
+      <c r="AC438">
+        <v>1.88</v>
+      </c>
+      <c r="AD438">
+        <v>3.1</v>
+      </c>
+      <c r="AE438">
+        <v>3.99</v>
+      </c>
+      <c r="AF438">
+        <v>1.08</v>
+      </c>
+      <c r="AG438">
+        <v>6.5</v>
+      </c>
+      <c r="AH438">
+        <v>1.45</v>
+      </c>
+      <c r="AI438">
+        <v>2.65</v>
+      </c>
+      <c r="AJ438">
+        <v>2.29</v>
+      </c>
+      <c r="AK438">
+        <v>1.55</v>
+      </c>
+      <c r="AL438">
+        <v>2.1</v>
+      </c>
+      <c r="AM438">
+        <v>1.68</v>
+      </c>
+      <c r="AN438">
+        <v>1.16</v>
+      </c>
+      <c r="AO438">
+        <v>1.28</v>
+      </c>
+      <c r="AP438">
+        <v>1.85</v>
+      </c>
+      <c r="AQ438">
+        <v>1.55</v>
+      </c>
+      <c r="AR438">
+        <v>0.64</v>
+      </c>
+      <c r="AS438">
+        <v>1.67</v>
+      </c>
+      <c r="AT438">
+        <v>0.58</v>
+      </c>
+      <c r="AU438">
+        <v>1.51</v>
+      </c>
+      <c r="AV438">
+        <v>1.23</v>
+      </c>
+      <c r="AW438">
+        <v>2.74</v>
+      </c>
+      <c r="AX438">
+        <v>1.52</v>
+      </c>
+      <c r="AY438">
+        <v>9.4</v>
+      </c>
+      <c r="AZ438">
+        <v>3.04</v>
+      </c>
+      <c r="BA438">
+        <v>1.24</v>
+      </c>
+      <c r="BB438">
+        <v>1.46</v>
+      </c>
+      <c r="BC438">
+        <v>1.82</v>
+      </c>
+      <c r="BD438">
+        <v>2.32</v>
+      </c>
+      <c r="BE438">
+        <v>3.08</v>
+      </c>
+      <c r="BF438">
+        <v>2</v>
+      </c>
+      <c r="BG438">
+        <v>3</v>
+      </c>
+      <c r="BH438">
+        <v>4</v>
+      </c>
+      <c r="BI438">
+        <v>3</v>
+      </c>
+      <c r="BJ438">
+        <v>6</v>
+      </c>
+      <c r="BK438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:63">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>6161997</v>
+      </c>
+      <c r="C439" t="s">
+        <v>63</v>
+      </c>
+      <c r="D439" t="s">
+        <v>64</v>
+      </c>
+      <c r="E439" s="2">
+        <v>45130.71527777778</v>
+      </c>
+      <c r="F439">
+        <v>26</v>
+      </c>
+      <c r="G439" t="s">
+        <v>80</v>
+      </c>
+      <c r="H439" t="s">
+        <v>85</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439" t="s">
+        <v>102</v>
+      </c>
+      <c r="P439" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q439">
+        <v>5</v>
+      </c>
+      <c r="R439">
+        <v>1</v>
+      </c>
+      <c r="S439">
+        <v>6</v>
+      </c>
+      <c r="T439">
+        <v>3.75</v>
+      </c>
+      <c r="U439">
+        <v>1.75</v>
+      </c>
+      <c r="V439">
+        <v>3.5</v>
+      </c>
+      <c r="W439">
+        <v>1.69</v>
+      </c>
+      <c r="X439">
+        <v>2.06</v>
+      </c>
+      <c r="Y439">
+        <v>4.1</v>
+      </c>
+      <c r="Z439">
+        <v>1.2</v>
+      </c>
+      <c r="AA439">
+        <v>12.5</v>
+      </c>
+      <c r="AB439">
+        <v>1.03</v>
+      </c>
+      <c r="AC439">
+        <v>3</v>
+      </c>
+      <c r="AD439">
+        <v>2.65</v>
+      </c>
+      <c r="AE439">
+        <v>2.4</v>
+      </c>
+      <c r="AF439">
+        <v>1.15</v>
+      </c>
+      <c r="AG439">
+        <v>5</v>
+      </c>
+      <c r="AH439">
+        <v>1.6</v>
+      </c>
+      <c r="AI439">
+        <v>2.1</v>
+      </c>
+      <c r="AJ439">
+        <v>2.9</v>
+      </c>
+      <c r="AK439">
+        <v>1.36</v>
+      </c>
+      <c r="AL439">
+        <v>2.4</v>
+      </c>
+      <c r="AM439">
+        <v>1.53</v>
+      </c>
+      <c r="AN439">
+        <v>1.38</v>
+      </c>
+      <c r="AO439">
+        <v>1.36</v>
+      </c>
+      <c r="AP439">
+        <v>1.33</v>
+      </c>
+      <c r="AQ439">
+        <v>1.58</v>
+      </c>
+      <c r="AR439">
+        <v>0.91</v>
+      </c>
+      <c r="AS439">
+        <v>1.54</v>
+      </c>
+      <c r="AT439">
+        <v>0.92</v>
+      </c>
+      <c r="AU439">
+        <v>1.3</v>
+      </c>
+      <c r="AV439">
+        <v>1.3</v>
+      </c>
+      <c r="AW439">
+        <v>2.6</v>
+      </c>
+      <c r="AX439">
+        <v>1.92</v>
+      </c>
+      <c r="AY439">
+        <v>8.1</v>
+      </c>
+      <c r="AZ439">
+        <v>2.23</v>
+      </c>
+      <c r="BA439">
+        <v>1.55</v>
+      </c>
+      <c r="BB439">
+        <v>1.98</v>
+      </c>
+      <c r="BC439">
+        <v>2.65</v>
+      </c>
+      <c r="BD439">
+        <v>3.65</v>
+      </c>
+      <c r="BE439">
+        <v>5.5</v>
+      </c>
+      <c r="BF439">
+        <v>3</v>
+      </c>
+      <c r="BG439">
+        <v>3</v>
+      </c>
+      <c r="BH439">
+        <v>5</v>
+      </c>
+      <c r="BI439">
+        <v>3</v>
+      </c>
+      <c r="BJ439">
+        <v>8</v>
+      </c>
+      <c r="BK439">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
